--- a/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
+++ b/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -523,11 +523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1342756400"/>
-        <c:axId val="-1325065328"/>
+        <c:axId val="102235312"/>
+        <c:axId val="103045072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1342756400"/>
+        <c:axId val="102235312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -596,6 +596,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -632,12 +633,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1325065328"/>
+        <c:crossAx val="103045072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1325065328"/>
+        <c:axId val="103045072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -738,7 +739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342756400"/>
+        <c:crossAx val="102235312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1644,11 +1645,12 @@
   <dimension ref="A1:N901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>

--- a/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
+++ b/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="76">
   <si>
     <t>PRTC</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Average SRM Retention Time</t>
+  </si>
+  <si>
+    <t>TASEEFDSAIAQDK</t>
   </si>
 </sst>
 </file>
@@ -523,11 +526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102235312"/>
-        <c:axId val="103045072"/>
+        <c:axId val="869039792"/>
+        <c:axId val="890599280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102235312"/>
+        <c:axId val="869039792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -633,12 +636,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103045072"/>
+        <c:crossAx val="890599280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103045072"/>
+        <c:axId val="890599280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -739,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102235312"/>
+        <c:crossAx val="869039792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1645,7 +1648,7 @@
   <dimension ref="A1:N901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,6 +1900,16 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <f>(0.2758*48) + 11.409</f>
+        <v>24.647399999999998</v>
+      </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>

--- a/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
+++ b/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="74">
   <si>
     <t>PRTC</t>
   </si>
@@ -131,9 +131,6 @@
     <t>GIAEAISSSK</t>
   </si>
   <si>
-    <t>GAVYMGHVPDAVTTR</t>
-  </si>
-  <si>
     <t>VEIIANDQGNR</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>AVVEAANNFGR</t>
-  </si>
-  <si>
-    <t>VAPPPPPTK</t>
   </si>
   <si>
     <t>SLTNVILGGYGTK</t>
@@ -526,11 +520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="869039792"/>
-        <c:axId val="890599280"/>
+        <c:axId val="1880579584"/>
+        <c:axId val="1879887360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="869039792"/>
+        <c:axId val="1880579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -636,12 +630,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890599280"/>
+        <c:crossAx val="1879887360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="890599280"/>
+        <c:axId val="1879887360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -742,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869039792"/>
+        <c:crossAx val="1880579584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1647,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,25 +1668,25 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1901,7 +1895,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -2355,8 +2349,8 @@
         <v>34</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>25.0496543</v>
+        <f>AVERAGEIF($H$2:$H$901, M25, $L$2:$L$901)</f>
+        <v>21.387030299999999</v>
       </c>
     </row>
     <row r="26" spans="8:14" x14ac:dyDescent="0.2">
@@ -2380,8 +2374,8 @@
         <v>35</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>21.387030299999999</v>
+        <f>AVERAGEIF($H$2:$H$901, M26, $L$2:$L$901)</f>
+        <v>31.609005700000012</v>
       </c>
     </row>
     <row r="27" spans="8:14" x14ac:dyDescent="0.2">
@@ -2405,8 +2399,8 @@
         <v>36</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>31.609005700000012</v>
+        <f>AVERAGEIF($H$2:$H$901, M27, $L$2:$L$901)</f>
+        <v>22.960193499999995</v>
       </c>
     </row>
     <row r="28" spans="8:14" x14ac:dyDescent="0.2">
@@ -2430,8 +2424,8 @@
         <v>37</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>22.960193499999995</v>
+        <f>AVERAGEIF($H$2:$H$901, M28, $L$2:$L$901)</f>
+        <v>30.806979300000002</v>
       </c>
     </row>
     <row r="29" spans="8:14" x14ac:dyDescent="0.2">
@@ -2455,8 +2449,8 @@
         <v>38</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>18.878353500000003</v>
+        <f>AVERAGEIF($H$2:$H$901, M29, $L$2:$L$901)</f>
+        <v>28.356082600000001</v>
       </c>
     </row>
     <row r="30" spans="8:14" x14ac:dyDescent="0.2">
@@ -2480,8 +2474,8 @@
         <v>39</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>30.806979300000002</v>
+        <f>AVERAGEIF($H$2:$H$901, M30, $L$2:$L$901)</f>
+        <v>34.781671000000003</v>
       </c>
     </row>
     <row r="31" spans="8:14" x14ac:dyDescent="0.2">
@@ -2505,8 +2499,8 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>28.356082600000001</v>
+        <f>AVERAGEIF($H$2:$H$901, M31, $L$2:$L$901)</f>
+        <v>30.599715599999996</v>
       </c>
     </row>
     <row r="32" spans="8:14" x14ac:dyDescent="0.2">
@@ -2530,8 +2524,8 @@
         <v>41</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>34.781671000000003</v>
+        <f>AVERAGEIF($H$2:$H$901, M32, $L$2:$L$901)</f>
+        <v>30.737339799999994</v>
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
@@ -2555,8 +2549,8 @@
         <v>42</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>30.599715599999996</v>
+        <f>AVERAGEIF($H$2:$H$901, M33, $L$2:$L$901)</f>
+        <v>23.280948900000002</v>
       </c>
     </row>
     <row r="34" spans="8:14" x14ac:dyDescent="0.2">
@@ -2580,8 +2574,8 @@
         <v>43</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>30.737339799999994</v>
+        <f>AVERAGEIF($H$2:$H$901, M34, $L$2:$L$901)</f>
+        <v>32.683660399999994</v>
       </c>
     </row>
     <row r="35" spans="8:14" x14ac:dyDescent="0.2">
@@ -2605,8 +2599,8 @@
         <v>44</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>23.280948900000002</v>
+        <f>AVERAGEIF($H$2:$H$901, M35, $L$2:$L$901)</f>
+        <v>27.503584799999999</v>
       </c>
     </row>
     <row r="36" spans="8:14" x14ac:dyDescent="0.2">
@@ -2630,8 +2624,8 @@
         <v>45</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>32.683660399999994</v>
+        <f>AVERAGEIF($H$2:$H$901, M36, $L$2:$L$901)</f>
+        <v>20.985051800000001</v>
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
@@ -2655,8 +2649,8 @@
         <v>46</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>27.503584799999999</v>
+        <f>AVERAGEIF($H$2:$H$901, M37, $L$2:$L$901)</f>
+        <v>24.098006399999999</v>
       </c>
     </row>
     <row r="38" spans="8:14" x14ac:dyDescent="0.2">
@@ -2680,8 +2674,8 @@
         <v>47</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
-        <v>20.985051800000001</v>
+        <f>AVERAGEIF($H$2:$H$901, M38, $L$2:$L$901)</f>
+        <v>22.219394699999999</v>
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
@@ -2705,8 +2699,8 @@
         <v>48</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
-        <v>24.098006399999999</v>
+        <f>AVERAGEIF($H$2:$H$901, M39, $L$2:$L$901)</f>
+        <v>27.567708300000003</v>
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
@@ -2730,8 +2724,8 @@
         <v>49</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
-        <v>22.219394699999999</v>
+        <f>AVERAGEIF($H$2:$H$901, M40, $L$2:$L$901)</f>
+        <v>25.090748499999997</v>
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
@@ -2755,8 +2749,8 @@
         <v>50</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
-        <v>27.567708300000003</v>
+        <f>AVERAGEIF($H$2:$H$901, M41, $L$2:$L$901)</f>
+        <v>32.046010800000012</v>
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
@@ -2780,8 +2774,8 @@
         <v>51</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
-        <v>25.090748499999997</v>
+        <f>AVERAGEIF($H$2:$H$901, M42, $L$2:$L$901)</f>
+        <v>29.153834100000001</v>
       </c>
     </row>
     <row r="43" spans="8:14" x14ac:dyDescent="0.2">
@@ -2801,13 +2795,6 @@
         <f t="shared" si="1"/>
         <v>19.71058</v>
       </c>
-      <c r="M43" t="s">
-        <v>52</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>32.046010800000012</v>
-      </c>
     </row>
     <row r="44" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
@@ -2826,13 +2813,6 @@
         <f t="shared" si="1"/>
         <v>19.649903999999999</v>
       </c>
-      <c r="M44" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>29.153834100000001</v>
-      </c>
     </row>
     <row r="45" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
@@ -3145,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3163,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3181,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -3199,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -3217,7 +3197,7 @@
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -3235,7 +3215,7 @@
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>7</v>
@@ -3253,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>8</v>
@@ -3271,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>9</v>
@@ -3289,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>10</v>
@@ -3307,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>11</v>
@@ -3325,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>12</v>
@@ -3343,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J73">
         <v>13</v>
@@ -3361,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>14</v>
@@ -3379,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>15</v>
@@ -3397,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>16</v>
@@ -3415,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>18</v>
@@ -3433,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>19</v>
@@ -3451,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>20</v>
@@ -3469,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>24</v>
@@ -3487,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>25</v>
@@ -3505,7 +3485,7 @@
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3523,7 +3503,7 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -3541,7 +3521,7 @@
         <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>4</v>
@@ -3559,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -3577,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>6</v>
@@ -3595,7 +3575,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>7</v>
@@ -3613,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -3631,7 +3611,7 @@
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>9</v>
@@ -3649,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>10</v>
@@ -3667,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>11</v>
@@ -3685,7 +3665,7 @@
         <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>12</v>
@@ -3703,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>13</v>
@@ -3721,7 +3701,7 @@
         <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>14</v>
@@ -3739,7 +3719,7 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>15</v>
@@ -3757,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>16</v>
@@ -3775,7 +3755,7 @@
         <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>18</v>
@@ -3793,7 +3773,7 @@
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>19</v>
@@ -3811,7 +3791,7 @@
         <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>20</v>
@@ -3829,7 +3809,7 @@
         <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>24</v>
@@ -3847,7 +3827,7 @@
         <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>25</v>
@@ -3865,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -3883,7 +3863,7 @@
         <v>16</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -3901,7 +3881,7 @@
         <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -3919,7 +3899,7 @@
         <v>16</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -3937,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>6</v>
@@ -3955,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>7</v>
@@ -3973,7 +3953,7 @@
         <v>16</v>
       </c>
       <c r="I108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>8</v>
@@ -3991,7 +3971,7 @@
         <v>16</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>9</v>
@@ -4009,7 +3989,7 @@
         <v>16</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>10</v>
@@ -4027,7 +4007,7 @@
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>11</v>
@@ -4045,7 +4025,7 @@
         <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>12</v>
@@ -4063,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>13</v>
@@ -4081,7 +4061,7 @@
         <v>16</v>
       </c>
       <c r="I114" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J114">
         <v>14</v>
@@ -4099,7 +4079,7 @@
         <v>16</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>15</v>
@@ -4117,7 +4097,7 @@
         <v>16</v>
       </c>
       <c r="I116" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>16</v>
@@ -4135,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="I117" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>18</v>
@@ -4153,7 +4133,7 @@
         <v>16</v>
       </c>
       <c r="I118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>19</v>
@@ -4171,7 +4151,7 @@
         <v>16</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>20</v>
@@ -4189,7 +4169,7 @@
         <v>16</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>24</v>
@@ -4207,7 +4187,7 @@
         <v>16</v>
       </c>
       <c r="I121" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>25</v>
@@ -4225,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -4243,7 +4223,7 @@
         <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -4261,7 +4241,7 @@
         <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>4</v>
@@ -4279,7 +4259,7 @@
         <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>5</v>
@@ -4297,7 +4277,7 @@
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>6</v>
@@ -4315,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>7</v>
@@ -4333,7 +4313,7 @@
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J128">
         <v>8</v>
@@ -4351,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J129">
         <v>9</v>
@@ -4369,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>10</v>
@@ -4387,7 +4367,7 @@
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>11</v>
@@ -4405,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>12</v>
@@ -4423,7 +4403,7 @@
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>13</v>
@@ -4441,7 +4421,7 @@
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>14</v>
@@ -4459,7 +4439,7 @@
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>15</v>
@@ -4477,7 +4457,7 @@
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>16</v>
@@ -4495,7 +4475,7 @@
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>18</v>
@@ -4513,7 +4493,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>19</v>
@@ -4531,7 +4511,7 @@
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>20</v>
@@ -4549,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>24</v>
@@ -4567,7 +4547,7 @@
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>25</v>
@@ -4585,7 +4565,7 @@
         <v>18</v>
       </c>
       <c r="I142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -4603,7 +4583,7 @@
         <v>18</v>
       </c>
       <c r="I143" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>3</v>
@@ -4621,7 +4601,7 @@
         <v>18</v>
       </c>
       <c r="I144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>4</v>
@@ -4639,7 +4619,7 @@
         <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>5</v>
@@ -4657,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="I146" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>6</v>
@@ -4675,7 +4655,7 @@
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>7</v>
@@ -4693,7 +4673,7 @@
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>8</v>
@@ -4711,7 +4691,7 @@
         <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>9</v>
@@ -4729,7 +4709,7 @@
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>10</v>
@@ -4747,7 +4727,7 @@
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>11</v>
@@ -4765,7 +4745,7 @@
         <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>12</v>
@@ -4783,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>13</v>
@@ -4801,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>14</v>
@@ -4819,7 +4799,7 @@
         <v>18</v>
       </c>
       <c r="I155" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>15</v>
@@ -4837,7 +4817,7 @@
         <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>16</v>
@@ -4855,7 +4835,7 @@
         <v>18</v>
       </c>
       <c r="I157" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>18</v>
@@ -4873,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="I158" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>19</v>
@@ -4891,7 +4871,7 @@
         <v>18</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>20</v>
@@ -4909,7 +4889,7 @@
         <v>18</v>
       </c>
       <c r="I160" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>24</v>
@@ -4927,7 +4907,7 @@
         <v>18</v>
       </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>25</v>
@@ -4945,7 +4925,7 @@
         <v>19</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -4963,7 +4943,7 @@
         <v>19</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>3</v>
@@ -4981,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="I164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>4</v>
@@ -4999,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J165">
         <v>5</v>
@@ -5017,7 +4997,7 @@
         <v>19</v>
       </c>
       <c r="I166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>6</v>
@@ -5035,7 +5015,7 @@
         <v>19</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>7</v>
@@ -5053,7 +5033,7 @@
         <v>19</v>
       </c>
       <c r="I168" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J168">
         <v>8</v>
@@ -5071,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="I169" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>9</v>
@@ -5089,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="I170" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>10</v>
@@ -5107,7 +5087,7 @@
         <v>19</v>
       </c>
       <c r="I171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>11</v>
@@ -5125,7 +5105,7 @@
         <v>19</v>
       </c>
       <c r="I172" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>12</v>
@@ -5143,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>13</v>
@@ -5161,7 +5141,7 @@
         <v>19</v>
       </c>
       <c r="I174" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>14</v>
@@ -5179,7 +5159,7 @@
         <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>15</v>
@@ -5197,7 +5177,7 @@
         <v>19</v>
       </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>16</v>
@@ -5215,7 +5195,7 @@
         <v>19</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>18</v>
@@ -5233,7 +5213,7 @@
         <v>19</v>
       </c>
       <c r="I178" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>19</v>
@@ -5251,7 +5231,7 @@
         <v>19</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>20</v>
@@ -5269,7 +5249,7 @@
         <v>19</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>24</v>
@@ -5287,7 +5267,7 @@
         <v>19</v>
       </c>
       <c r="I181" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J181">
         <v>25</v>
@@ -5305,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -5323,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="I183" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -5341,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J184">
         <v>4</v>
@@ -5359,7 +5339,7 @@
         <v>20</v>
       </c>
       <c r="I185" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>5</v>
@@ -5377,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>6</v>
@@ -5395,7 +5375,7 @@
         <v>20</v>
       </c>
       <c r="I187" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>7</v>
@@ -5413,7 +5393,7 @@
         <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J188">
         <v>8</v>
@@ -5431,7 +5411,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>9</v>
@@ -5449,7 +5429,7 @@
         <v>20</v>
       </c>
       <c r="I190" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J190">
         <v>10</v>
@@ -5467,7 +5447,7 @@
         <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <v>11</v>
@@ -5485,7 +5465,7 @@
         <v>20</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>12</v>
@@ -5503,7 +5483,7 @@
         <v>20</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>13</v>
@@ -5521,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="I194" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>14</v>
@@ -5539,7 +5519,7 @@
         <v>20</v>
       </c>
       <c r="I195" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>15</v>
@@ -5557,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="I196" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J196">
         <v>16</v>
@@ -5575,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="I197" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>18</v>
@@ -5593,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="I198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>19</v>
@@ -5611,7 +5591,7 @@
         <v>20</v>
       </c>
       <c r="I199" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J199">
         <v>20</v>
@@ -5629,7 +5609,7 @@
         <v>20</v>
       </c>
       <c r="I200" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>24</v>
@@ -5647,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="I201" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>25</v>
@@ -5665,7 +5645,7 @@
         <v>21</v>
       </c>
       <c r="I202" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -5683,7 +5663,7 @@
         <v>21</v>
       </c>
       <c r="I203" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J203">
         <v>3</v>
@@ -5701,7 +5681,7 @@
         <v>21</v>
       </c>
       <c r="I204" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>4</v>
@@ -5719,7 +5699,7 @@
         <v>21</v>
       </c>
       <c r="I205" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>5</v>
@@ -5737,7 +5717,7 @@
         <v>21</v>
       </c>
       <c r="I206" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>6</v>
@@ -5755,7 +5735,7 @@
         <v>21</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>7</v>
@@ -5773,7 +5753,7 @@
         <v>21</v>
       </c>
       <c r="I208" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J208">
         <v>8</v>
@@ -5791,7 +5771,7 @@
         <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J209">
         <v>9</v>
@@ -5809,7 +5789,7 @@
         <v>21</v>
       </c>
       <c r="I210" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>10</v>
@@ -5827,7 +5807,7 @@
         <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J211">
         <v>11</v>
@@ -5845,7 +5825,7 @@
         <v>21</v>
       </c>
       <c r="I212" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J212">
         <v>12</v>
@@ -5863,7 +5843,7 @@
         <v>21</v>
       </c>
       <c r="I213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>13</v>
@@ -5881,7 +5861,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>14</v>
@@ -5899,7 +5879,7 @@
         <v>21</v>
       </c>
       <c r="I215" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J215">
         <v>15</v>
@@ -5917,7 +5897,7 @@
         <v>21</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J216">
         <v>16</v>
@@ -5935,7 +5915,7 @@
         <v>21</v>
       </c>
       <c r="I217" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J217">
         <v>18</v>
@@ -5953,7 +5933,7 @@
         <v>21</v>
       </c>
       <c r="I218" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J218">
         <v>19</v>
@@ -5971,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="I219" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J219">
         <v>20</v>
@@ -5989,7 +5969,7 @@
         <v>21</v>
       </c>
       <c r="I220" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J220">
         <v>24</v>
@@ -6007,7 +5987,7 @@
         <v>21</v>
       </c>
       <c r="I221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J221">
         <v>25</v>
@@ -6025,7 +6005,7 @@
         <v>22</v>
       </c>
       <c r="I222" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -6043,7 +6023,7 @@
         <v>22</v>
       </c>
       <c r="I223" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J223">
         <v>3</v>
@@ -6061,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="I224" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J224">
         <v>4</v>
@@ -6079,7 +6059,7 @@
         <v>22</v>
       </c>
       <c r="I225" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J225">
         <v>5</v>
@@ -6097,7 +6077,7 @@
         <v>22</v>
       </c>
       <c r="I226" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J226">
         <v>6</v>
@@ -6115,7 +6095,7 @@
         <v>22</v>
       </c>
       <c r="I227" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J227">
         <v>7</v>
@@ -6133,7 +6113,7 @@
         <v>22</v>
       </c>
       <c r="I228" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J228">
         <v>8</v>
@@ -6151,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="I229" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J229">
         <v>9</v>
@@ -6169,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="I230" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J230">
         <v>10</v>
@@ -6187,7 +6167,7 @@
         <v>22</v>
       </c>
       <c r="I231" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J231">
         <v>11</v>
@@ -6205,7 +6185,7 @@
         <v>22</v>
       </c>
       <c r="I232" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J232">
         <v>12</v>
@@ -6223,7 +6203,7 @@
         <v>22</v>
       </c>
       <c r="I233" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J233">
         <v>13</v>
@@ -6241,7 +6221,7 @@
         <v>22</v>
       </c>
       <c r="I234" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J234">
         <v>14</v>
@@ -6259,7 +6239,7 @@
         <v>22</v>
       </c>
       <c r="I235" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J235">
         <v>15</v>
@@ -6277,7 +6257,7 @@
         <v>22</v>
       </c>
       <c r="I236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J236">
         <v>16</v>
@@ -6295,7 +6275,7 @@
         <v>22</v>
       </c>
       <c r="I237" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J237">
         <v>18</v>
@@ -6313,7 +6293,7 @@
         <v>22</v>
       </c>
       <c r="I238" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J238">
         <v>19</v>
@@ -6331,7 +6311,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J239">
         <v>20</v>
@@ -6349,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="I240" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J240">
         <v>24</v>
@@ -6367,7 +6347,7 @@
         <v>22</v>
       </c>
       <c r="I241" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J241">
         <v>25</v>
@@ -6385,7 +6365,7 @@
         <v>23</v>
       </c>
       <c r="I242" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J242">
         <v>1</v>
@@ -6403,7 +6383,7 @@
         <v>23</v>
       </c>
       <c r="I243" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J243">
         <v>3</v>
@@ -6421,7 +6401,7 @@
         <v>23</v>
       </c>
       <c r="I244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J244">
         <v>4</v>
@@ -6439,7 +6419,7 @@
         <v>23</v>
       </c>
       <c r="I245" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J245">
         <v>5</v>
@@ -6457,7 +6437,7 @@
         <v>23</v>
       </c>
       <c r="I246" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J246">
         <v>6</v>
@@ -6475,7 +6455,7 @@
         <v>23</v>
       </c>
       <c r="I247" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J247">
         <v>7</v>
@@ -6493,7 +6473,7 @@
         <v>23</v>
       </c>
       <c r="I248" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J248">
         <v>8</v>
@@ -6511,7 +6491,7 @@
         <v>23</v>
       </c>
       <c r="I249" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J249">
         <v>9</v>
@@ -6529,7 +6509,7 @@
         <v>23</v>
       </c>
       <c r="I250" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J250">
         <v>10</v>
@@ -6547,7 +6527,7 @@
         <v>23</v>
       </c>
       <c r="I251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J251">
         <v>11</v>
@@ -6565,7 +6545,7 @@
         <v>23</v>
       </c>
       <c r="I252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J252">
         <v>12</v>
@@ -6583,7 +6563,7 @@
         <v>23</v>
       </c>
       <c r="I253" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J253">
         <v>13</v>
@@ -6601,7 +6581,7 @@
         <v>23</v>
       </c>
       <c r="I254" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J254">
         <v>14</v>
@@ -6619,7 +6599,7 @@
         <v>23</v>
       </c>
       <c r="I255" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J255">
         <v>15</v>
@@ -6637,7 +6617,7 @@
         <v>23</v>
       </c>
       <c r="I256" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J256">
         <v>16</v>
@@ -6655,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="I257" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J257">
         <v>18</v>
@@ -6673,7 +6653,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J258">
         <v>19</v>
@@ -6691,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="I259" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J259">
         <v>20</v>
@@ -6709,7 +6689,7 @@
         <v>23</v>
       </c>
       <c r="I260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J260">
         <v>24</v>
@@ -6727,7 +6707,7 @@
         <v>23</v>
       </c>
       <c r="I261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J261">
         <v>25</v>
@@ -6745,7 +6725,7 @@
         <v>24</v>
       </c>
       <c r="I262" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J262">
         <v>1</v>
@@ -6763,7 +6743,7 @@
         <v>24</v>
       </c>
       <c r="I263" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J263">
         <v>3</v>
@@ -6781,7 +6761,7 @@
         <v>24</v>
       </c>
       <c r="I264" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J264">
         <v>4</v>
@@ -6799,7 +6779,7 @@
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J265">
         <v>5</v>
@@ -6817,7 +6797,7 @@
         <v>24</v>
       </c>
       <c r="I266" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J266">
         <v>6</v>
@@ -6835,7 +6815,7 @@
         <v>24</v>
       </c>
       <c r="I267" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J267">
         <v>7</v>
@@ -6853,7 +6833,7 @@
         <v>24</v>
       </c>
       <c r="I268" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J268">
         <v>8</v>
@@ -6871,7 +6851,7 @@
         <v>24</v>
       </c>
       <c r="I269" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J269">
         <v>9</v>
@@ -6889,7 +6869,7 @@
         <v>24</v>
       </c>
       <c r="I270" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J270">
         <v>10</v>
@@ -6907,7 +6887,7 @@
         <v>24</v>
       </c>
       <c r="I271" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J271">
         <v>11</v>
@@ -6925,7 +6905,7 @@
         <v>24</v>
       </c>
       <c r="I272" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J272">
         <v>12</v>
@@ -6943,7 +6923,7 @@
         <v>24</v>
       </c>
       <c r="I273" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J273">
         <v>13</v>
@@ -6961,7 +6941,7 @@
         <v>24</v>
       </c>
       <c r="I274" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J274">
         <v>14</v>
@@ -6979,7 +6959,7 @@
         <v>24</v>
       </c>
       <c r="I275" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J275">
         <v>15</v>
@@ -6997,7 +6977,7 @@
         <v>24</v>
       </c>
       <c r="I276" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J276">
         <v>16</v>
@@ -7015,7 +6995,7 @@
         <v>24</v>
       </c>
       <c r="I277" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J277">
         <v>18</v>
@@ -7033,7 +7013,7 @@
         <v>24</v>
       </c>
       <c r="I278" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J278">
         <v>19</v>
@@ -7051,7 +7031,7 @@
         <v>24</v>
       </c>
       <c r="I279" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J279">
         <v>20</v>
@@ -7069,7 +7049,7 @@
         <v>24</v>
       </c>
       <c r="I280" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J280">
         <v>24</v>
@@ -7087,7 +7067,7 @@
         <v>24</v>
       </c>
       <c r="I281" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J281">
         <v>25</v>
@@ -7105,7 +7085,7 @@
         <v>25</v>
       </c>
       <c r="I282" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J282">
         <v>1</v>
@@ -7123,7 +7103,7 @@
         <v>25</v>
       </c>
       <c r="I283" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J283">
         <v>3</v>
@@ -7141,7 +7121,7 @@
         <v>25</v>
       </c>
       <c r="I284" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J284">
         <v>4</v>
@@ -7159,7 +7139,7 @@
         <v>25</v>
       </c>
       <c r="I285" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J285">
         <v>5</v>
@@ -7177,7 +7157,7 @@
         <v>25</v>
       </c>
       <c r="I286" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J286">
         <v>6</v>
@@ -7195,7 +7175,7 @@
         <v>25</v>
       </c>
       <c r="I287" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J287">
         <v>7</v>
@@ -7213,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="I288" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J288">
         <v>8</v>
@@ -7231,7 +7211,7 @@
         <v>25</v>
       </c>
       <c r="I289" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J289">
         <v>9</v>
@@ -7249,7 +7229,7 @@
         <v>25</v>
       </c>
       <c r="I290" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J290">
         <v>10</v>
@@ -7267,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="I291" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J291">
         <v>11</v>
@@ -7285,7 +7265,7 @@
         <v>25</v>
       </c>
       <c r="I292" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J292">
         <v>12</v>
@@ -7303,7 +7283,7 @@
         <v>25</v>
       </c>
       <c r="I293" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J293">
         <v>13</v>
@@ -7321,7 +7301,7 @@
         <v>25</v>
       </c>
       <c r="I294" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J294">
         <v>14</v>
@@ -7339,7 +7319,7 @@
         <v>25</v>
       </c>
       <c r="I295" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J295">
         <v>15</v>
@@ -7357,7 +7337,7 @@
         <v>25</v>
       </c>
       <c r="I296" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J296">
         <v>16</v>
@@ -7375,7 +7355,7 @@
         <v>25</v>
       </c>
       <c r="I297" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J297">
         <v>18</v>
@@ -7393,7 +7373,7 @@
         <v>25</v>
       </c>
       <c r="I298" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J298">
         <v>19</v>
@@ -7411,7 +7391,7 @@
         <v>25</v>
       </c>
       <c r="I299" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J299">
         <v>20</v>
@@ -7429,7 +7409,7 @@
         <v>25</v>
       </c>
       <c r="I300" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J300">
         <v>24</v>
@@ -7447,7 +7427,7 @@
         <v>25</v>
       </c>
       <c r="I301" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J301">
         <v>25</v>
@@ -7465,7 +7445,7 @@
         <v>26</v>
       </c>
       <c r="I302" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J302">
         <v>1</v>
@@ -7483,7 +7463,7 @@
         <v>26</v>
       </c>
       <c r="I303" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J303">
         <v>3</v>
@@ -7501,7 +7481,7 @@
         <v>26</v>
       </c>
       <c r="I304" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J304">
         <v>4</v>
@@ -7519,7 +7499,7 @@
         <v>26</v>
       </c>
       <c r="I305" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J305">
         <v>5</v>
@@ -7537,7 +7517,7 @@
         <v>26</v>
       </c>
       <c r="I306" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J306">
         <v>6</v>
@@ -7555,7 +7535,7 @@
         <v>26</v>
       </c>
       <c r="I307" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J307">
         <v>7</v>
@@ -7573,7 +7553,7 @@
         <v>26</v>
       </c>
       <c r="I308" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J308">
         <v>8</v>
@@ -7591,7 +7571,7 @@
         <v>26</v>
       </c>
       <c r="I309" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J309">
         <v>9</v>
@@ -7609,7 +7589,7 @@
         <v>26</v>
       </c>
       <c r="I310" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J310">
         <v>10</v>
@@ -7627,7 +7607,7 @@
         <v>26</v>
       </c>
       <c r="I311" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J311">
         <v>11</v>
@@ -7645,7 +7625,7 @@
         <v>26</v>
       </c>
       <c r="I312" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J312">
         <v>12</v>
@@ -7663,7 +7643,7 @@
         <v>26</v>
       </c>
       <c r="I313" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J313">
         <v>13</v>
@@ -7681,7 +7661,7 @@
         <v>26</v>
       </c>
       <c r="I314" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J314">
         <v>14</v>
@@ -7699,7 +7679,7 @@
         <v>26</v>
       </c>
       <c r="I315" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J315">
         <v>15</v>
@@ -7717,7 +7697,7 @@
         <v>26</v>
       </c>
       <c r="I316" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J316">
         <v>16</v>
@@ -7735,7 +7715,7 @@
         <v>26</v>
       </c>
       <c r="I317" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J317">
         <v>18</v>
@@ -7753,7 +7733,7 @@
         <v>26</v>
       </c>
       <c r="I318" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J318">
         <v>19</v>
@@ -7771,7 +7751,7 @@
         <v>26</v>
       </c>
       <c r="I319" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J319">
         <v>20</v>
@@ -7789,7 +7769,7 @@
         <v>26</v>
       </c>
       <c r="I320" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J320">
         <v>24</v>
@@ -7807,7 +7787,7 @@
         <v>26</v>
       </c>
       <c r="I321" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J321">
         <v>25</v>
@@ -7825,7 +7805,7 @@
         <v>27</v>
       </c>
       <c r="I322" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J322">
         <v>1</v>
@@ -7843,7 +7823,7 @@
         <v>27</v>
       </c>
       <c r="I323" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J323">
         <v>3</v>
@@ -7861,7 +7841,7 @@
         <v>27</v>
       </c>
       <c r="I324" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J324">
         <v>4</v>
@@ -7879,7 +7859,7 @@
         <v>27</v>
       </c>
       <c r="I325" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J325">
         <v>5</v>
@@ -7897,7 +7877,7 @@
         <v>27</v>
       </c>
       <c r="I326" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J326">
         <v>6</v>
@@ -7915,7 +7895,7 @@
         <v>27</v>
       </c>
       <c r="I327" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J327">
         <v>7</v>
@@ -7933,7 +7913,7 @@
         <v>27</v>
       </c>
       <c r="I328" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J328">
         <v>8</v>
@@ -7951,7 +7931,7 @@
         <v>27</v>
       </c>
       <c r="I329" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J329">
         <v>9</v>
@@ -7969,7 +7949,7 @@
         <v>27</v>
       </c>
       <c r="I330" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J330">
         <v>10</v>
@@ -7987,7 +7967,7 @@
         <v>27</v>
       </c>
       <c r="I331" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J331">
         <v>11</v>
@@ -8005,7 +7985,7 @@
         <v>27</v>
       </c>
       <c r="I332" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J332">
         <v>12</v>
@@ -8023,7 +8003,7 @@
         <v>27</v>
       </c>
       <c r="I333" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J333">
         <v>13</v>
@@ -8041,7 +8021,7 @@
         <v>27</v>
       </c>
       <c r="I334" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J334">
         <v>14</v>
@@ -8059,7 +8039,7 @@
         <v>27</v>
       </c>
       <c r="I335" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J335">
         <v>15</v>
@@ -8077,7 +8057,7 @@
         <v>27</v>
       </c>
       <c r="I336" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J336">
         <v>16</v>
@@ -8095,7 +8075,7 @@
         <v>27</v>
       </c>
       <c r="I337" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J337">
         <v>18</v>
@@ -8113,7 +8093,7 @@
         <v>27</v>
       </c>
       <c r="I338" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J338">
         <v>19</v>
@@ -8131,7 +8111,7 @@
         <v>27</v>
       </c>
       <c r="I339" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J339">
         <v>20</v>
@@ -8149,7 +8129,7 @@
         <v>27</v>
       </c>
       <c r="I340" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J340">
         <v>24</v>
@@ -8167,7 +8147,7 @@
         <v>27</v>
       </c>
       <c r="I341" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J341">
         <v>25</v>
@@ -8185,7 +8165,7 @@
         <v>28</v>
       </c>
       <c r="I342" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J342">
         <v>1</v>
@@ -8203,7 +8183,7 @@
         <v>28</v>
       </c>
       <c r="I343" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J343">
         <v>3</v>
@@ -8221,7 +8201,7 @@
         <v>28</v>
       </c>
       <c r="I344" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J344">
         <v>4</v>
@@ -8239,7 +8219,7 @@
         <v>28</v>
       </c>
       <c r="I345" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J345">
         <v>5</v>
@@ -8257,7 +8237,7 @@
         <v>28</v>
       </c>
       <c r="I346" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J346">
         <v>6</v>
@@ -8275,7 +8255,7 @@
         <v>28</v>
       </c>
       <c r="I347" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J347">
         <v>7</v>
@@ -8293,7 +8273,7 @@
         <v>28</v>
       </c>
       <c r="I348" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J348">
         <v>8</v>
@@ -8311,7 +8291,7 @@
         <v>28</v>
       </c>
       <c r="I349" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J349">
         <v>9</v>
@@ -8329,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="I350" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J350">
         <v>10</v>
@@ -8347,7 +8327,7 @@
         <v>28</v>
       </c>
       <c r="I351" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J351">
         <v>11</v>
@@ -8365,7 +8345,7 @@
         <v>28</v>
       </c>
       <c r="I352" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J352">
         <v>12</v>
@@ -8383,7 +8363,7 @@
         <v>28</v>
       </c>
       <c r="I353" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J353">
         <v>13</v>
@@ -8401,7 +8381,7 @@
         <v>28</v>
       </c>
       <c r="I354" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J354">
         <v>14</v>
@@ -8419,7 +8399,7 @@
         <v>28</v>
       </c>
       <c r="I355" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J355">
         <v>15</v>
@@ -8437,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="I356" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J356">
         <v>16</v>
@@ -8455,7 +8435,7 @@
         <v>28</v>
       </c>
       <c r="I357" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J357">
         <v>18</v>
@@ -8473,7 +8453,7 @@
         <v>28</v>
       </c>
       <c r="I358" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J358">
         <v>19</v>
@@ -8491,7 +8471,7 @@
         <v>28</v>
       </c>
       <c r="I359" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J359">
         <v>20</v>
@@ -8509,7 +8489,7 @@
         <v>28</v>
       </c>
       <c r="I360" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J360">
         <v>24</v>
@@ -8527,7 +8507,7 @@
         <v>28</v>
       </c>
       <c r="I361" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J361">
         <v>25</v>
@@ -8545,7 +8525,7 @@
         <v>26</v>
       </c>
       <c r="I362" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J362">
         <v>1</v>
@@ -8563,7 +8543,7 @@
         <v>26</v>
       </c>
       <c r="I363" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J363">
         <v>3</v>
@@ -8581,7 +8561,7 @@
         <v>26</v>
       </c>
       <c r="I364" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J364">
         <v>4</v>
@@ -8599,7 +8579,7 @@
         <v>26</v>
       </c>
       <c r="I365" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J365">
         <v>5</v>
@@ -8617,7 +8597,7 @@
         <v>26</v>
       </c>
       <c r="I366" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J366">
         <v>6</v>
@@ -8635,7 +8615,7 @@
         <v>26</v>
       </c>
       <c r="I367" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J367">
         <v>7</v>
@@ -8653,7 +8633,7 @@
         <v>26</v>
       </c>
       <c r="I368" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J368">
         <v>8</v>
@@ -8671,7 +8651,7 @@
         <v>26</v>
       </c>
       <c r="I369" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J369">
         <v>9</v>
@@ -8689,7 +8669,7 @@
         <v>26</v>
       </c>
       <c r="I370" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J370">
         <v>10</v>
@@ -8707,7 +8687,7 @@
         <v>26</v>
       </c>
       <c r="I371" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J371">
         <v>11</v>
@@ -8725,7 +8705,7 @@
         <v>26</v>
       </c>
       <c r="I372" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J372">
         <v>12</v>
@@ -8743,7 +8723,7 @@
         <v>26</v>
       </c>
       <c r="I373" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J373">
         <v>13</v>
@@ -8761,7 +8741,7 @@
         <v>26</v>
       </c>
       <c r="I374" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J374">
         <v>14</v>
@@ -8779,7 +8759,7 @@
         <v>26</v>
       </c>
       <c r="I375" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J375">
         <v>15</v>
@@ -8797,7 +8777,7 @@
         <v>26</v>
       </c>
       <c r="I376" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J376">
         <v>16</v>
@@ -8815,7 +8795,7 @@
         <v>26</v>
       </c>
       <c r="I377" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J377">
         <v>18</v>
@@ -8833,7 +8813,7 @@
         <v>26</v>
       </c>
       <c r="I378" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J378">
         <v>19</v>
@@ -8851,7 +8831,7 @@
         <v>26</v>
       </c>
       <c r="I379" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J379">
         <v>20</v>
@@ -8869,7 +8849,7 @@
         <v>26</v>
       </c>
       <c r="I380" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J380">
         <v>24</v>
@@ -8887,7 +8867,7 @@
         <v>26</v>
       </c>
       <c r="I381" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J381">
         <v>25</v>
@@ -8905,7 +8885,7 @@
         <v>27</v>
       </c>
       <c r="I382" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J382">
         <v>1</v>
@@ -8923,7 +8903,7 @@
         <v>27</v>
       </c>
       <c r="I383" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J383">
         <v>3</v>
@@ -8941,7 +8921,7 @@
         <v>27</v>
       </c>
       <c r="I384" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J384">
         <v>4</v>
@@ -8959,7 +8939,7 @@
         <v>27</v>
       </c>
       <c r="I385" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J385">
         <v>5</v>
@@ -8977,7 +8957,7 @@
         <v>27</v>
       </c>
       <c r="I386" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J386">
         <v>6</v>
@@ -8995,7 +8975,7 @@
         <v>27</v>
       </c>
       <c r="I387" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J387">
         <v>7</v>
@@ -9013,7 +8993,7 @@
         <v>27</v>
       </c>
       <c r="I388" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J388">
         <v>8</v>
@@ -9031,7 +9011,7 @@
         <v>27</v>
       </c>
       <c r="I389" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J389">
         <v>9</v>
@@ -9049,7 +9029,7 @@
         <v>27</v>
       </c>
       <c r="I390" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J390">
         <v>10</v>
@@ -9067,7 +9047,7 @@
         <v>27</v>
       </c>
       <c r="I391" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J391">
         <v>11</v>
@@ -9085,7 +9065,7 @@
         <v>27</v>
       </c>
       <c r="I392" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J392">
         <v>12</v>
@@ -9103,7 +9083,7 @@
         <v>27</v>
       </c>
       <c r="I393" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J393">
         <v>13</v>
@@ -9121,7 +9101,7 @@
         <v>27</v>
       </c>
       <c r="I394" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J394">
         <v>14</v>
@@ -9139,7 +9119,7 @@
         <v>27</v>
       </c>
       <c r="I395" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J395">
         <v>15</v>
@@ -9157,7 +9137,7 @@
         <v>27</v>
       </c>
       <c r="I396" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J396">
         <v>16</v>
@@ -9175,7 +9155,7 @@
         <v>27</v>
       </c>
       <c r="I397" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J397">
         <v>18</v>
@@ -9193,7 +9173,7 @@
         <v>27</v>
       </c>
       <c r="I398" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J398">
         <v>19</v>
@@ -9211,7 +9191,7 @@
         <v>27</v>
       </c>
       <c r="I399" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J399">
         <v>20</v>
@@ -9229,7 +9209,7 @@
         <v>27</v>
       </c>
       <c r="I400" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J400">
         <v>24</v>
@@ -9247,7 +9227,7 @@
         <v>27</v>
       </c>
       <c r="I401" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J401">
         <v>25</v>
@@ -9265,7 +9245,7 @@
         <v>29</v>
       </c>
       <c r="I402" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J402">
         <v>1</v>
@@ -9283,7 +9263,7 @@
         <v>29</v>
       </c>
       <c r="I403" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J403">
         <v>3</v>
@@ -9301,7 +9281,7 @@
         <v>29</v>
       </c>
       <c r="I404" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J404">
         <v>4</v>
@@ -9319,7 +9299,7 @@
         <v>29</v>
       </c>
       <c r="I405" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J405">
         <v>5</v>
@@ -9337,7 +9317,7 @@
         <v>29</v>
       </c>
       <c r="I406" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J406">
         <v>6</v>
@@ -9355,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="I407" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J407">
         <v>7</v>
@@ -9373,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="I408" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J408">
         <v>8</v>
@@ -9391,7 +9371,7 @@
         <v>29</v>
       </c>
       <c r="I409" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J409">
         <v>9</v>
@@ -9409,7 +9389,7 @@
         <v>29</v>
       </c>
       <c r="I410" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J410">
         <v>10</v>
@@ -9427,7 +9407,7 @@
         <v>29</v>
       </c>
       <c r="I411" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J411">
         <v>11</v>
@@ -9445,7 +9425,7 @@
         <v>29</v>
       </c>
       <c r="I412" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J412">
         <v>12</v>
@@ -9463,7 +9443,7 @@
         <v>29</v>
       </c>
       <c r="I413" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J413">
         <v>13</v>
@@ -9481,7 +9461,7 @@
         <v>29</v>
       </c>
       <c r="I414" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J414">
         <v>14</v>
@@ -9499,7 +9479,7 @@
         <v>29</v>
       </c>
       <c r="I415" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J415">
         <v>15</v>
@@ -9517,7 +9497,7 @@
         <v>29</v>
       </c>
       <c r="I416" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J416">
         <v>16</v>
@@ -9535,7 +9515,7 @@
         <v>29</v>
       </c>
       <c r="I417" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J417">
         <v>18</v>
@@ -9553,7 +9533,7 @@
         <v>29</v>
       </c>
       <c r="I418" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J418">
         <v>19</v>
@@ -9571,7 +9551,7 @@
         <v>29</v>
       </c>
       <c r="I419" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J419">
         <v>20</v>
@@ -9589,7 +9569,7 @@
         <v>29</v>
       </c>
       <c r="I420" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J420">
         <v>24</v>
@@ -9607,7 +9587,7 @@
         <v>29</v>
       </c>
       <c r="I421" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J421">
         <v>25</v>
@@ -9625,7 +9605,7 @@
         <v>30</v>
       </c>
       <c r="I422" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J422">
         <v>1</v>
@@ -9643,7 +9623,7 @@
         <v>30</v>
       </c>
       <c r="I423" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J423">
         <v>3</v>
@@ -9661,7 +9641,7 @@
         <v>30</v>
       </c>
       <c r="I424" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J424">
         <v>4</v>
@@ -9679,7 +9659,7 @@
         <v>30</v>
       </c>
       <c r="I425" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J425">
         <v>5</v>
@@ -9697,7 +9677,7 @@
         <v>30</v>
       </c>
       <c r="I426" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J426">
         <v>6</v>
@@ -9715,7 +9695,7 @@
         <v>30</v>
       </c>
       <c r="I427" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J427">
         <v>7</v>
@@ -9733,7 +9713,7 @@
         <v>30</v>
       </c>
       <c r="I428" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J428">
         <v>8</v>
@@ -9751,7 +9731,7 @@
         <v>30</v>
       </c>
       <c r="I429" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J429">
         <v>9</v>
@@ -9769,7 +9749,7 @@
         <v>30</v>
       </c>
       <c r="I430" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J430">
         <v>10</v>
@@ -9787,7 +9767,7 @@
         <v>30</v>
       </c>
       <c r="I431" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J431">
         <v>11</v>
@@ -9805,7 +9785,7 @@
         <v>30</v>
       </c>
       <c r="I432" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J432">
         <v>12</v>
@@ -9823,7 +9803,7 @@
         <v>30</v>
       </c>
       <c r="I433" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J433">
         <v>13</v>
@@ -9841,7 +9821,7 @@
         <v>30</v>
       </c>
       <c r="I434" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J434">
         <v>14</v>
@@ -9859,7 +9839,7 @@
         <v>30</v>
       </c>
       <c r="I435" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J435">
         <v>15</v>
@@ -9877,7 +9857,7 @@
         <v>30</v>
       </c>
       <c r="I436" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J436">
         <v>16</v>
@@ -9895,7 +9875,7 @@
         <v>30</v>
       </c>
       <c r="I437" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J437">
         <v>18</v>
@@ -9913,7 +9893,7 @@
         <v>30</v>
       </c>
       <c r="I438" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J438">
         <v>19</v>
@@ -9931,7 +9911,7 @@
         <v>30</v>
       </c>
       <c r="I439" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J439">
         <v>20</v>
@@ -9949,7 +9929,7 @@
         <v>30</v>
       </c>
       <c r="I440" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J440">
         <v>24</v>
@@ -9967,7 +9947,7 @@
         <v>30</v>
       </c>
       <c r="I441" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J441">
         <v>25</v>
@@ -9985,7 +9965,7 @@
         <v>31</v>
       </c>
       <c r="I442" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J442">
         <v>1</v>
@@ -10003,7 +9983,7 @@
         <v>31</v>
       </c>
       <c r="I443" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J443">
         <v>3</v>
@@ -10021,7 +10001,7 @@
         <v>31</v>
       </c>
       <c r="I444" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J444">
         <v>4</v>
@@ -10039,7 +10019,7 @@
         <v>31</v>
       </c>
       <c r="I445" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J445">
         <v>5</v>
@@ -10057,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="I446" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J446">
         <v>6</v>
@@ -10075,7 +10055,7 @@
         <v>31</v>
       </c>
       <c r="I447" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J447">
         <v>7</v>
@@ -10093,7 +10073,7 @@
         <v>31</v>
       </c>
       <c r="I448" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J448">
         <v>8</v>
@@ -10111,7 +10091,7 @@
         <v>31</v>
       </c>
       <c r="I449" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J449">
         <v>9</v>
@@ -10129,7 +10109,7 @@
         <v>31</v>
       </c>
       <c r="I450" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J450">
         <v>10</v>
@@ -10147,7 +10127,7 @@
         <v>31</v>
       </c>
       <c r="I451" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J451">
         <v>11</v>
@@ -10165,7 +10145,7 @@
         <v>31</v>
       </c>
       <c r="I452" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J452">
         <v>12</v>
@@ -10183,7 +10163,7 @@
         <v>31</v>
       </c>
       <c r="I453" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J453">
         <v>13</v>
@@ -10201,7 +10181,7 @@
         <v>31</v>
       </c>
       <c r="I454" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J454">
         <v>14</v>
@@ -10219,7 +10199,7 @@
         <v>31</v>
       </c>
       <c r="I455" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J455">
         <v>15</v>
@@ -10237,7 +10217,7 @@
         <v>31</v>
       </c>
       <c r="I456" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J456">
         <v>16</v>
@@ -10255,7 +10235,7 @@
         <v>31</v>
       </c>
       <c r="I457" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J457">
         <v>18</v>
@@ -10273,7 +10253,7 @@
         <v>31</v>
       </c>
       <c r="I458" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J458">
         <v>19</v>
@@ -10291,7 +10271,7 @@
         <v>31</v>
       </c>
       <c r="I459" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J459">
         <v>20</v>
@@ -10309,7 +10289,7 @@
         <v>31</v>
       </c>
       <c r="I460" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J460">
         <v>24</v>
@@ -10327,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="I461" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J461">
         <v>25</v>
@@ -10345,7 +10325,7 @@
         <v>32</v>
       </c>
       <c r="I462" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J462">
         <v>1</v>
@@ -10363,7 +10343,7 @@
         <v>32</v>
       </c>
       <c r="I463" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J463">
         <v>3</v>
@@ -10381,7 +10361,7 @@
         <v>32</v>
       </c>
       <c r="I464" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J464">
         <v>4</v>
@@ -10399,7 +10379,7 @@
         <v>32</v>
       </c>
       <c r="I465" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J465">
         <v>5</v>
@@ -10417,7 +10397,7 @@
         <v>32</v>
       </c>
       <c r="I466" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J466">
         <v>6</v>
@@ -10435,7 +10415,7 @@
         <v>32</v>
       </c>
       <c r="I467" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J467">
         <v>7</v>
@@ -10453,7 +10433,7 @@
         <v>32</v>
       </c>
       <c r="I468" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J468">
         <v>8</v>
@@ -10471,7 +10451,7 @@
         <v>32</v>
       </c>
       <c r="I469" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J469">
         <v>9</v>
@@ -10489,7 +10469,7 @@
         <v>32</v>
       </c>
       <c r="I470" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J470">
         <v>10</v>
@@ -10507,7 +10487,7 @@
         <v>32</v>
       </c>
       <c r="I471" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J471">
         <v>11</v>
@@ -10525,7 +10505,7 @@
         <v>32</v>
       </c>
       <c r="I472" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J472">
         <v>12</v>
@@ -10543,7 +10523,7 @@
         <v>32</v>
       </c>
       <c r="I473" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J473">
         <v>13</v>
@@ -10561,7 +10541,7 @@
         <v>32</v>
       </c>
       <c r="I474" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J474">
         <v>14</v>
@@ -10579,7 +10559,7 @@
         <v>32</v>
       </c>
       <c r="I475" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J475">
         <v>15</v>
@@ -10597,7 +10577,7 @@
         <v>32</v>
       </c>
       <c r="I476" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J476">
         <v>16</v>
@@ -10615,7 +10595,7 @@
         <v>32</v>
       </c>
       <c r="I477" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J477">
         <v>18</v>
@@ -10633,7 +10613,7 @@
         <v>32</v>
       </c>
       <c r="I478" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J478">
         <v>19</v>
@@ -10651,7 +10631,7 @@
         <v>32</v>
       </c>
       <c r="I479" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J479">
         <v>20</v>
@@ -10669,7 +10649,7 @@
         <v>32</v>
       </c>
       <c r="I480" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J480">
         <v>24</v>
@@ -10687,7 +10667,7 @@
         <v>32</v>
       </c>
       <c r="I481" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J481">
         <v>25</v>
@@ -10705,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="I482" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J482">
         <v>1</v>
@@ -10723,7 +10703,7 @@
         <v>33</v>
       </c>
       <c r="I483" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J483">
         <v>3</v>
@@ -10741,7 +10721,7 @@
         <v>33</v>
       </c>
       <c r="I484" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J484">
         <v>4</v>
@@ -10759,7 +10739,7 @@
         <v>33</v>
       </c>
       <c r="I485" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J485">
         <v>5</v>
@@ -10777,7 +10757,7 @@
         <v>33</v>
       </c>
       <c r="I486" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J486">
         <v>6</v>
@@ -10795,7 +10775,7 @@
         <v>33</v>
       </c>
       <c r="I487" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J487">
         <v>7</v>
@@ -10813,7 +10793,7 @@
         <v>33</v>
       </c>
       <c r="I488" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J488">
         <v>8</v>
@@ -10831,7 +10811,7 @@
         <v>33</v>
       </c>
       <c r="I489" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J489">
         <v>9</v>
@@ -10849,7 +10829,7 @@
         <v>33</v>
       </c>
       <c r="I490" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J490">
         <v>10</v>
@@ -10867,7 +10847,7 @@
         <v>33</v>
       </c>
       <c r="I491" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J491">
         <v>11</v>
@@ -10885,7 +10865,7 @@
         <v>33</v>
       </c>
       <c r="I492" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J492">
         <v>12</v>
@@ -10903,7 +10883,7 @@
         <v>33</v>
       </c>
       <c r="I493" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J493">
         <v>13</v>
@@ -10921,7 +10901,7 @@
         <v>33</v>
       </c>
       <c r="I494" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J494">
         <v>14</v>
@@ -10939,7 +10919,7 @@
         <v>33</v>
       </c>
       <c r="I495" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J495">
         <v>15</v>
@@ -10957,7 +10937,7 @@
         <v>33</v>
       </c>
       <c r="I496" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J496">
         <v>16</v>
@@ -10975,7 +10955,7 @@
         <v>33</v>
       </c>
       <c r="I497" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J497">
         <v>18</v>
@@ -10993,7 +10973,7 @@
         <v>33</v>
       </c>
       <c r="I498" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J498">
         <v>19</v>
@@ -11011,7 +10991,7 @@
         <v>33</v>
       </c>
       <c r="I499" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J499">
         <v>20</v>
@@ -11029,7 +11009,7 @@
         <v>33</v>
       </c>
       <c r="I500" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J500">
         <v>24</v>
@@ -11047,7 +11027,7 @@
         <v>33</v>
       </c>
       <c r="I501" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J501">
         <v>25</v>
@@ -11060,372 +11040,12 @@
         <v>22.338954000000001</v>
       </c>
     </row>
-    <row r="502" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H502" t="s">
-        <v>34</v>
-      </c>
-      <c r="I502" t="s">
-        <v>61</v>
-      </c>
-      <c r="J502">
-        <v>1</v>
-      </c>
-      <c r="K502">
-        <v>49.96</v>
-      </c>
-      <c r="L502">
-        <f t="shared" si="8"/>
-        <v>25.187967999999998</v>
-      </c>
-    </row>
-    <row r="503" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H503" t="s">
-        <v>34</v>
-      </c>
-      <c r="I503" t="s">
-        <v>61</v>
-      </c>
-      <c r="J503">
-        <v>3</v>
-      </c>
-      <c r="K503">
-        <v>49.3</v>
-      </c>
-      <c r="L503">
-        <f t="shared" si="8"/>
-        <v>25.005939999999999</v>
-      </c>
-    </row>
-    <row r="504" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H504" t="s">
-        <v>34</v>
-      </c>
-      <c r="I504" t="s">
-        <v>61</v>
-      </c>
-      <c r="J504">
-        <v>4</v>
-      </c>
-      <c r="K504">
-        <v>49.19</v>
-      </c>
-      <c r="L504">
-        <f t="shared" si="8"/>
-        <v>24.975602000000002</v>
-      </c>
-    </row>
-    <row r="505" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H505" t="s">
-        <v>34</v>
-      </c>
-      <c r="I505" t="s">
-        <v>61</v>
-      </c>
-      <c r="J505">
-        <v>5</v>
-      </c>
-      <c r="K505">
-        <v>49.59</v>
-      </c>
-      <c r="L505">
-        <f t="shared" si="8"/>
-        <v>25.085922000000004</v>
-      </c>
-    </row>
-    <row r="506" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H506" t="s">
-        <v>34</v>
-      </c>
-      <c r="I506" t="s">
-        <v>61</v>
-      </c>
-      <c r="J506">
-        <v>6</v>
-      </c>
-      <c r="K506">
-        <v>49.65</v>
-      </c>
-      <c r="L506">
-        <f t="shared" si="8"/>
-        <v>25.10247</v>
-      </c>
-    </row>
-    <row r="507" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H507" t="s">
-        <v>34</v>
-      </c>
-      <c r="I507" t="s">
-        <v>61</v>
-      </c>
-      <c r="J507">
-        <v>7</v>
-      </c>
-      <c r="K507">
-        <v>49.21</v>
-      </c>
-      <c r="L507">
-        <f t="shared" si="8"/>
-        <v>24.981118000000002</v>
-      </c>
-    </row>
-    <row r="508" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H508" t="s">
-        <v>34</v>
-      </c>
-      <c r="I508" t="s">
-        <v>61</v>
-      </c>
-      <c r="J508">
-        <v>8</v>
-      </c>
-      <c r="K508">
-        <v>49.1</v>
-      </c>
-      <c r="L508">
-        <f t="shared" si="8"/>
-        <v>24.950780000000002</v>
-      </c>
-    </row>
-    <row r="509" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H509" t="s">
-        <v>34</v>
-      </c>
-      <c r="I509" t="s">
-        <v>61</v>
-      </c>
-      <c r="J509">
-        <v>9</v>
-      </c>
-      <c r="K509">
-        <v>49.56</v>
-      </c>
-      <c r="L509">
-        <f t="shared" si="8"/>
-        <v>25.077648</v>
-      </c>
-    </row>
-    <row r="510" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H510" t="s">
-        <v>34</v>
-      </c>
-      <c r="I510" t="s">
-        <v>61</v>
-      </c>
-      <c r="J510">
-        <v>10</v>
-      </c>
-      <c r="K510">
-        <v>49.39</v>
-      </c>
-      <c r="L510">
-        <f t="shared" si="8"/>
-        <v>25.030762000000003</v>
-      </c>
-    </row>
-    <row r="511" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H511" t="s">
-        <v>34</v>
-      </c>
-      <c r="I511" t="s">
-        <v>61</v>
-      </c>
-      <c r="J511">
-        <v>11</v>
-      </c>
-      <c r="K511">
-        <v>49.82</v>
-      </c>
-      <c r="L511">
-        <f t="shared" si="8"/>
-        <v>25.149356000000001</v>
-      </c>
-    </row>
-    <row r="512" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H512" t="s">
-        <v>34</v>
-      </c>
-      <c r="I512" t="s">
-        <v>61</v>
-      </c>
-      <c r="J512">
-        <v>12</v>
-      </c>
-      <c r="K512">
-        <v>49.67</v>
-      </c>
-      <c r="L512">
-        <f t="shared" si="8"/>
-        <v>25.107986</v>
-      </c>
-    </row>
-    <row r="513" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H513" t="s">
-        <v>34</v>
-      </c>
-      <c r="I513" t="s">
-        <v>61</v>
-      </c>
-      <c r="J513">
-        <v>13</v>
-      </c>
-      <c r="K513">
-        <v>49.68</v>
-      </c>
-      <c r="L513">
-        <f t="shared" si="8"/>
-        <v>25.110744</v>
-      </c>
-    </row>
-    <row r="514" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H514" t="s">
-        <v>34</v>
-      </c>
-      <c r="I514" t="s">
-        <v>61</v>
-      </c>
-      <c r="J514">
-        <v>14</v>
-      </c>
-      <c r="K514">
-        <v>49.67</v>
-      </c>
-      <c r="L514">
-        <f t="shared" si="8"/>
-        <v>25.107986</v>
-      </c>
-    </row>
-    <row r="515" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H515" t="s">
-        <v>34</v>
-      </c>
-      <c r="I515" t="s">
-        <v>61</v>
-      </c>
-      <c r="J515">
-        <v>15</v>
-      </c>
-      <c r="K515">
-        <v>49.37</v>
-      </c>
-      <c r="L515">
-        <f t="shared" si="8"/>
-        <v>25.025245999999999</v>
-      </c>
-    </row>
-    <row r="516" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H516" t="s">
-        <v>34</v>
-      </c>
-      <c r="I516" t="s">
-        <v>61</v>
-      </c>
-      <c r="J516">
-        <v>16</v>
-      </c>
-      <c r="K516">
-        <v>49.29</v>
-      </c>
-      <c r="L516">
-        <f t="shared" si="8"/>
-        <v>25.003182000000002</v>
-      </c>
-    </row>
-    <row r="517" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H517" t="s">
-        <v>34</v>
-      </c>
-      <c r="I517" t="s">
-        <v>61</v>
-      </c>
-      <c r="J517">
-        <v>18</v>
-      </c>
-      <c r="K517">
-        <v>49.34</v>
-      </c>
-      <c r="L517">
-        <f t="shared" ref="L517:L580" si="9">(0.2758*K517)+11.409</f>
-        <v>25.016972000000003</v>
-      </c>
-    </row>
-    <row r="518" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H518" t="s">
-        <v>34</v>
-      </c>
-      <c r="I518" t="s">
-        <v>61</v>
-      </c>
-      <c r="J518">
-        <v>19</v>
-      </c>
-      <c r="K518">
-        <v>49.22</v>
-      </c>
-      <c r="L518">
-        <f t="shared" si="9"/>
-        <v>24.983876000000002</v>
-      </c>
-    </row>
-    <row r="519" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H519" t="s">
-        <v>34</v>
-      </c>
-      <c r="I519" t="s">
-        <v>61</v>
-      </c>
-      <c r="J519">
-        <v>20</v>
-      </c>
-      <c r="K519">
-        <v>48.95</v>
-      </c>
-      <c r="L519">
-        <f t="shared" si="9"/>
-        <v>24.909410000000001</v>
-      </c>
-    </row>
-    <row r="520" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H520" t="s">
-        <v>34</v>
-      </c>
-      <c r="I520" t="s">
-        <v>61</v>
-      </c>
-      <c r="J520">
-        <v>24</v>
-      </c>
-      <c r="K520">
-        <v>49.85</v>
-      </c>
-      <c r="L520">
-        <f t="shared" si="9"/>
-        <v>25.157630000000001</v>
-      </c>
-    </row>
-    <row r="521" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H521" t="s">
-        <v>34</v>
-      </c>
-      <c r="I521" t="s">
-        <v>61</v>
-      </c>
-      <c r="J521">
-        <v>25</v>
-      </c>
-      <c r="K521">
-        <v>49.36</v>
-      </c>
-      <c r="L521">
-        <f t="shared" si="9"/>
-        <v>25.022487999999999</v>
-      </c>
-    </row>
     <row r="522" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H522" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I522" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J522">
         <v>1</v>
@@ -11434,16 +11054,16 @@
         <v>36.9</v>
       </c>
       <c r="L522">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L517:L580" si="9">(0.2758*K522)+11.409</f>
         <v>21.586019999999998</v>
       </c>
     </row>
     <row r="523" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H523" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I523" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J523">
         <v>3</v>
@@ -11458,10 +11078,10 @@
     </row>
     <row r="524" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H524" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I524" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J524">
         <v>4</v>
@@ -11476,10 +11096,10 @@
     </row>
     <row r="525" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H525" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I525" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J525">
         <v>5</v>
@@ -11494,10 +11114,10 @@
     </row>
     <row r="526" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H526" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I526" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J526">
         <v>6</v>
@@ -11512,10 +11132,10 @@
     </row>
     <row r="527" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H527" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I527" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J527">
         <v>7</v>
@@ -11530,10 +11150,10 @@
     </row>
     <row r="528" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H528" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I528" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J528">
         <v>8</v>
@@ -11548,10 +11168,10 @@
     </row>
     <row r="529" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H529" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I529" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J529">
         <v>9</v>
@@ -11566,10 +11186,10 @@
     </row>
     <row r="530" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H530" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I530" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J530">
         <v>10</v>
@@ -11584,10 +11204,10 @@
     </row>
     <row r="531" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H531" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I531" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J531">
         <v>11</v>
@@ -11602,10 +11222,10 @@
     </row>
     <row r="532" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H532" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I532" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J532">
         <v>12</v>
@@ -11620,10 +11240,10 @@
     </row>
     <row r="533" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H533" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I533" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J533">
         <v>13</v>
@@ -11638,10 +11258,10 @@
     </row>
     <row r="534" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H534" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I534" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J534">
         <v>14</v>
@@ -11656,10 +11276,10 @@
     </row>
     <row r="535" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H535" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I535" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J535">
         <v>15</v>
@@ -11674,10 +11294,10 @@
     </row>
     <row r="536" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H536" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I536" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J536">
         <v>16</v>
@@ -11692,10 +11312,10 @@
     </row>
     <row r="537" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H537" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I537" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J537">
         <v>18</v>
@@ -11710,10 +11330,10 @@
     </row>
     <row r="538" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H538" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I538" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J538">
         <v>19</v>
@@ -11728,10 +11348,10 @@
     </row>
     <row r="539" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H539" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I539" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J539">
         <v>20</v>
@@ -11746,10 +11366,10 @@
     </row>
     <row r="540" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H540" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I540" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J540">
         <v>24</v>
@@ -11764,10 +11384,10 @@
     </row>
     <row r="541" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H541" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I541" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J541">
         <v>25</v>
@@ -11782,10 +11402,10 @@
     </row>
     <row r="542" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H542" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I542" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J542">
         <v>1</v>
@@ -11800,10 +11420,10 @@
     </row>
     <row r="543" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H543" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I543" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J543">
         <v>3</v>
@@ -11818,10 +11438,10 @@
     </row>
     <row r="544" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H544" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I544" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J544">
         <v>4</v>
@@ -11836,10 +11456,10 @@
     </row>
     <row r="545" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H545" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I545" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J545">
         <v>5</v>
@@ -11854,10 +11474,10 @@
     </row>
     <row r="546" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H546" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I546" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J546">
         <v>6</v>
@@ -11872,10 +11492,10 @@
     </row>
     <row r="547" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H547" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I547" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J547">
         <v>7</v>
@@ -11890,10 +11510,10 @@
     </row>
     <row r="548" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H548" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I548" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J548">
         <v>8</v>
@@ -11908,10 +11528,10 @@
     </row>
     <row r="549" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H549" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I549" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J549">
         <v>9</v>
@@ -11926,10 +11546,10 @@
     </row>
     <row r="550" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H550" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I550" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J550">
         <v>10</v>
@@ -11944,10 +11564,10 @@
     </row>
     <row r="551" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H551" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I551" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J551">
         <v>11</v>
@@ -11962,10 +11582,10 @@
     </row>
     <row r="552" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H552" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I552" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J552">
         <v>12</v>
@@ -11980,10 +11600,10 @@
     </row>
     <row r="553" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H553" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I553" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J553">
         <v>13</v>
@@ -11998,10 +11618,10 @@
     </row>
     <row r="554" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H554" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I554" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J554">
         <v>14</v>
@@ -12016,10 +11636,10 @@
     </row>
     <row r="555" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H555" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I555" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J555">
         <v>15</v>
@@ -12034,10 +11654,10 @@
     </row>
     <row r="556" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H556" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I556" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J556">
         <v>16</v>
@@ -12052,10 +11672,10 @@
     </row>
     <row r="557" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H557" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I557" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J557">
         <v>18</v>
@@ -12070,10 +11690,10 @@
     </row>
     <row r="558" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H558" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I558" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J558">
         <v>19</v>
@@ -12088,10 +11708,10 @@
     </row>
     <row r="559" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H559" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I559" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J559">
         <v>20</v>
@@ -12106,10 +11726,10 @@
     </row>
     <row r="560" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H560" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I560" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J560">
         <v>24</v>
@@ -12124,10 +11744,10 @@
     </row>
     <row r="561" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H561" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I561" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J561">
         <v>25</v>
@@ -12142,10 +11762,10 @@
     </row>
     <row r="562" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H562" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I562" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J562">
         <v>1</v>
@@ -12160,10 +11780,10 @@
     </row>
     <row r="563" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H563" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I563" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J563">
         <v>3</v>
@@ -12178,10 +11798,10 @@
     </row>
     <row r="564" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H564" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I564" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J564">
         <v>4</v>
@@ -12196,10 +11816,10 @@
     </row>
     <row r="565" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H565" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I565" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J565">
         <v>5</v>
@@ -12214,10 +11834,10 @@
     </row>
     <row r="566" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H566" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I566" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J566">
         <v>6</v>
@@ -12232,10 +11852,10 @@
     </row>
     <row r="567" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H567" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I567" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J567">
         <v>7</v>
@@ -12250,10 +11870,10 @@
     </row>
     <row r="568" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H568" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I568" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J568">
         <v>8</v>
@@ -12268,10 +11888,10 @@
     </row>
     <row r="569" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H569" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I569" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J569">
         <v>9</v>
@@ -12286,10 +11906,10 @@
     </row>
     <row r="570" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H570" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I570" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J570">
         <v>10</v>
@@ -12304,10 +11924,10 @@
     </row>
     <row r="571" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H571" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I571" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J571">
         <v>11</v>
@@ -12322,10 +11942,10 @@
     </row>
     <row r="572" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H572" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I572" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J572">
         <v>12</v>
@@ -12340,10 +11960,10 @@
     </row>
     <row r="573" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H573" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I573" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J573">
         <v>13</v>
@@ -12358,10 +11978,10 @@
     </row>
     <row r="574" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H574" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I574" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J574">
         <v>14</v>
@@ -12376,10 +11996,10 @@
     </row>
     <row r="575" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H575" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I575" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J575">
         <v>15</v>
@@ -12394,10 +12014,10 @@
     </row>
     <row r="576" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H576" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I576" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J576">
         <v>16</v>
@@ -12412,10 +12032,10 @@
     </row>
     <row r="577" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H577" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I577" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J577">
         <v>18</v>
@@ -12430,10 +12050,10 @@
     </row>
     <row r="578" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H578" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I578" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J578">
         <v>19</v>
@@ -12448,10 +12068,10 @@
     </row>
     <row r="579" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H579" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I579" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J579">
         <v>20</v>
@@ -12466,10 +12086,10 @@
     </row>
     <row r="580" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H580" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I580" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J580">
         <v>24</v>
@@ -12484,10 +12104,10 @@
     </row>
     <row r="581" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H581" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I581" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J581">
         <v>25</v>
@@ -12500,372 +12120,12 @@
         <v>22.909860000000002</v>
       </c>
     </row>
-    <row r="582" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H582" t="s">
-        <v>38</v>
-      </c>
-      <c r="I582" t="s">
-        <v>63</v>
-      </c>
-      <c r="J582">
-        <v>1</v>
-      </c>
-      <c r="K582">
-        <v>27.97</v>
-      </c>
-      <c r="L582">
-        <f t="shared" si="10"/>
-        <v>19.123125999999999</v>
-      </c>
-    </row>
-    <row r="583" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H583" t="s">
-        <v>38</v>
-      </c>
-      <c r="I583" t="s">
-        <v>63</v>
-      </c>
-      <c r="J583">
-        <v>3</v>
-      </c>
-      <c r="K583">
-        <v>26.93</v>
-      </c>
-      <c r="L583">
-        <f t="shared" si="10"/>
-        <v>18.836294000000002</v>
-      </c>
-    </row>
-    <row r="584" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H584" t="s">
-        <v>38</v>
-      </c>
-      <c r="I584" t="s">
-        <v>63</v>
-      </c>
-      <c r="J584">
-        <v>4</v>
-      </c>
-      <c r="K584">
-        <v>26.71</v>
-      </c>
-      <c r="L584">
-        <f t="shared" si="10"/>
-        <v>18.775618000000001</v>
-      </c>
-    </row>
-    <row r="585" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H585" t="s">
-        <v>38</v>
-      </c>
-      <c r="I585" t="s">
-        <v>63</v>
-      </c>
-      <c r="J585">
-        <v>5</v>
-      </c>
-      <c r="K585">
-        <v>27.23</v>
-      </c>
-      <c r="L585">
-        <f t="shared" si="10"/>
-        <v>18.919034</v>
-      </c>
-    </row>
-    <row r="586" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H586" t="s">
-        <v>38</v>
-      </c>
-      <c r="I586" t="s">
-        <v>63</v>
-      </c>
-      <c r="J586">
-        <v>6</v>
-      </c>
-      <c r="K586">
-        <v>27.2</v>
-      </c>
-      <c r="L586">
-        <f t="shared" si="10"/>
-        <v>18.91076</v>
-      </c>
-    </row>
-    <row r="587" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H587" t="s">
-        <v>38</v>
-      </c>
-      <c r="I587" t="s">
-        <v>63</v>
-      </c>
-      <c r="J587">
-        <v>7</v>
-      </c>
-      <c r="K587">
-        <v>27.29</v>
-      </c>
-      <c r="L587">
-        <f t="shared" si="10"/>
-        <v>18.935582</v>
-      </c>
-    </row>
-    <row r="588" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H588" t="s">
-        <v>38</v>
-      </c>
-      <c r="I588" t="s">
-        <v>63</v>
-      </c>
-      <c r="J588">
-        <v>8</v>
-      </c>
-      <c r="K588">
-        <v>26.82</v>
-      </c>
-      <c r="L588">
-        <f t="shared" si="10"/>
-        <v>18.805956000000002</v>
-      </c>
-    </row>
-    <row r="589" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H589" t="s">
-        <v>38</v>
-      </c>
-      <c r="I589" t="s">
-        <v>63</v>
-      </c>
-      <c r="J589">
-        <v>9</v>
-      </c>
-      <c r="K589">
-        <v>27.23</v>
-      </c>
-      <c r="L589">
-        <f t="shared" si="10"/>
-        <v>18.919034</v>
-      </c>
-    </row>
-    <row r="590" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H590" t="s">
-        <v>38</v>
-      </c>
-      <c r="I590" t="s">
-        <v>63</v>
-      </c>
-      <c r="J590">
-        <v>10</v>
-      </c>
-      <c r="K590">
-        <v>27.02</v>
-      </c>
-      <c r="L590">
-        <f t="shared" si="10"/>
-        <v>18.861115999999999</v>
-      </c>
-    </row>
-    <row r="591" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H591" t="s">
-        <v>38</v>
-      </c>
-      <c r="I591" t="s">
-        <v>63</v>
-      </c>
-      <c r="J591">
-        <v>11</v>
-      </c>
-      <c r="K591">
-        <v>27.44</v>
-      </c>
-      <c r="L591">
-        <f t="shared" si="10"/>
-        <v>18.976952000000001</v>
-      </c>
-    </row>
-    <row r="592" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H592" t="s">
-        <v>38</v>
-      </c>
-      <c r="I592" t="s">
-        <v>63</v>
-      </c>
-      <c r="J592">
-        <v>12</v>
-      </c>
-      <c r="K592">
-        <v>27.22</v>
-      </c>
-      <c r="L592">
-        <f t="shared" si="10"/>
-        <v>18.916276</v>
-      </c>
-    </row>
-    <row r="593" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H593" t="s">
-        <v>38</v>
-      </c>
-      <c r="I593" t="s">
-        <v>63</v>
-      </c>
-      <c r="J593">
-        <v>13</v>
-      </c>
-      <c r="K593">
-        <v>27.16</v>
-      </c>
-      <c r="L593">
-        <f t="shared" si="10"/>
-        <v>18.899728</v>
-      </c>
-    </row>
-    <row r="594" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H594" t="s">
-        <v>38</v>
-      </c>
-      <c r="I594" t="s">
-        <v>63</v>
-      </c>
-      <c r="J594">
-        <v>14</v>
-      </c>
-      <c r="K594">
-        <v>27.18</v>
-      </c>
-      <c r="L594">
-        <f t="shared" si="10"/>
-        <v>18.905244</v>
-      </c>
-    </row>
-    <row r="595" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H595" t="s">
-        <v>38</v>
-      </c>
-      <c r="I595" t="s">
-        <v>63</v>
-      </c>
-      <c r="J595">
-        <v>15</v>
-      </c>
-      <c r="K595">
-        <v>26.98</v>
-      </c>
-      <c r="L595">
-        <f t="shared" si="10"/>
-        <v>18.850084000000003</v>
-      </c>
-    </row>
-    <row r="596" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H596" t="s">
-        <v>38</v>
-      </c>
-      <c r="I596" t="s">
-        <v>63</v>
-      </c>
-      <c r="J596">
-        <v>16</v>
-      </c>
-      <c r="K596">
-        <v>26.77</v>
-      </c>
-      <c r="L596">
-        <f t="shared" si="10"/>
-        <v>18.792166000000002</v>
-      </c>
-    </row>
-    <row r="597" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H597" t="s">
-        <v>38</v>
-      </c>
-      <c r="I597" t="s">
-        <v>63</v>
-      </c>
-      <c r="J597">
-        <v>18</v>
-      </c>
-      <c r="K597">
-        <v>26.94</v>
-      </c>
-      <c r="L597">
-        <f t="shared" si="10"/>
-        <v>18.839052000000002</v>
-      </c>
-    </row>
-    <row r="598" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H598" t="s">
-        <v>38</v>
-      </c>
-      <c r="I598" t="s">
-        <v>63</v>
-      </c>
-      <c r="J598">
-        <v>19</v>
-      </c>
-      <c r="K598">
-        <v>26.77</v>
-      </c>
-      <c r="L598">
-        <f t="shared" si="10"/>
-        <v>18.792166000000002</v>
-      </c>
-    </row>
-    <row r="599" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H599" t="s">
-        <v>38</v>
-      </c>
-      <c r="I599" t="s">
-        <v>63</v>
-      </c>
-      <c r="J599">
-        <v>20</v>
-      </c>
-      <c r="K599">
-        <v>26.43</v>
-      </c>
-      <c r="L599">
-        <f t="shared" si="10"/>
-        <v>18.698394</v>
-      </c>
-    </row>
-    <row r="600" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H600" t="s">
-        <v>38</v>
-      </c>
-      <c r="I600" t="s">
-        <v>63</v>
-      </c>
-      <c r="J600">
-        <v>24</v>
-      </c>
-      <c r="K600">
-        <v>27.43</v>
-      </c>
-      <c r="L600">
-        <f t="shared" si="10"/>
-        <v>18.974194000000001</v>
-      </c>
-    </row>
-    <row r="601" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H601" t="s">
-        <v>38</v>
-      </c>
-      <c r="I601" t="s">
-        <v>63</v>
-      </c>
-      <c r="J601">
-        <v>25</v>
-      </c>
-      <c r="K601">
-        <v>26.93</v>
-      </c>
-      <c r="L601">
-        <f t="shared" si="10"/>
-        <v>18.836294000000002</v>
-      </c>
-    </row>
     <row r="602" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H602" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I602" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J602">
         <v>1</v>
@@ -12880,10 +12140,10 @@
     </row>
     <row r="603" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H603" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I603" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J603">
         <v>3</v>
@@ -12898,10 +12158,10 @@
     </row>
     <row r="604" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H604" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I604" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J604">
         <v>4</v>
@@ -12916,10 +12176,10 @@
     </row>
     <row r="605" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H605" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I605" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J605">
         <v>5</v>
@@ -12934,10 +12194,10 @@
     </row>
     <row r="606" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H606" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I606" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J606">
         <v>6</v>
@@ -12952,10 +12212,10 @@
     </row>
     <row r="607" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H607" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I607" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J607">
         <v>7</v>
@@ -12970,10 +12230,10 @@
     </row>
     <row r="608" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H608" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I608" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J608">
         <v>8</v>
@@ -12988,10 +12248,10 @@
     </row>
     <row r="609" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H609" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I609" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J609">
         <v>9</v>
@@ -13006,10 +12266,10 @@
     </row>
     <row r="610" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H610" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I610" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J610">
         <v>10</v>
@@ -13024,10 +12284,10 @@
     </row>
     <row r="611" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H611" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I611" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J611">
         <v>11</v>
@@ -13042,10 +12302,10 @@
     </row>
     <row r="612" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H612" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I612" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J612">
         <v>12</v>
@@ -13060,10 +12320,10 @@
     </row>
     <row r="613" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H613" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I613" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J613">
         <v>13</v>
@@ -13078,10 +12338,10 @@
     </row>
     <row r="614" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H614" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I614" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J614">
         <v>14</v>
@@ -13096,10 +12356,10 @@
     </row>
     <row r="615" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H615" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I615" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J615">
         <v>15</v>
@@ -13114,10 +12374,10 @@
     </row>
     <row r="616" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H616" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I616" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J616">
         <v>16</v>
@@ -13132,10 +12392,10 @@
     </row>
     <row r="617" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H617" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I617" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J617">
         <v>18</v>
@@ -13150,10 +12410,10 @@
     </row>
     <row r="618" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H618" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I618" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J618">
         <v>19</v>
@@ -13168,10 +12428,10 @@
     </row>
     <row r="619" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H619" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I619" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J619">
         <v>20</v>
@@ -13186,10 +12446,10 @@
     </row>
     <row r="620" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H620" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I620" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J620">
         <v>24</v>
@@ -13204,10 +12464,10 @@
     </row>
     <row r="621" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H621" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I621" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J621">
         <v>25</v>
@@ -13222,10 +12482,10 @@
     </row>
     <row r="622" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H622" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I622" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J622">
         <v>1</v>
@@ -13240,10 +12500,10 @@
     </row>
     <row r="623" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H623" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I623" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J623">
         <v>3</v>
@@ -13258,10 +12518,10 @@
     </row>
     <row r="624" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H624" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I624" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J624">
         <v>4</v>
@@ -13276,10 +12536,10 @@
     </row>
     <row r="625" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H625" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I625" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J625">
         <v>5</v>
@@ -13294,10 +12554,10 @@
     </row>
     <row r="626" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H626" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I626" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J626">
         <v>6</v>
@@ -13312,10 +12572,10 @@
     </row>
     <row r="627" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H627" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I627" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J627">
         <v>7</v>
@@ -13330,10 +12590,10 @@
     </row>
     <row r="628" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H628" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I628" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J628">
         <v>8</v>
@@ -13348,10 +12608,10 @@
     </row>
     <row r="629" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H629" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I629" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J629">
         <v>9</v>
@@ -13366,10 +12626,10 @@
     </row>
     <row r="630" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H630" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I630" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J630">
         <v>10</v>
@@ -13384,10 +12644,10 @@
     </row>
     <row r="631" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H631" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I631" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J631">
         <v>11</v>
@@ -13402,10 +12662,10 @@
     </row>
     <row r="632" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H632" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I632" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J632">
         <v>12</v>
@@ -13420,10 +12680,10 @@
     </row>
     <row r="633" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H633" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I633" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J633">
         <v>13</v>
@@ -13438,10 +12698,10 @@
     </row>
     <row r="634" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H634" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I634" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J634">
         <v>14</v>
@@ -13456,10 +12716,10 @@
     </row>
     <row r="635" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H635" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I635" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J635">
         <v>15</v>
@@ -13474,10 +12734,10 @@
     </row>
     <row r="636" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H636" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I636" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J636">
         <v>16</v>
@@ -13492,10 +12752,10 @@
     </row>
     <row r="637" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H637" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I637" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J637">
         <v>18</v>
@@ -13510,10 +12770,10 @@
     </row>
     <row r="638" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H638" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I638" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J638">
         <v>19</v>
@@ -13528,10 +12788,10 @@
     </row>
     <row r="639" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H639" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I639" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J639">
         <v>20</v>
@@ -13546,10 +12806,10 @@
     </row>
     <row r="640" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H640" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I640" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J640">
         <v>24</v>
@@ -13564,10 +12824,10 @@
     </row>
     <row r="641" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H641" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I641" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J641">
         <v>25</v>
@@ -13582,10 +12842,10 @@
     </row>
     <row r="642" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H642" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I642" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J642">
         <v>1</v>
@@ -13600,10 +12860,10 @@
     </row>
     <row r="643" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H643" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I643" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J643">
         <v>3</v>
@@ -13618,10 +12878,10 @@
     </row>
     <row r="644" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H644" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I644" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J644">
         <v>4</v>
@@ -13636,10 +12896,10 @@
     </row>
     <row r="645" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H645" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I645" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J645">
         <v>5</v>
@@ -13654,10 +12914,10 @@
     </row>
     <row r="646" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H646" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I646" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J646">
         <v>6</v>
@@ -13672,10 +12932,10 @@
     </row>
     <row r="647" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H647" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I647" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J647">
         <v>7</v>
@@ -13690,10 +12950,10 @@
     </row>
     <row r="648" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H648" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I648" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J648">
         <v>8</v>
@@ -13708,10 +12968,10 @@
     </row>
     <row r="649" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H649" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I649" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J649">
         <v>9</v>
@@ -13726,10 +12986,10 @@
     </row>
     <row r="650" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H650" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I650" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J650">
         <v>10</v>
@@ -13744,10 +13004,10 @@
     </row>
     <row r="651" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H651" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I651" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J651">
         <v>11</v>
@@ -13762,10 +13022,10 @@
     </row>
     <row r="652" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H652" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I652" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J652">
         <v>12</v>
@@ -13780,10 +13040,10 @@
     </row>
     <row r="653" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H653" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I653" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J653">
         <v>13</v>
@@ -13798,10 +13058,10 @@
     </row>
     <row r="654" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H654" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I654" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J654">
         <v>14</v>
@@ -13816,10 +13076,10 @@
     </row>
     <row r="655" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H655" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I655" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J655">
         <v>15</v>
@@ -13834,10 +13094,10 @@
     </row>
     <row r="656" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H656" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I656" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J656">
         <v>16</v>
@@ -13852,10 +13112,10 @@
     </row>
     <row r="657" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H657" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I657" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J657">
         <v>18</v>
@@ -13870,10 +13130,10 @@
     </row>
     <row r="658" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H658" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I658" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J658">
         <v>19</v>
@@ -13888,10 +13148,10 @@
     </row>
     <row r="659" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H659" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I659" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J659">
         <v>20</v>
@@ -13906,10 +13166,10 @@
     </row>
     <row r="660" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H660" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I660" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J660">
         <v>24</v>
@@ -13924,10 +13184,10 @@
     </row>
     <row r="661" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H661" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I661" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J661">
         <v>25</v>
@@ -13942,10 +13202,10 @@
     </row>
     <row r="662" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H662" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I662" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J662">
         <v>1</v>
@@ -13960,10 +13220,10 @@
     </row>
     <row r="663" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H663" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I663" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J663">
         <v>3</v>
@@ -13978,10 +13238,10 @@
     </row>
     <row r="664" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H664" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I664" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J664">
         <v>4</v>
@@ -13996,10 +13256,10 @@
     </row>
     <row r="665" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H665" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I665" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J665">
         <v>5</v>
@@ -14014,10 +13274,10 @@
     </row>
     <row r="666" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H666" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I666" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J666">
         <v>6</v>
@@ -14032,10 +13292,10 @@
     </row>
     <row r="667" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H667" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I667" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J667">
         <v>7</v>
@@ -14050,10 +13310,10 @@
     </row>
     <row r="668" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H668" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I668" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J668">
         <v>8</v>
@@ -14068,10 +13328,10 @@
     </row>
     <row r="669" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H669" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I669" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J669">
         <v>9</v>
@@ -14086,10 +13346,10 @@
     </row>
     <row r="670" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H670" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I670" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J670">
         <v>10</v>
@@ -14104,10 +13364,10 @@
     </row>
     <row r="671" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H671" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I671" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J671">
         <v>11</v>
@@ -14122,10 +13382,10 @@
     </row>
     <row r="672" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H672" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I672" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J672">
         <v>12</v>
@@ -14140,10 +13400,10 @@
     </row>
     <row r="673" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H673" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I673" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J673">
         <v>13</v>
@@ -14158,10 +13418,10 @@
     </row>
     <row r="674" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H674" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I674" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J674">
         <v>14</v>
@@ -14176,10 +13436,10 @@
     </row>
     <row r="675" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H675" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I675" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J675">
         <v>15</v>
@@ -14194,10 +13454,10 @@
     </row>
     <row r="676" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H676" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I676" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J676">
         <v>16</v>
@@ -14212,10 +13472,10 @@
     </row>
     <row r="677" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H677" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I677" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J677">
         <v>18</v>
@@ -14230,10 +13490,10 @@
     </row>
     <row r="678" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H678" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I678" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J678">
         <v>19</v>
@@ -14248,10 +13508,10 @@
     </row>
     <row r="679" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H679" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I679" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J679">
         <v>20</v>
@@ -14266,10 +13526,10 @@
     </row>
     <row r="680" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H680" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I680" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J680">
         <v>24</v>
@@ -14284,10 +13544,10 @@
     </row>
     <row r="681" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H681" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I681" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J681">
         <v>25</v>
@@ -14302,10 +13562,10 @@
     </row>
     <row r="682" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H682" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I682" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J682">
         <v>1</v>
@@ -14320,10 +13580,10 @@
     </row>
     <row r="683" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H683" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I683" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J683">
         <v>3</v>
@@ -14338,10 +13598,10 @@
     </row>
     <row r="684" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H684" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I684" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J684">
         <v>4</v>
@@ -14356,10 +13616,10 @@
     </row>
     <row r="685" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H685" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I685" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J685">
         <v>5</v>
@@ -14374,10 +13634,10 @@
     </row>
     <row r="686" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H686" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I686" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J686">
         <v>6</v>
@@ -14392,10 +13652,10 @@
     </row>
     <row r="687" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H687" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I687" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J687">
         <v>7</v>
@@ -14410,10 +13670,10 @@
     </row>
     <row r="688" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H688" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I688" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J688">
         <v>8</v>
@@ -14428,10 +13688,10 @@
     </row>
     <row r="689" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H689" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I689" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J689">
         <v>9</v>
@@ -14446,10 +13706,10 @@
     </row>
     <row r="690" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H690" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I690" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J690">
         <v>10</v>
@@ -14464,10 +13724,10 @@
     </row>
     <row r="691" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H691" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I691" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J691">
         <v>11</v>
@@ -14482,10 +13742,10 @@
     </row>
     <row r="692" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H692" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I692" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J692">
         <v>12</v>
@@ -14500,10 +13760,10 @@
     </row>
     <row r="693" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H693" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I693" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J693">
         <v>13</v>
@@ -14518,10 +13778,10 @@
     </row>
     <row r="694" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H694" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I694" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J694">
         <v>14</v>
@@ -14536,10 +13796,10 @@
     </row>
     <row r="695" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H695" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I695" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J695">
         <v>15</v>
@@ -14554,10 +13814,10 @@
     </row>
     <row r="696" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H696" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I696" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J696">
         <v>16</v>
@@ -14572,10 +13832,10 @@
     </row>
     <row r="697" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H697" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I697" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J697">
         <v>18</v>
@@ -14590,10 +13850,10 @@
     </row>
     <row r="698" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H698" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I698" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J698">
         <v>19</v>
@@ -14608,10 +13868,10 @@
     </row>
     <row r="699" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H699" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I699" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J699">
         <v>20</v>
@@ -14626,10 +13886,10 @@
     </row>
     <row r="700" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H700" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I700" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J700">
         <v>24</v>
@@ -14644,10 +13904,10 @@
     </row>
     <row r="701" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H701" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I701" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J701">
         <v>25</v>
@@ -14662,10 +13922,10 @@
     </row>
     <row r="702" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H702" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I702" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J702">
         <v>1</v>
@@ -14680,10 +13940,10 @@
     </row>
     <row r="703" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H703" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I703" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J703">
         <v>3</v>
@@ -14698,10 +13958,10 @@
     </row>
     <row r="704" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H704" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I704" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J704">
         <v>4</v>
@@ -14716,10 +13976,10 @@
     </row>
     <row r="705" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H705" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I705" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J705">
         <v>5</v>
@@ -14734,10 +13994,10 @@
     </row>
     <row r="706" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H706" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I706" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J706">
         <v>6</v>
@@ -14752,10 +14012,10 @@
     </row>
     <row r="707" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H707" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I707" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J707">
         <v>7</v>
@@ -14770,10 +14030,10 @@
     </row>
     <row r="708" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H708" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I708" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J708">
         <v>8</v>
@@ -14788,10 +14048,10 @@
     </row>
     <row r="709" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H709" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I709" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J709">
         <v>9</v>
@@ -14806,10 +14066,10 @@
     </row>
     <row r="710" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H710" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I710" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J710">
         <v>10</v>
@@ -14824,10 +14084,10 @@
     </row>
     <row r="711" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H711" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I711" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J711">
         <v>11</v>
@@ -14842,10 +14102,10 @@
     </row>
     <row r="712" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H712" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I712" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J712">
         <v>12</v>
@@ -14860,10 +14120,10 @@
     </row>
     <row r="713" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H713" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I713" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J713">
         <v>13</v>
@@ -14878,10 +14138,10 @@
     </row>
     <row r="714" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H714" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I714" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J714">
         <v>14</v>
@@ -14896,10 +14156,10 @@
     </row>
     <row r="715" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H715" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I715" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J715">
         <v>15</v>
@@ -14914,10 +14174,10 @@
     </row>
     <row r="716" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H716" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I716" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J716">
         <v>16</v>
@@ -14932,10 +14192,10 @@
     </row>
     <row r="717" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H717" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I717" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J717">
         <v>18</v>
@@ -14950,10 +14210,10 @@
     </row>
     <row r="718" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H718" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I718" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J718">
         <v>19</v>
@@ -14968,10 +14228,10 @@
     </row>
     <row r="719" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H719" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I719" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J719">
         <v>20</v>
@@ -14986,10 +14246,10 @@
     </row>
     <row r="720" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H720" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I720" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J720">
         <v>24</v>
@@ -15004,10 +14264,10 @@
     </row>
     <row r="721" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H721" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I721" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J721">
         <v>25</v>
@@ -15022,10 +14282,10 @@
     </row>
     <row r="722" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H722" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I722" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J722">
         <v>1</v>
@@ -15040,10 +14300,10 @@
     </row>
     <row r="723" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H723" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I723" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J723">
         <v>3</v>
@@ -15058,10 +14318,10 @@
     </row>
     <row r="724" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H724" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I724" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J724">
         <v>4</v>
@@ -15076,10 +14336,10 @@
     </row>
     <row r="725" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H725" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I725" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J725">
         <v>5</v>
@@ -15094,10 +14354,10 @@
     </row>
     <row r="726" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H726" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I726" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J726">
         <v>6</v>
@@ -15112,10 +14372,10 @@
     </row>
     <row r="727" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H727" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I727" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J727">
         <v>7</v>
@@ -15130,10 +14390,10 @@
     </row>
     <row r="728" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H728" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I728" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J728">
         <v>8</v>
@@ -15148,10 +14408,10 @@
     </row>
     <row r="729" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H729" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I729" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J729">
         <v>9</v>
@@ -15166,10 +14426,10 @@
     </row>
     <row r="730" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H730" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I730" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J730">
         <v>10</v>
@@ -15184,10 +14444,10 @@
     </row>
     <row r="731" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H731" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I731" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J731">
         <v>11</v>
@@ -15202,10 +14462,10 @@
     </row>
     <row r="732" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H732" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I732" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J732">
         <v>12</v>
@@ -15220,10 +14480,10 @@
     </row>
     <row r="733" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H733" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I733" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J733">
         <v>13</v>
@@ -15238,10 +14498,10 @@
     </row>
     <row r="734" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H734" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I734" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J734">
         <v>14</v>
@@ -15256,10 +14516,10 @@
     </row>
     <row r="735" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H735" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I735" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J735">
         <v>15</v>
@@ -15274,10 +14534,10 @@
     </row>
     <row r="736" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H736" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I736" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J736">
         <v>16</v>
@@ -15292,10 +14552,10 @@
     </row>
     <row r="737" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H737" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I737" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J737">
         <v>18</v>
@@ -15310,10 +14570,10 @@
     </row>
     <row r="738" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H738" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I738" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J738">
         <v>19</v>
@@ -15328,10 +14588,10 @@
     </row>
     <row r="739" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H739" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I739" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J739">
         <v>20</v>
@@ -15346,10 +14606,10 @@
     </row>
     <row r="740" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H740" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I740" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J740">
         <v>24</v>
@@ -15364,10 +14624,10 @@
     </row>
     <row r="741" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H741" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I741" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J741">
         <v>25</v>
@@ -15382,10 +14642,10 @@
     </row>
     <row r="742" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H742" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I742" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J742">
         <v>1</v>
@@ -15400,10 +14660,10 @@
     </row>
     <row r="743" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H743" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I743" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J743">
         <v>3</v>
@@ -15418,10 +14678,10 @@
     </row>
     <row r="744" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H744" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I744" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J744">
         <v>4</v>
@@ -15436,10 +14696,10 @@
     </row>
     <row r="745" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H745" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I745" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J745">
         <v>5</v>
@@ -15454,10 +14714,10 @@
     </row>
     <row r="746" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H746" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I746" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J746">
         <v>6</v>
@@ -15472,10 +14732,10 @@
     </row>
     <row r="747" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H747" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I747" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J747">
         <v>7</v>
@@ -15490,10 +14750,10 @@
     </row>
     <row r="748" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H748" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I748" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J748">
         <v>8</v>
@@ -15508,10 +14768,10 @@
     </row>
     <row r="749" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H749" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I749" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J749">
         <v>9</v>
@@ -15526,10 +14786,10 @@
     </row>
     <row r="750" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H750" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I750" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J750">
         <v>10</v>
@@ -15544,10 +14804,10 @@
     </row>
     <row r="751" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H751" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I751" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J751">
         <v>11</v>
@@ -15562,10 +14822,10 @@
     </row>
     <row r="752" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H752" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I752" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J752">
         <v>12</v>
@@ -15580,10 +14840,10 @@
     </row>
     <row r="753" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H753" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I753" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J753">
         <v>13</v>
@@ -15598,10 +14858,10 @@
     </row>
     <row r="754" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H754" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I754" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J754">
         <v>14</v>
@@ -15616,10 +14876,10 @@
     </row>
     <row r="755" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H755" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I755" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J755">
         <v>15</v>
@@ -15634,10 +14894,10 @@
     </row>
     <row r="756" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H756" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I756" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J756">
         <v>16</v>
@@ -15652,10 +14912,10 @@
     </row>
     <row r="757" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H757" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I757" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J757">
         <v>18</v>
@@ -15670,10 +14930,10 @@
     </row>
     <row r="758" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H758" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I758" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J758">
         <v>19</v>
@@ -15688,10 +14948,10 @@
     </row>
     <row r="759" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H759" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I759" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J759">
         <v>20</v>
@@ -15706,10 +14966,10 @@
     </row>
     <row r="760" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H760" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I760" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J760">
         <v>24</v>
@@ -15724,10 +14984,10 @@
     </row>
     <row r="761" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H761" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I761" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J761">
         <v>25</v>
@@ -15742,10 +15002,10 @@
     </row>
     <row r="762" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H762" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I762" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J762">
         <v>1</v>
@@ -15760,10 +15020,10 @@
     </row>
     <row r="763" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H763" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I763" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J763">
         <v>3</v>
@@ -15778,10 +15038,10 @@
     </row>
     <row r="764" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H764" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I764" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J764">
         <v>4</v>
@@ -15796,10 +15056,10 @@
     </row>
     <row r="765" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H765" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I765" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J765">
         <v>5</v>
@@ -15814,10 +15074,10 @@
     </row>
     <row r="766" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H766" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I766" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J766">
         <v>6</v>
@@ -15832,10 +15092,10 @@
     </row>
     <row r="767" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H767" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I767" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J767">
         <v>7</v>
@@ -15850,10 +15110,10 @@
     </row>
     <row r="768" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H768" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I768" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J768">
         <v>8</v>
@@ -15868,10 +15128,10 @@
     </row>
     <row r="769" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H769" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I769" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J769">
         <v>9</v>
@@ -15886,10 +15146,10 @@
     </row>
     <row r="770" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H770" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I770" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J770">
         <v>10</v>
@@ -15904,10 +15164,10 @@
     </row>
     <row r="771" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H771" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I771" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J771">
         <v>11</v>
@@ -15922,10 +15182,10 @@
     </row>
     <row r="772" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H772" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I772" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J772">
         <v>12</v>
@@ -15940,10 +15200,10 @@
     </row>
     <row r="773" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H773" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I773" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J773">
         <v>13</v>
@@ -15958,10 +15218,10 @@
     </row>
     <row r="774" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H774" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I774" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J774">
         <v>14</v>
@@ -15976,10 +15236,10 @@
     </row>
     <row r="775" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H775" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I775" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J775">
         <v>15</v>
@@ -15994,10 +15254,10 @@
     </row>
     <row r="776" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H776" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I776" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J776">
         <v>16</v>
@@ -16012,10 +15272,10 @@
     </row>
     <row r="777" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H777" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I777" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J777">
         <v>18</v>
@@ -16030,10 +15290,10 @@
     </row>
     <row r="778" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H778" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I778" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J778">
         <v>19</v>
@@ -16048,10 +15308,10 @@
     </row>
     <row r="779" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H779" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I779" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J779">
         <v>20</v>
@@ -16066,10 +15326,10 @@
     </row>
     <row r="780" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H780" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I780" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J780">
         <v>24</v>
@@ -16084,10 +15344,10 @@
     </row>
     <row r="781" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H781" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I781" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J781">
         <v>25</v>
@@ -16102,10 +15362,10 @@
     </row>
     <row r="782" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H782" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I782" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J782">
         <v>1</v>
@@ -16120,10 +15380,10 @@
     </row>
     <row r="783" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H783" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I783" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J783">
         <v>3</v>
@@ -16138,10 +15398,10 @@
     </row>
     <row r="784" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H784" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I784" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J784">
         <v>4</v>
@@ -16156,10 +15416,10 @@
     </row>
     <row r="785" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H785" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I785" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J785">
         <v>5</v>
@@ -16174,10 +15434,10 @@
     </row>
     <row r="786" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H786" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I786" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J786">
         <v>6</v>
@@ -16192,10 +15452,10 @@
     </row>
     <row r="787" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H787" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I787" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J787">
         <v>7</v>
@@ -16210,10 +15470,10 @@
     </row>
     <row r="788" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H788" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I788" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J788">
         <v>8</v>
@@ -16228,10 +15488,10 @@
     </row>
     <row r="789" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H789" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I789" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J789">
         <v>9</v>
@@ -16246,10 +15506,10 @@
     </row>
     <row r="790" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H790" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I790" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J790">
         <v>10</v>
@@ -16264,10 +15524,10 @@
     </row>
     <row r="791" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H791" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I791" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J791">
         <v>11</v>
@@ -16282,10 +15542,10 @@
     </row>
     <row r="792" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H792" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I792" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J792">
         <v>12</v>
@@ -16300,10 +15560,10 @@
     </row>
     <row r="793" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H793" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I793" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J793">
         <v>13</v>
@@ -16318,10 +15578,10 @@
     </row>
     <row r="794" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H794" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I794" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J794">
         <v>14</v>
@@ -16336,10 +15596,10 @@
     </row>
     <row r="795" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H795" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I795" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J795">
         <v>15</v>
@@ -16354,10 +15614,10 @@
     </row>
     <row r="796" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H796" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I796" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J796">
         <v>16</v>
@@ -16372,10 +15632,10 @@
     </row>
     <row r="797" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H797" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I797" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J797">
         <v>18</v>
@@ -16390,10 +15650,10 @@
     </row>
     <row r="798" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H798" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I798" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J798">
         <v>19</v>
@@ -16408,10 +15668,10 @@
     </row>
     <row r="799" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H799" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I799" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J799">
         <v>20</v>
@@ -16426,10 +15686,10 @@
     </row>
     <row r="800" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H800" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I800" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J800">
         <v>24</v>
@@ -16444,10 +15704,10 @@
     </row>
     <row r="801" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H801" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I801" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J801">
         <v>25</v>
@@ -16462,10 +15722,10 @@
     </row>
     <row r="802" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H802" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I802" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J802">
         <v>1</v>
@@ -16480,10 +15740,10 @@
     </row>
     <row r="803" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H803" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I803" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J803">
         <v>3</v>
@@ -16498,10 +15758,10 @@
     </row>
     <row r="804" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H804" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I804" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J804">
         <v>4</v>
@@ -16516,10 +15776,10 @@
     </row>
     <row r="805" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H805" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I805" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J805">
         <v>5</v>
@@ -16534,10 +15794,10 @@
     </row>
     <row r="806" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H806" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I806" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J806">
         <v>6</v>
@@ -16552,10 +15812,10 @@
     </row>
     <row r="807" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H807" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I807" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J807">
         <v>7</v>
@@ -16570,10 +15830,10 @@
     </row>
     <row r="808" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H808" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I808" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J808">
         <v>8</v>
@@ -16588,10 +15848,10 @@
     </row>
     <row r="809" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H809" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I809" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J809">
         <v>9</v>
@@ -16606,10 +15866,10 @@
     </row>
     <row r="810" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H810" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I810" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J810">
         <v>10</v>
@@ -16624,10 +15884,10 @@
     </row>
     <row r="811" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H811" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I811" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J811">
         <v>11</v>
@@ -16642,10 +15902,10 @@
     </row>
     <row r="812" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H812" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I812" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J812">
         <v>12</v>
@@ -16660,10 +15920,10 @@
     </row>
     <row r="813" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H813" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I813" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J813">
         <v>13</v>
@@ -16678,10 +15938,10 @@
     </row>
     <row r="814" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H814" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I814" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J814">
         <v>14</v>
@@ -16696,10 +15956,10 @@
     </row>
     <row r="815" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H815" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I815" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J815">
         <v>15</v>
@@ -16714,10 +15974,10 @@
     </row>
     <row r="816" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H816" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I816" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J816">
         <v>16</v>
@@ -16732,10 +15992,10 @@
     </row>
     <row r="817" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H817" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I817" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J817">
         <v>18</v>
@@ -16750,10 +16010,10 @@
     </row>
     <row r="818" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H818" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I818" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J818">
         <v>19</v>
@@ -16768,10 +16028,10 @@
     </row>
     <row r="819" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H819" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I819" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J819">
         <v>20</v>
@@ -16786,10 +16046,10 @@
     </row>
     <row r="820" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H820" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I820" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J820">
         <v>24</v>
@@ -16804,10 +16064,10 @@
     </row>
     <row r="821" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H821" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I821" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J821">
         <v>25</v>
@@ -16822,10 +16082,10 @@
     </row>
     <row r="822" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H822" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I822" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J822">
         <v>1</v>
@@ -16840,10 +16100,10 @@
     </row>
     <row r="823" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H823" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I823" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J823">
         <v>3</v>
@@ -16858,10 +16118,10 @@
     </row>
     <row r="824" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H824" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I824" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J824">
         <v>4</v>
@@ -16876,10 +16136,10 @@
     </row>
     <row r="825" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H825" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I825" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J825">
         <v>5</v>
@@ -16894,10 +16154,10 @@
     </row>
     <row r="826" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H826" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I826" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J826">
         <v>6</v>
@@ -16912,10 +16172,10 @@
     </row>
     <row r="827" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H827" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I827" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J827">
         <v>7</v>
@@ -16930,10 +16190,10 @@
     </row>
     <row r="828" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H828" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I828" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J828">
         <v>8</v>
@@ -16948,10 +16208,10 @@
     </row>
     <row r="829" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H829" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I829" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J829">
         <v>9</v>
@@ -16966,10 +16226,10 @@
     </row>
     <row r="830" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H830" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I830" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J830">
         <v>10</v>
@@ -16984,10 +16244,10 @@
     </row>
     <row r="831" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H831" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I831" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J831">
         <v>11</v>
@@ -17002,10 +16262,10 @@
     </row>
     <row r="832" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H832" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I832" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J832">
         <v>12</v>
@@ -17020,10 +16280,10 @@
     </row>
     <row r="833" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H833" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I833" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J833">
         <v>13</v>
@@ -17038,10 +16298,10 @@
     </row>
     <row r="834" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H834" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I834" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J834">
         <v>14</v>
@@ -17056,10 +16316,10 @@
     </row>
     <row r="835" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H835" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I835" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J835">
         <v>15</v>
@@ -17074,10 +16334,10 @@
     </row>
     <row r="836" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H836" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I836" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J836">
         <v>16</v>
@@ -17092,10 +16352,10 @@
     </row>
     <row r="837" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H837" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I837" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J837">
         <v>18</v>
@@ -17110,10 +16370,10 @@
     </row>
     <row r="838" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H838" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I838" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J838">
         <v>19</v>
@@ -17128,10 +16388,10 @@
     </row>
     <row r="839" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H839" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I839" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J839">
         <v>20</v>
@@ -17146,10 +16406,10 @@
     </row>
     <row r="840" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H840" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I840" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J840">
         <v>24</v>
@@ -17164,10 +16424,10 @@
     </row>
     <row r="841" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H841" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I841" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J841">
         <v>25</v>
@@ -17182,10 +16442,10 @@
     </row>
     <row r="842" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H842" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I842" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J842">
         <v>1</v>
@@ -17200,10 +16460,10 @@
     </row>
     <row r="843" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H843" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I843" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J843">
         <v>3</v>
@@ -17218,10 +16478,10 @@
     </row>
     <row r="844" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H844" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I844" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J844">
         <v>4</v>
@@ -17236,10 +16496,10 @@
     </row>
     <row r="845" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H845" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I845" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J845">
         <v>5</v>
@@ -17254,10 +16514,10 @@
     </row>
     <row r="846" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H846" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I846" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J846">
         <v>6</v>
@@ -17272,10 +16532,10 @@
     </row>
     <row r="847" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H847" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I847" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J847">
         <v>7</v>
@@ -17290,10 +16550,10 @@
     </row>
     <row r="848" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H848" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I848" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J848">
         <v>8</v>
@@ -17308,10 +16568,10 @@
     </row>
     <row r="849" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H849" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I849" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J849">
         <v>9</v>
@@ -17326,10 +16586,10 @@
     </row>
     <row r="850" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H850" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I850" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J850">
         <v>10</v>
@@ -17344,10 +16604,10 @@
     </row>
     <row r="851" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H851" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I851" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J851">
         <v>11</v>
@@ -17362,10 +16622,10 @@
     </row>
     <row r="852" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H852" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I852" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J852">
         <v>12</v>
@@ -17380,10 +16640,10 @@
     </row>
     <row r="853" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H853" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I853" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J853">
         <v>13</v>
@@ -17398,10 +16658,10 @@
     </row>
     <row r="854" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H854" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I854" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J854">
         <v>14</v>
@@ -17416,10 +16676,10 @@
     </row>
     <row r="855" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H855" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I855" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J855">
         <v>15</v>
@@ -17434,10 +16694,10 @@
     </row>
     <row r="856" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H856" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I856" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J856">
         <v>16</v>
@@ -17452,10 +16712,10 @@
     </row>
     <row r="857" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H857" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I857" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J857">
         <v>18</v>
@@ -17470,10 +16730,10 @@
     </row>
     <row r="858" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H858" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I858" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J858">
         <v>19</v>
@@ -17488,10 +16748,10 @@
     </row>
     <row r="859" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H859" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I859" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J859">
         <v>20</v>
@@ -17506,10 +16766,10 @@
     </row>
     <row r="860" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H860" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I860" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J860">
         <v>24</v>
@@ -17524,10 +16784,10 @@
     </row>
     <row r="861" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H861" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I861" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J861">
         <v>25</v>
@@ -17542,10 +16802,10 @@
     </row>
     <row r="862" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H862" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I862" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J862">
         <v>1</v>
@@ -17560,10 +16820,10 @@
     </row>
     <row r="863" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H863" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I863" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J863">
         <v>3</v>
@@ -17578,10 +16838,10 @@
     </row>
     <row r="864" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H864" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I864" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J864">
         <v>4</v>
@@ -17596,10 +16856,10 @@
     </row>
     <row r="865" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H865" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I865" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J865">
         <v>5</v>
@@ -17614,10 +16874,10 @@
     </row>
     <row r="866" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H866" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I866" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J866">
         <v>6</v>
@@ -17632,10 +16892,10 @@
     </row>
     <row r="867" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H867" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I867" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J867">
         <v>7</v>
@@ -17650,10 +16910,10 @@
     </row>
     <row r="868" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H868" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I868" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J868">
         <v>8</v>
@@ -17668,10 +16928,10 @@
     </row>
     <row r="869" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H869" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I869" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J869">
         <v>9</v>
@@ -17686,10 +16946,10 @@
     </row>
     <row r="870" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H870" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I870" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J870">
         <v>10</v>
@@ -17704,10 +16964,10 @@
     </row>
     <row r="871" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H871" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I871" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J871">
         <v>11</v>
@@ -17722,10 +16982,10 @@
     </row>
     <row r="872" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H872" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I872" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J872">
         <v>12</v>
@@ -17740,10 +17000,10 @@
     </row>
     <row r="873" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H873" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I873" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J873">
         <v>13</v>
@@ -17758,10 +17018,10 @@
     </row>
     <row r="874" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H874" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I874" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J874">
         <v>14</v>
@@ -17776,10 +17036,10 @@
     </row>
     <row r="875" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H875" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I875" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J875">
         <v>15</v>
@@ -17794,10 +17054,10 @@
     </row>
     <row r="876" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H876" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I876" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J876">
         <v>16</v>
@@ -17812,10 +17072,10 @@
     </row>
     <row r="877" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H877" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I877" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J877">
         <v>18</v>
@@ -17830,10 +17090,10 @@
     </row>
     <row r="878" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H878" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I878" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J878">
         <v>19</v>
@@ -17848,10 +17108,10 @@
     </row>
     <row r="879" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H879" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I879" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J879">
         <v>20</v>
@@ -17866,10 +17126,10 @@
     </row>
     <row r="880" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H880" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I880" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J880">
         <v>24</v>
@@ -17884,10 +17144,10 @@
     </row>
     <row r="881" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H881" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I881" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J881">
         <v>25</v>
@@ -17902,10 +17162,10 @@
     </row>
     <row r="882" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H882" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I882" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J882">
         <v>1</v>
@@ -17920,10 +17180,10 @@
     </row>
     <row r="883" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H883" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I883" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J883">
         <v>3</v>
@@ -17938,10 +17198,10 @@
     </row>
     <row r="884" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H884" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I884" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J884">
         <v>4</v>
@@ -17956,10 +17216,10 @@
     </row>
     <row r="885" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H885" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I885" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J885">
         <v>5</v>
@@ -17974,10 +17234,10 @@
     </row>
     <row r="886" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H886" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I886" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J886">
         <v>6</v>
@@ -17992,10 +17252,10 @@
     </row>
     <row r="887" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H887" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I887" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J887">
         <v>7</v>
@@ -18010,10 +17270,10 @@
     </row>
     <row r="888" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H888" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I888" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J888">
         <v>8</v>
@@ -18028,10 +17288,10 @@
     </row>
     <row r="889" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H889" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I889" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J889">
         <v>9</v>
@@ -18046,10 +17306,10 @@
     </row>
     <row r="890" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H890" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I890" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J890">
         <v>10</v>
@@ -18064,10 +17324,10 @@
     </row>
     <row r="891" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H891" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I891" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J891">
         <v>11</v>
@@ -18082,10 +17342,10 @@
     </row>
     <row r="892" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H892" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I892" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J892">
         <v>12</v>
@@ -18100,10 +17360,10 @@
     </row>
     <row r="893" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H893" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I893" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J893">
         <v>13</v>
@@ -18118,10 +17378,10 @@
     </row>
     <row r="894" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H894" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I894" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J894">
         <v>14</v>
@@ -18136,10 +17396,10 @@
     </row>
     <row r="895" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H895" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I895" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J895">
         <v>15</v>
@@ -18154,10 +17414,10 @@
     </row>
     <row r="896" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H896" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I896" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J896">
         <v>16</v>
@@ -18172,10 +17432,10 @@
     </row>
     <row r="897" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H897" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I897" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J897">
         <v>18</v>
@@ -18190,10 +17450,10 @@
     </row>
     <row r="898" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H898" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I898" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J898">
         <v>19</v>
@@ -18208,10 +17468,10 @@
     </row>
     <row r="899" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H899" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I899" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J899">
         <v>20</v>
@@ -18226,10 +17486,10 @@
     </row>
     <row r="900" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H900" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I900" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J900">
         <v>24</v>
@@ -18244,10 +17504,10 @@
     </row>
     <row r="901" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H901" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I901" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J901">
         <v>25</v>

--- a/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
+++ b/analyses/DNR_TransitionSelection_20170707/2017-07-08-Final-Transitions/2017-07-11-Predicted-SRM-Retention-Times.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2017-07-11-Retention-Times" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -520,11 +520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1880579584"/>
-        <c:axId val="1879887360"/>
+        <c:axId val="-1734478880"/>
+        <c:axId val="-1733778736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1880579584"/>
+        <c:axId val="-1734478880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -630,12 +630,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879887360"/>
+        <c:crossAx val="-1733778736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1879887360"/>
+        <c:axId val="-1733778736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880579584"/>
+        <c:crossAx val="-1734478880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1641,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -1753,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N44" si="0">AVERAGEIF($H$2:$H$901, M3, $L$2:$L$901)</f>
+        <f t="shared" ref="N3:N24" si="0">AVERAGEIF($H$2:$H$901, M3, $L$2:$L$901)</f>
         <v>31.9407931</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="N25">
-        <f>AVERAGEIF($H$2:$H$901, M25, $L$2:$L$901)</f>
+        <f t="shared" ref="N25:N42" si="2">AVERAGEIF($H$2:$H$901, M25, $L$2:$L$901)</f>
         <v>21.387030299999999</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
         <v>35</v>
       </c>
       <c r="N26">
-        <f>AVERAGEIF($H$2:$H$901, M26, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>31.609005700000012</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>36</v>
       </c>
       <c r="N27">
-        <f>AVERAGEIF($H$2:$H$901, M27, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>22.960193499999995</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>37</v>
       </c>
       <c r="N28">
-        <f>AVERAGEIF($H$2:$H$901, M28, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>30.806979300000002</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>38</v>
       </c>
       <c r="N29">
-        <f>AVERAGEIF($H$2:$H$901, M29, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>28.356082600000001</v>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
         <v>39</v>
       </c>
       <c r="N30">
-        <f>AVERAGEIF($H$2:$H$901, M30, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>34.781671000000003</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <f>AVERAGEIF($H$2:$H$901, M31, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>30.599715599999996</v>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
         <v>41</v>
       </c>
       <c r="N32">
-        <f>AVERAGEIF($H$2:$H$901, M32, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>30.737339799999994</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
         <v>42</v>
       </c>
       <c r="N33">
-        <f>AVERAGEIF($H$2:$H$901, M33, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>23.280948900000002</v>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
         <v>43</v>
       </c>
       <c r="N34">
-        <f>AVERAGEIF($H$2:$H$901, M34, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>32.683660399999994</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="N35">
-        <f>AVERAGEIF($H$2:$H$901, M35, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>27.503584799999999</v>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
         <v>45</v>
       </c>
       <c r="N36">
-        <f>AVERAGEIF($H$2:$H$901, M36, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>20.985051800000001</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
         <v>46</v>
       </c>
       <c r="N37">
-        <f>AVERAGEIF($H$2:$H$901, M37, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>24.098006399999999</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>47</v>
       </c>
       <c r="N38">
-        <f>AVERAGEIF($H$2:$H$901, M38, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>22.219394699999999</v>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>48</v>
       </c>
       <c r="N39">
-        <f>AVERAGEIF($H$2:$H$901, M39, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>27.567708300000003</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>49</v>
       </c>
       <c r="N40">
-        <f>AVERAGEIF($H$2:$H$901, M40, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>25.090748499999997</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>50</v>
       </c>
       <c r="N41">
-        <f>AVERAGEIF($H$2:$H$901, M41, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>32.046010800000012</v>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
         <v>51</v>
       </c>
       <c r="N42">
-        <f>AVERAGEIF($H$2:$H$901, M42, $L$2:$L$901)</f>
+        <f t="shared" si="2"/>
         <v>29.153834100000001</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         <v>65.25</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="2">(0.2758*K69)+11.409</f>
+        <f t="shared" ref="L69:L132" si="3">(0.2758*K69)+11.409</f>
         <v>29.404949999999999</v>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
         <v>64.97</v>
       </c>
       <c r="L70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.327725999999998</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
         <v>65.459999999999994</v>
       </c>
       <c r="L71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.462868</v>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
         <v>65.25</v>
       </c>
       <c r="L72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.404949999999999</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>65.150000000000006</v>
       </c>
       <c r="L73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.377369999999999</v>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
         <v>65.319999999999993</v>
       </c>
       <c r="L74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.424256</v>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>64.89</v>
       </c>
       <c r="L75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.305661999999998</v>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
         <v>64.8</v>
       </c>
       <c r="L76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.280839999999998</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>64.92</v>
       </c>
       <c r="L77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.313935999999998</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>64.78</v>
       </c>
       <c r="L78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.275323999999998</v>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
         <v>64.44</v>
       </c>
       <c r="L79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.181551999999996</v>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         <v>65.09</v>
       </c>
       <c r="L80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.360821999999999</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>64.67</v>
       </c>
       <c r="L81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.244985999999997</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
         <v>46.95</v>
       </c>
       <c r="L82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.357810000000001</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
         <v>46.07</v>
       </c>
       <c r="L83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.115106000000001</v>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
         <v>45.95</v>
       </c>
       <c r="L84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.08201</v>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
         <v>46.59</v>
       </c>
       <c r="L85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.258521999999999</v>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
         <v>46.56</v>
       </c>
       <c r="L86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.250247999999999</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
         <v>46.28</v>
       </c>
       <c r="L87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.173023999999998</v>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
         <v>45.95</v>
       </c>
       <c r="L88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.08201</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
         <v>46.4</v>
       </c>
       <c r="L89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.206119999999999</v>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
         <v>46.24</v>
       </c>
       <c r="L90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.161992000000001</v>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
         <v>46.79</v>
       </c>
       <c r="L91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.313682</v>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
         <v>46.57</v>
       </c>
       <c r="L92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.253005999999999</v>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
         <v>46.52</v>
       </c>
       <c r="L93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.239215999999999</v>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
         <v>46.5</v>
       </c>
       <c r="L94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.233699999999999</v>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
         <v>46.15</v>
       </c>
       <c r="L95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.137169999999998</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
         <v>46.15</v>
       </c>
       <c r="L96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.137169999999998</v>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
         <v>46.25</v>
       </c>
       <c r="L97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.164749999999998</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
         <v>46</v>
       </c>
       <c r="L98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.095800000000001</v>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         <v>45.69</v>
       </c>
       <c r="L99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.010301999999999</v>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
         <v>46.5</v>
       </c>
       <c r="L100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.233699999999999</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>46.03</v>
       </c>
       <c r="L101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.104074000000001</v>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
         <v>95.32</v>
       </c>
       <c r="L102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.698256000000001</v>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>95.13</v>
       </c>
       <c r="L103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.645854</v>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
         <v>95.05</v>
       </c>
       <c r="L104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.62379</v>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
         <v>95.26</v>
       </c>
       <c r="L105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.681708</v>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
         <v>95.13</v>
       </c>
       <c r="L106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.645854</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>94.91</v>
       </c>
       <c r="L107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.585177999999999</v>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>94.8</v>
       </c>
       <c r="L108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.554839999999999</v>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>95.36</v>
       </c>
       <c r="L109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.709288000000001</v>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
         <v>95.28</v>
       </c>
       <c r="L110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.687224000000001</v>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
         <v>95.41</v>
       </c>
       <c r="L111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.723078000000001</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
         <v>95.38</v>
       </c>
       <c r="L112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.714804000000001</v>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>95.41</v>
       </c>
       <c r="L113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.723078000000001</v>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
         <v>95.35</v>
       </c>
       <c r="L114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.706530000000001</v>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
         <v>95.22</v>
       </c>
       <c r="L115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.670676</v>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
         <v>95.11</v>
       </c>
       <c r="L116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.640338</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>95.27</v>
       </c>
       <c r="L117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.684466</v>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
         <v>95.17</v>
       </c>
       <c r="L118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.656886</v>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>94.99</v>
       </c>
       <c r="L119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.607241999999999</v>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
         <v>95.22</v>
       </c>
       <c r="L120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.670676</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <v>95.01</v>
       </c>
       <c r="L121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.612757999999999</v>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
         <v>56.59</v>
       </c>
       <c r="L122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.016522000000002</v>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
         <v>55.9</v>
       </c>
       <c r="L123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.826219999999999</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>55.77</v>
       </c>
       <c r="L124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.790365999999999</v>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
         <v>56.17</v>
       </c>
       <c r="L125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.900686</v>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
         <v>56.17</v>
       </c>
       <c r="L126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.900686</v>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
         <v>55.88</v>
       </c>
       <c r="L127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.820703999999999</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
         <v>55.6</v>
       </c>
       <c r="L128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.743479999999998</v>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
         <v>56.21</v>
       </c>
       <c r="L129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.911718</v>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
         <v>56.03</v>
       </c>
       <c r="L130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.862074</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>56.41</v>
       </c>
       <c r="L131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.966878000000001</v>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
         <v>56.2</v>
       </c>
       <c r="L132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.90896</v>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
         <v>56.26</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L196" si="3">(0.2758*K133)+11.409</f>
+        <f t="shared" ref="L133:L196" si="4">(0.2758*K133)+11.409</f>
         <v>26.925508000000001</v>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>56.31</v>
       </c>
       <c r="L134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.939298000000001</v>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         <v>56.02</v>
       </c>
       <c r="L135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.859316</v>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
         <v>56</v>
       </c>
       <c r="L136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.8538</v>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>56.03</v>
       </c>
       <c r="L137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.862074</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>55.82</v>
       </c>
       <c r="L138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.804155999999999</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
         <v>55.62</v>
       </c>
       <c r="L139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.748995999999998</v>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
         <v>56.28</v>
       </c>
       <c r="L140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.931024000000001</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>55.83</v>
       </c>
       <c r="L141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.806913999999999</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
         <v>77.13</v>
       </c>
       <c r="L142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.681453999999995</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
         <v>76.7</v>
       </c>
       <c r="L143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.562860000000001</v>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
         <v>76.52</v>
       </c>
       <c r="L144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.513216</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>77.040000000000006</v>
       </c>
       <c r="L145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.656632000000002</v>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
         <v>76.86</v>
       </c>
       <c r="L146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.606988000000001</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>76.84</v>
       </c>
       <c r="L147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.601472000000001</v>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
         <v>76.290000000000006</v>
       </c>
       <c r="L148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.449781999999999</v>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>77.03</v>
       </c>
       <c r="L149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.653874000000002</v>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
         <v>76.77</v>
       </c>
       <c r="L150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.582166000000001</v>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
         <v>77.19</v>
       </c>
       <c r="L151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.698002000000002</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>76.95</v>
       </c>
       <c r="L152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.631810000000002</v>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
         <v>77.05</v>
       </c>
       <c r="L153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.659390000000002</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>76.97</v>
       </c>
       <c r="L154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.637326000000002</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>76.69</v>
       </c>
       <c r="L155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.560102000000001</v>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
         <v>76.52</v>
       </c>
       <c r="L156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.513216</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>76.72</v>
       </c>
       <c r="L157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.568376000000001</v>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
         <v>76.56</v>
       </c>
       <c r="L158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.524248</v>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>76.3</v>
       </c>
       <c r="L159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.452539999999999</v>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
         <v>76.91</v>
       </c>
       <c r="L160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.620778000000001</v>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
         <v>76.56</v>
       </c>
       <c r="L161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.524248</v>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
         <v>61.62</v>
       </c>
       <c r="L162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.403796</v>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
         <v>60.94</v>
       </c>
       <c r="L163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.216251999999997</v>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
         <v>60.8</v>
       </c>
       <c r="L164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.177639999999997</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
         <v>61.29</v>
       </c>
       <c r="L165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.312781999999999</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>61.3</v>
       </c>
       <c r="L166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.315539999999999</v>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
         <v>60.94</v>
       </c>
       <c r="L167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.216251999999997</v>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
         <v>60.64</v>
       </c>
       <c r="L168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.133512000000003</v>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
         <v>61.25</v>
       </c>
       <c r="L169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.301749999999998</v>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
         <v>61.07</v>
       </c>
       <c r="L170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.252105999999998</v>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
         <v>61.54</v>
       </c>
       <c r="L171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.381732</v>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
         <v>61.33</v>
       </c>
       <c r="L172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.323813999999999</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
         <v>61.3</v>
       </c>
       <c r="L173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.315539999999999</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
         <v>61.34</v>
       </c>
       <c r="L174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.326571999999999</v>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
         <v>61.05</v>
       </c>
       <c r="L175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.246589999999998</v>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
         <v>60.88</v>
       </c>
       <c r="L176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.199704000000004</v>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
         <v>61.01</v>
       </c>
       <c r="L177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.235557999999997</v>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
         <v>60.72</v>
       </c>
       <c r="L178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.155575999999996</v>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
         <v>60.48</v>
       </c>
       <c r="L179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.089384000000003</v>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
         <v>61.09</v>
       </c>
       <c r="L180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.257621999999998</v>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
         <v>60.69</v>
       </c>
       <c r="L181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.147301999999996</v>
       </c>
     </row>
@@ -5294,7 +5294,7 @@
         <v>44.31</v>
       </c>
       <c r="L182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.629698000000001</v>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
         <v>43.49</v>
       </c>
       <c r="L183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.403542000000002</v>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
         <v>43.36</v>
       </c>
       <c r="L184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.367688000000001</v>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
         <v>43.86</v>
       </c>
       <c r="L185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.505587999999999</v>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
         <v>43.83</v>
       </c>
       <c r="L186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.497313999999999</v>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
         <v>43.62</v>
       </c>
       <c r="L187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.439396000000002</v>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
         <v>43.31</v>
       </c>
       <c r="L188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.353898000000001</v>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
         <v>43.82</v>
       </c>
       <c r="L189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.494556000000003</v>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
         <v>43.59</v>
       </c>
       <c r="L190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.431122000000002</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
         <v>44.07</v>
       </c>
       <c r="L191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.563506</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
         <v>43.92</v>
       </c>
       <c r="L192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.522136000000003</v>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
         <v>43.87</v>
       </c>
       <c r="L193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.508346</v>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>43.84</v>
       </c>
       <c r="L194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.500072000000003</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
         <v>43.59</v>
       </c>
       <c r="L195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.431122000000002</v>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
         <v>43.51</v>
       </c>
       <c r="L196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.409058000000002</v>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>43.58</v>
       </c>
       <c r="L197">
-        <f t="shared" ref="L197:L260" si="4">(0.2758*K197)+11.409</f>
+        <f t="shared" ref="L197:L260" si="5">(0.2758*K197)+11.409</f>
         <v>23.428364000000002</v>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
         <v>43.42</v>
       </c>
       <c r="L198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.384236000000001</v>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>43.14</v>
       </c>
       <c r="L199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.307012</v>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
         <v>44.01</v>
       </c>
       <c r="L200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.546958</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>43.53</v>
       </c>
       <c r="L201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.414574000000002</v>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="L202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.45524</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
         <v>31.77</v>
       </c>
       <c r="L203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.171165999999999</v>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
         <v>31.71</v>
       </c>
       <c r="L204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.154617999999999</v>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>32.090000000000003</v>
       </c>
       <c r="L205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.259422000000001</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
         <v>32.049999999999997</v>
       </c>
       <c r="L206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.248390000000001</v>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
         <v>32.07</v>
       </c>
       <c r="L207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.253906000000001</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
         <v>31.65</v>
       </c>
       <c r="L208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.138069999999999</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>32.14</v>
       </c>
       <c r="L209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.273212000000001</v>
       </c>
     </row>
@@ -5798,7 +5798,7 @@
         <v>31.93</v>
       </c>
       <c r="L210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.215294</v>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
         <v>32.35</v>
       </c>
       <c r="L211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.331130000000002</v>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
         <v>32.130000000000003</v>
       </c>
       <c r="L212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.270454000000001</v>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
         <v>32.14</v>
       </c>
       <c r="L213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.273212000000001</v>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
         <v>32.18</v>
       </c>
       <c r="L214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.284244000000001</v>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
         <v>31.9</v>
       </c>
       <c r="L215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.20702</v>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>31.82</v>
       </c>
       <c r="L216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.184956</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
         <v>31.94</v>
       </c>
       <c r="L217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.218052</v>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
         <v>31.75</v>
       </c>
       <c r="L218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.165649999999999</v>
       </c>
     </row>
@@ -5960,7 +5960,7 @@
         <v>31.58</v>
       </c>
       <c r="L219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.118763999999999</v>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
         <v>32.270000000000003</v>
       </c>
       <c r="L220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.309066000000001</v>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
         <v>31.75</v>
       </c>
       <c r="L221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.165649999999999</v>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
         <v>41.56</v>
       </c>
       <c r="L222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.871248000000001</v>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
         <v>40.72</v>
       </c>
       <c r="L223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.639575999999998</v>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
         <v>40.590000000000003</v>
       </c>
       <c r="L224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.603722000000001</v>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
         <v>41.04</v>
       </c>
       <c r="L225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.727831999999999</v>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
         <v>40.99</v>
       </c>
       <c r="L226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.714041999999999</v>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
         <v>40.86</v>
       </c>
       <c r="L227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.678187999999999</v>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
         <v>40.56</v>
       </c>
       <c r="L228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.595448000000001</v>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
         <v>40.99</v>
       </c>
       <c r="L229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.714041999999999</v>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
         <v>40.85</v>
       </c>
       <c r="L230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.675429999999999</v>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
         <v>41.23</v>
       </c>
       <c r="L231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.780234</v>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         <v>41.08</v>
       </c>
       <c r="L232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.738864</v>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
         <v>41.04</v>
       </c>
       <c r="L233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.727831999999999</v>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>41</v>
       </c>
       <c r="L234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.716799999999999</v>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
         <v>40.76</v>
       </c>
       <c r="L235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.650607999999998</v>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
         <v>40.630000000000003</v>
       </c>
       <c r="L236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.614754000000001</v>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
         <v>40.74</v>
       </c>
       <c r="L237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.645091999999998</v>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
         <v>40.590000000000003</v>
       </c>
       <c r="L238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.603722000000001</v>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
         <v>40.409999999999997</v>
       </c>
       <c r="L239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.554077999999997</v>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
         <v>41.19</v>
       </c>
       <c r="L240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.769202</v>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
         <v>40.729999999999997</v>
       </c>
       <c r="L241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.642333999999998</v>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
         <v>25.1</v>
       </c>
       <c r="L242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.331580000000002</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>24.05</v>
       </c>
       <c r="L243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.041990000000002</v>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
         <v>23.99</v>
       </c>
       <c r="L244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.025441999999998</v>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
         <v>24.28</v>
       </c>
       <c r="L245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.105423999999999</v>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
         <v>24.26</v>
       </c>
       <c r="L246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.099907999999999</v>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
         <v>24.34</v>
       </c>
       <c r="L247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.121972</v>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
         <v>23.89</v>
       </c>
       <c r="L248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.997862000000001</v>
       </c>
     </row>
@@ -6500,7 +6500,7 @@
         <v>24.3</v>
       </c>
       <c r="L249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.110939999999999</v>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
         <v>24.15</v>
       </c>
       <c r="L250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.069569999999999</v>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
         <v>24.58</v>
       </c>
       <c r="L251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.188164</v>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
         <v>24.35</v>
       </c>
       <c r="L252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.12473</v>
       </c>
     </row>
@@ -6572,7 +6572,7 @@
         <v>24.37</v>
       </c>
       <c r="L253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.130246</v>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
         <v>24.39</v>
       </c>
       <c r="L254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.135762</v>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
         <v>24.18</v>
       </c>
       <c r="L255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.077843999999999</v>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
         <v>24.04</v>
       </c>
       <c r="L256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.039231999999998</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>24.08</v>
       </c>
       <c r="L257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.050263999999999</v>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
         <v>23.98</v>
       </c>
       <c r="L258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.022684000000002</v>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         <v>23.86</v>
       </c>
       <c r="L259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.989588000000001</v>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>24.67</v>
       </c>
       <c r="L260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.212986000000001</v>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
         <v>24.11</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L324" si="5">(0.2758*K261)+11.409</f>
+        <f t="shared" ref="L261:L324" si="6">(0.2758*K261)+11.409</f>
         <v>18.058537999999999</v>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>19.32</v>
       </c>
       <c r="L262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.737456000000002</v>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="L263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.483719999999998</v>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
         <v>18.39</v>
       </c>
       <c r="L264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.480962000000002</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
         <v>18.68</v>
       </c>
       <c r="L265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.560943999999999</v>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
         <v>18.53</v>
       </c>
       <c r="L266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.519573999999999</v>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
         <v>18.53</v>
       </c>
       <c r="L267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.519573999999999</v>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
         <v>18.32</v>
       </c>
       <c r="L268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.461656000000001</v>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
         <v>18.579999999999998</v>
       </c>
       <c r="L269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.533363999999999</v>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="L270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.527847999999999</v>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
         <v>18.91</v>
       </c>
       <c r="L271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.624378</v>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
         <v>18.68</v>
       </c>
       <c r="L272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.560943999999999</v>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
         <v>18.63</v>
       </c>
       <c r="L273">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.547153999999999</v>
       </c>
     </row>
@@ -6950,7 +6950,7 @@
         <v>18.72</v>
       </c>
       <c r="L274">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.571975999999999</v>
       </c>
     </row>
@@ -6968,7 +6968,7 @@
         <v>18.62</v>
       </c>
       <c r="L275">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.544395999999999</v>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
         <v>18.43</v>
       </c>
       <c r="L276">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.491993999999998</v>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
         <v>18.86</v>
       </c>
       <c r="L277">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.610588</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
         <v>18.41</v>
       </c>
       <c r="L278">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.486478000000002</v>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
         <v>18.420000000000002</v>
       </c>
       <c r="L279">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.489236000000002</v>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
         <v>18.850000000000001</v>
       </c>
       <c r="L280">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.60783</v>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
         <v>18.59</v>
       </c>
       <c r="L281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.536121999999999</v>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
         <v>50.46</v>
       </c>
       <c r="L282">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.325868</v>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
         <v>49.73</v>
       </c>
       <c r="L283">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.124533999999997</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
         <v>49.54</v>
       </c>
       <c r="L284">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.072132</v>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
         <v>50.1</v>
       </c>
       <c r="L285">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.226579999999998</v>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
         <v>50.09</v>
       </c>
       <c r="L286">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.223822000000002</v>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
         <v>49.79</v>
       </c>
       <c r="L287">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.141082000000001</v>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
         <v>49.6</v>
       </c>
       <c r="L288">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.08868</v>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
         <v>49.99</v>
       </c>
       <c r="L289">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.196242000000002</v>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
         <v>49.75</v>
       </c>
       <c r="L290">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.130050000000001</v>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
         <v>50.32</v>
       </c>
       <c r="L291">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.287255999999999</v>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
         <v>50.18</v>
       </c>
       <c r="L292">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.248643999999999</v>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
         <v>50.19</v>
       </c>
       <c r="L293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.251401999999999</v>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
         <v>50.11</v>
       </c>
       <c r="L294">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.229337999999998</v>
       </c>
     </row>
@@ -7328,7 +7328,7 @@
         <v>49.8</v>
       </c>
       <c r="L295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.143839999999997</v>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
         <v>49.72</v>
       </c>
       <c r="L296">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.121776000000001</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>49.84</v>
       </c>
       <c r="L297">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.154872000000001</v>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
         <v>49.58</v>
       </c>
       <c r="L298">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.083164</v>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
         <v>49.3</v>
       </c>
       <c r="L299">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.005939999999999</v>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
         <v>50.23</v>
       </c>
       <c r="L300">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.262433999999999</v>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
         <v>49.74</v>
       </c>
       <c r="L301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.127292000000001</v>
       </c>
     </row>
@@ -7454,7 +7454,7 @@
         <v>50.11</v>
       </c>
       <c r="L302">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.229337999999998</v>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
         <v>49.38</v>
       </c>
       <c r="L303">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.028004000000003</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
         <v>49.26</v>
       </c>
       <c r="L304">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.994907999999999</v>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
         <v>49.74</v>
       </c>
       <c r="L305">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.127292000000001</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
         <v>49.73</v>
       </c>
       <c r="L306">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.124533999999997</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
         <v>49.44</v>
       </c>
       <c r="L307">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.044551999999999</v>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>49.32</v>
       </c>
       <c r="L308">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.011456000000003</v>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
         <v>49.64</v>
       </c>
       <c r="L309">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.099712</v>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
         <v>49.47</v>
       </c>
       <c r="L310">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.052826</v>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
         <v>49.9</v>
       </c>
       <c r="L311">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.171419999999998</v>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
         <v>49.82</v>
       </c>
       <c r="L312">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.149356000000001</v>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>49.84</v>
       </c>
       <c r="L313">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.154872000000001</v>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
         <v>49.82</v>
       </c>
       <c r="L314">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.149356000000001</v>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
         <v>49.45</v>
       </c>
       <c r="L315">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.047310000000003</v>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
         <v>49.37</v>
       </c>
       <c r="L316">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.025245999999999</v>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
         <v>49.49</v>
       </c>
       <c r="L317">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.058342000000003</v>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
         <v>49.3</v>
       </c>
       <c r="L318">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.005939999999999</v>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
         <v>49.1</v>
       </c>
       <c r="L319">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.950780000000002</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
         <v>49.92</v>
       </c>
       <c r="L320">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.176936000000001</v>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
         <v>49.43</v>
       </c>
       <c r="L321">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.041793999999999</v>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="L322">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.834240000000001</v>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
         <v>36.94</v>
       </c>
       <c r="L323">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.597051999999998</v>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="L324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.558439999999997</v>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
         <v>37.26</v>
       </c>
       <c r="L325">
-        <f t="shared" ref="L325:L388" si="6">(0.2758*K325)+11.409</f>
+        <f t="shared" ref="L325:L388" si="7">(0.2758*K325)+11.409</f>
         <v>21.685307999999999</v>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
         <v>37.21</v>
       </c>
       <c r="L326">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.671517999999999</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
         <v>37.15</v>
       </c>
       <c r="L327">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.654969999999999</v>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
         <v>36.78</v>
       </c>
       <c r="L328">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.552924000000001</v>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
         <v>37.21</v>
       </c>
       <c r="L329">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.671517999999999</v>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
         <v>37</v>
       </c>
       <c r="L330">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.613599999999998</v>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
         <v>37.450000000000003</v>
       </c>
       <c r="L331">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.73771</v>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
         <v>37.22</v>
       </c>
       <c r="L332">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.674275999999999</v>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="L333">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.668759999999999</v>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
         <v>37.28</v>
       </c>
       <c r="L334">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.690823999999999</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
         <v>36.92</v>
       </c>
       <c r="L335">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.591536000000001</v>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
         <v>36.869999999999997</v>
       </c>
       <c r="L336">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.577745999999998</v>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
         <v>36.96</v>
       </c>
       <c r="L337">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.602567999999998</v>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
         <v>36.82</v>
       </c>
       <c r="L338">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.563956000000001</v>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
         <v>36.5</v>
       </c>
       <c r="L339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.4757</v>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
         <v>37.4</v>
       </c>
       <c r="L340">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.72392</v>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
         <v>36.880000000000003</v>
       </c>
       <c r="L341">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.580504000000001</v>
       </c>
     </row>
@@ -8174,7 +8174,7 @@
         <v>46.11</v>
       </c>
       <c r="L342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.126137999999997</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
         <v>45.29</v>
       </c>
       <c r="L343">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.899982000000001</v>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
         <v>45.18</v>
       </c>
       <c r="L344">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.869644000000001</v>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>45.59</v>
       </c>
       <c r="L345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.982722000000003</v>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
         <v>45.56</v>
       </c>
       <c r="L346">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.974448000000002</v>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
         <v>45.35</v>
       </c>
       <c r="L347">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.916530000000002</v>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
         <v>45.11</v>
       </c>
       <c r="L348">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.850338000000001</v>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
         <v>45.63</v>
       </c>
       <c r="L349">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.993754000000003</v>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
         <v>45.54</v>
       </c>
       <c r="L350">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.968932000000002</v>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
         <v>45.88</v>
       </c>
       <c r="L351">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.062704</v>
       </c>
     </row>
@@ -8354,7 +8354,7 @@
         <v>45.73</v>
       </c>
       <c r="L352">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.021334</v>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>45.75</v>
       </c>
       <c r="L353">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.02685</v>
       </c>
     </row>
@@ -8390,7 +8390,7 @@
         <v>45.72</v>
       </c>
       <c r="L354">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.018575999999999</v>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
         <v>45.46</v>
       </c>
       <c r="L355">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.946868000000002</v>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
         <v>45.53</v>
       </c>
       <c r="L356">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.966174000000002</v>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
         <v>45.48</v>
       </c>
       <c r="L357">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.952383999999999</v>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
         <v>45.31</v>
       </c>
       <c r="L358">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.905498000000001</v>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
         <v>45.14</v>
       </c>
       <c r="L359">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.858612000000001</v>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
         <v>45.99</v>
       </c>
       <c r="L360">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.093042000000001</v>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
         <v>45.46</v>
       </c>
       <c r="L361">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.946868000000002</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>50.11</v>
       </c>
       <c r="L362">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.229337999999998</v>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
         <v>49.38</v>
       </c>
       <c r="L363">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.028004000000003</v>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
         <v>49.26</v>
       </c>
       <c r="L364">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.994907999999999</v>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
         <v>49.74</v>
       </c>
       <c r="L365">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.127292000000001</v>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
         <v>49.73</v>
       </c>
       <c r="L366">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.124533999999997</v>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
         <v>49.44</v>
       </c>
       <c r="L367">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.044551999999999</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
         <v>49.32</v>
       </c>
       <c r="L368">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.011456000000003</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>49.64</v>
       </c>
       <c r="L369">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.099712</v>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
         <v>49.47</v>
       </c>
       <c r="L370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.052826</v>
       </c>
     </row>
@@ -8696,7 +8696,7 @@
         <v>49.9</v>
       </c>
       <c r="L371">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.171419999999998</v>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
         <v>49.82</v>
       </c>
       <c r="L372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.149356000000001</v>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
         <v>49.84</v>
       </c>
       <c r="L373">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.154872000000001</v>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
         <v>49.82</v>
       </c>
       <c r="L374">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.149356000000001</v>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
         <v>49.45</v>
       </c>
       <c r="L375">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.047310000000003</v>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
         <v>49.37</v>
       </c>
       <c r="L376">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.025245999999999</v>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
         <v>49.49</v>
       </c>
       <c r="L377">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.058342000000003</v>
       </c>
     </row>
@@ -8822,7 +8822,7 @@
         <v>49.3</v>
       </c>
       <c r="L378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.005939999999999</v>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
         <v>49.1</v>
       </c>
       <c r="L379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.950780000000002</v>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
         <v>49.92</v>
       </c>
       <c r="L380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.176936000000001</v>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
         <v>49.43</v>
       </c>
       <c r="L381">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.041793999999999</v>
       </c>
     </row>
@@ -8894,7 +8894,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="L382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.834240000000001</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
         <v>36.94</v>
       </c>
       <c r="L383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.597051999999998</v>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="L384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.558439999999997</v>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
         <v>37.26</v>
       </c>
       <c r="L385">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.685307999999999</v>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
         <v>37.21</v>
       </c>
       <c r="L386">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.671517999999999</v>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
         <v>37.15</v>
       </c>
       <c r="L387">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.654969999999999</v>
       </c>
     </row>
@@ -9002,7 +9002,7 @@
         <v>36.78</v>
       </c>
       <c r="L388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.552924000000001</v>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
         <v>37.21</v>
       </c>
       <c r="L389">
-        <f t="shared" ref="L389:L452" si="7">(0.2758*K389)+11.409</f>
+        <f t="shared" ref="L389:L452" si="8">(0.2758*K389)+11.409</f>
         <v>21.671517999999999</v>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
         <v>37</v>
       </c>
       <c r="L390">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.613599999999998</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
         <v>37.450000000000003</v>
       </c>
       <c r="L391">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.73771</v>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
         <v>37.22</v>
       </c>
       <c r="L392">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.674275999999999</v>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="L393">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.668759999999999</v>
       </c>
     </row>
@@ -9110,7 +9110,7 @@
         <v>37.28</v>
       </c>
       <c r="L394">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.690823999999999</v>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
         <v>36.92</v>
       </c>
       <c r="L395">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.591536000000001</v>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
         <v>36.869999999999997</v>
       </c>
       <c r="L396">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.577745999999998</v>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
         <v>36.96</v>
       </c>
       <c r="L397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.602567999999998</v>
       </c>
     </row>
@@ -9182,7 +9182,7 @@
         <v>36.82</v>
       </c>
       <c r="L398">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.563956000000001</v>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
         <v>36.5</v>
       </c>
       <c r="L399">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.4757</v>
       </c>
     </row>
@@ -9218,7 +9218,7 @@
         <v>37.4</v>
       </c>
       <c r="L400">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.72392</v>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>36.880000000000003</v>
       </c>
       <c r="L401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.580504000000001</v>
       </c>
     </row>
@@ -9254,7 +9254,7 @@
         <v>58.35</v>
       </c>
       <c r="L402">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.501930000000002</v>
       </c>
     </row>
@@ -9272,7 +9272,7 @@
         <v>57.74</v>
       </c>
       <c r="L403">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.333691999999999</v>
       </c>
     </row>
@@ -9290,7 +9290,7 @@
         <v>57.61</v>
       </c>
       <c r="L404">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.297837999999999</v>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
         <v>58.16</v>
       </c>
       <c r="L405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.449528000000001</v>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
         <v>58.02</v>
       </c>
       <c r="L406">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.410916</v>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
         <v>57.72</v>
       </c>
       <c r="L407">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.328175999999999</v>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
         <v>57.43</v>
       </c>
       <c r="L408">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.248193999999998</v>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>57.97</v>
       </c>
       <c r="L409">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.397126</v>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
         <v>57.87</v>
       </c>
       <c r="L410">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.369546</v>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
         <v>58.32</v>
       </c>
       <c r="L411">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.493656000000001</v>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
         <v>58.12</v>
       </c>
       <c r="L412">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.438496000000001</v>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
         <v>58.1</v>
       </c>
       <c r="L413">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.432980000000001</v>
       </c>
     </row>
@@ -9470,7 +9470,7 @@
         <v>58.22</v>
       </c>
       <c r="L414">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.466076000000001</v>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
         <v>57.85</v>
       </c>
       <c r="L415">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.36403</v>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
         <v>57.76</v>
       </c>
       <c r="L416">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.339207999999999</v>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
         <v>57.87</v>
       </c>
       <c r="L417">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.369546</v>
       </c>
     </row>
@@ -9542,7 +9542,7 @@
         <v>57.59</v>
       </c>
       <c r="L418">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.292321999999999</v>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>57.38</v>
       </c>
       <c r="L419">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.234404000000001</v>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
         <v>58</v>
       </c>
       <c r="L420">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.4054</v>
       </c>
     </row>
@@ -9596,7 +9596,7 @@
         <v>57.54</v>
       </c>
       <c r="L421">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.278531999999998</v>
       </c>
     </row>
@@ -9614,7 +9614,7 @@
         <v>72.3</v>
       </c>
       <c r="L422">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.349339999999998</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
         <v>71.819999999999993</v>
       </c>
       <c r="L423">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.216955999999996</v>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
         <v>71.7</v>
       </c>
       <c r="L424">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.183860000000003</v>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
         <v>72.13</v>
       </c>
       <c r="L425">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.302453999999997</v>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
         <v>72.010000000000005</v>
       </c>
       <c r="L426">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.269358000000004</v>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>71.88</v>
       </c>
       <c r="L427">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.233503999999996</v>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
         <v>71.39</v>
       </c>
       <c r="L428">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.098362000000002</v>
       </c>
     </row>
@@ -9740,7 +9740,7 @@
         <v>72.11</v>
       </c>
       <c r="L429">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.296937999999997</v>
       </c>
     </row>
@@ -9758,7 +9758,7 @@
         <v>71.95</v>
       </c>
       <c r="L430">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.252810000000004</v>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
         <v>72.260000000000005</v>
       </c>
       <c r="L431">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.338307999999998</v>
       </c>
     </row>
@@ -9794,7 +9794,7 @@
         <v>72.05</v>
       </c>
       <c r="L432">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.280389999999997</v>
       </c>
     </row>
@@ -9812,7 +9812,7 @@
         <v>72.069999999999993</v>
       </c>
       <c r="L433">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.285905999999997</v>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
         <v>72.069999999999993</v>
       </c>
       <c r="L434">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.285905999999997</v>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
         <v>71.87</v>
       </c>
       <c r="L435">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.230746000000003</v>
       </c>
     </row>
@@ -9866,7 +9866,7 @@
         <v>71.63</v>
       </c>
       <c r="L436">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.164553999999995</v>
       </c>
     </row>
@@ -9884,7 +9884,7 @@
         <v>71.83</v>
       </c>
       <c r="L437">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.219713999999996</v>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
         <v>71.64</v>
       </c>
       <c r="L438">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.167312000000003</v>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
         <v>71.41</v>
       </c>
       <c r="L439">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.103878000000002</v>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
         <v>71.94</v>
       </c>
       <c r="L440">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.250051999999997</v>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
         <v>71.540000000000006</v>
       </c>
       <c r="L441">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.139732000000002</v>
       </c>
     </row>
@@ -9974,7 +9974,7 @@
         <v>64</v>
       </c>
       <c r="L442">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.060200000000002</v>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
         <v>63.32</v>
       </c>
       <c r="L443">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.872655999999999</v>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
         <v>63.32</v>
       </c>
       <c r="L444">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.872655999999999</v>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
         <v>63.81</v>
       </c>
       <c r="L445">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.007798000000001</v>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
         <v>63.76</v>
       </c>
       <c r="L446">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.994008000000001</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
         <v>63.4</v>
       </c>
       <c r="L447">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.89472</v>
       </c>
     </row>
@@ -10082,7 +10082,7 @@
         <v>63.02</v>
       </c>
       <c r="L448">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.789915999999998</v>
       </c>
     </row>
@@ -10100,7 +10100,7 @@
         <v>63.63</v>
       </c>
       <c r="L449">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.958154</v>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
         <v>63.58</v>
       </c>
       <c r="L450">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.944364</v>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
         <v>64.069999999999993</v>
       </c>
       <c r="L451">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.079505999999995</v>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
         <v>63.79</v>
       </c>
       <c r="L452">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.002282000000001</v>
       </c>
     </row>
@@ -10172,7 +10172,7 @@
         <v>63.76</v>
       </c>
       <c r="L453">
-        <f t="shared" ref="L453:L516" si="8">(0.2758*K453)+11.409</f>
+        <f t="shared" ref="L453:L501" si="9">(0.2758*K453)+11.409</f>
         <v>28.994008000000001</v>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
         <v>63.93</v>
       </c>
       <c r="L454">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.040894000000002</v>
       </c>
     </row>
@@ -10208,7 +10208,7 @@
         <v>63.57</v>
       </c>
       <c r="L455">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.941606</v>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
         <v>63.4</v>
       </c>
       <c r="L456">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.89472</v>
       </c>
     </row>
@@ -10244,7 +10244,7 @@
         <v>63.53</v>
       </c>
       <c r="L457">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.930574</v>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
         <v>63.32</v>
       </c>
       <c r="L458">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.872655999999999</v>
       </c>
     </row>
@@ -10280,7 +10280,7 @@
         <v>63.06</v>
       </c>
       <c r="L459">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.800947999999998</v>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
         <v>63.73</v>
       </c>
       <c r="L460">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.985734000000001</v>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
         <v>63.26</v>
       </c>
       <c r="L461">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.856107999999999</v>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
         <v>60.22</v>
       </c>
       <c r="L462">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.017676000000002</v>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
         <v>59.53</v>
       </c>
       <c r="L463">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.827373999999999</v>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
         <v>59.47</v>
       </c>
       <c r="L464">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.810825999999999</v>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
         <v>59.88</v>
       </c>
       <c r="L465">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.923904</v>
       </c>
     </row>
@@ -10406,7 +10406,7 @@
         <v>59.89</v>
       </c>
       <c r="L466">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.926662</v>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
         <v>59.6</v>
       </c>
       <c r="L467">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.846679999999999</v>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
         <v>59.23</v>
       </c>
       <c r="L468">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.744633999999998</v>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
         <v>59.92</v>
       </c>
       <c r="L469">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.934936</v>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
         <v>59.66</v>
       </c>
       <c r="L470">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.863227999999999</v>
       </c>
     </row>
@@ -10496,7 +10496,7 @@
         <v>60.05</v>
       </c>
       <c r="L471">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.970790000000001</v>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
         <v>59.92</v>
       </c>
       <c r="L472">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.934936</v>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
         <v>59.82</v>
       </c>
       <c r="L473">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.907356</v>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
         <v>59.93</v>
       </c>
       <c r="L474">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.937694</v>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
         <v>59.57</v>
       </c>
       <c r="L475">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.838405999999999</v>
       </c>
     </row>
@@ -10586,7 +10586,7 @@
         <v>59.48</v>
       </c>
       <c r="L476">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.813583999999999</v>
       </c>
     </row>
@@ -10604,7 +10604,7 @@
         <v>59.6</v>
       </c>
       <c r="L477">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.846679999999999</v>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
         <v>59.38</v>
       </c>
       <c r="L478">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.786003999999998</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         <v>59.08</v>
       </c>
       <c r="L479">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.703263999999997</v>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
         <v>59.79</v>
       </c>
       <c r="L480">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.899082</v>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
         <v>59.39</v>
       </c>
       <c r="L481">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.788761999999998</v>
       </c>
     </row>
@@ -10694,7 +10694,7 @@
         <v>40.520000000000003</v>
       </c>
       <c r="L482">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.584416000000001</v>
       </c>
     </row>
@@ -10712,7 +10712,7 @@
         <v>39.61</v>
       </c>
       <c r="L483">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.333438000000001</v>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
         <v>39.47</v>
       </c>
       <c r="L484">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.294826</v>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
         <v>40.07</v>
       </c>
       <c r="L485">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.460306000000003</v>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
         <v>39.94</v>
       </c>
       <c r="L486">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.424452000000002</v>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
         <v>39.81</v>
       </c>
       <c r="L487">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.388598000000002</v>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
         <v>39.520000000000003</v>
       </c>
       <c r="L488">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.308616000000001</v>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
         <v>39.869999999999997</v>
       </c>
       <c r="L489">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.405146000000002</v>
       </c>
     </row>
@@ -10838,7 +10838,7 @@
         <v>39.81</v>
       </c>
       <c r="L490">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.388598000000002</v>
       </c>
     </row>
@@ -10856,7 +10856,7 @@
         <v>40.19</v>
       </c>
       <c r="L491">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.493402</v>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
         <v>40.04</v>
       </c>
       <c r="L492">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.452032000000003</v>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
         <v>40</v>
       </c>
       <c r="L493">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.441000000000003</v>
       </c>
     </row>
@@ -10910,7 +10910,7 @@
         <v>40.020000000000003</v>
       </c>
       <c r="L494">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.446516000000003</v>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
         <v>39.72</v>
       </c>
       <c r="L495">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.363776000000001</v>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
         <v>39.590000000000003</v>
       </c>
       <c r="L496">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.327922000000001</v>
       </c>
     </row>
@@ -10964,7 +10964,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="L497">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.358260000000001</v>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
         <v>39.549999999999997</v>
       </c>
       <c r="L498">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.316890000000001</v>
       </c>
     </row>
@@ -11000,7 +11000,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="L499">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.24794</v>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
         <v>40.159999999999997</v>
       </c>
       <c r="L500">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.485128</v>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
         <v>39.630000000000003</v>
       </c>
       <c r="L501">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.338954000000001</v>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
         <v>36.9</v>
       </c>
       <c r="L522">
-        <f t="shared" ref="L517:L580" si="9">(0.2758*K522)+11.409</f>
+        <f t="shared" ref="L522:L580" si="10">(0.2758*K522)+11.409</f>
         <v>21.586019999999998</v>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
         <v>35.96</v>
       </c>
       <c r="L523">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.326768000000001</v>
       </c>
     </row>
@@ -11090,7 +11090,7 @@
         <v>35.9</v>
       </c>
       <c r="L524">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.310220000000001</v>
       </c>
     </row>
@@ -11108,7 +11108,7 @@
         <v>36.29</v>
       </c>
       <c r="L525">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.417782000000003</v>
       </c>
     </row>
@@ -11126,7 +11126,7 @@
         <v>36.229999999999997</v>
       </c>
       <c r="L526">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.401233999999999</v>
       </c>
     </row>
@@ -11144,7 +11144,7 @@
         <v>36.25</v>
       </c>
       <c r="L527">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.406750000000002</v>
       </c>
     </row>
@@ -11162,7 +11162,7 @@
         <v>35.81</v>
       </c>
       <c r="L528">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.285398000000001</v>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
         <v>36.31</v>
       </c>
       <c r="L529">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.423298000000003</v>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
         <v>36.1</v>
       </c>
       <c r="L530">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.365380000000002</v>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
         <v>36.54</v>
       </c>
       <c r="L531">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.486732</v>
       </c>
     </row>
@@ -11234,7 +11234,7 @@
         <v>36.4</v>
       </c>
       <c r="L532">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.448119999999999</v>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
         <v>36.380000000000003</v>
       </c>
       <c r="L533">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.442604000000003</v>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
         <v>36.380000000000003</v>
       </c>
       <c r="L534">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.442604000000003</v>
       </c>
     </row>
@@ -11288,7 +11288,7 @@
         <v>36.020000000000003</v>
       </c>
       <c r="L535">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.343316000000002</v>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
         <v>35.979999999999997</v>
       </c>
       <c r="L536">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.332284000000001</v>
       </c>
     </row>
@@ -11324,7 +11324,7 @@
         <v>36.130000000000003</v>
       </c>
       <c r="L537">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.373654000000002</v>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
         <v>35.92</v>
       </c>
       <c r="L538">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.315736000000001</v>
       </c>
     </row>
@@ -11360,7 +11360,7 @@
         <v>35.61</v>
       </c>
       <c r="L539">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.230238</v>
       </c>
     </row>
@@ -11378,7 +11378,7 @@
         <v>36.49</v>
       </c>
       <c r="L540">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.472942000000003</v>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
         <v>35.97</v>
       </c>
       <c r="L541">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.329526000000001</v>
       </c>
     </row>
@@ -11414,7 +11414,7 @@
         <v>73.59</v>
       </c>
       <c r="L542">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.705122000000003</v>
       </c>
     </row>
@@ -11432,7 +11432,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="L543">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.569980000000001</v>
       </c>
     </row>
@@ -11450,7 +11450,7 @@
         <v>72.98</v>
       </c>
       <c r="L544">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.536884000000001</v>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
         <v>73.41</v>
       </c>
       <c r="L545">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.655478000000002</v>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
         <v>73.3</v>
       </c>
       <c r="L546">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.625140000000002</v>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
         <v>73.16</v>
       </c>
       <c r="L547">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.586528000000001</v>
       </c>
     </row>
@@ -11522,7 +11522,7 @@
         <v>72.75</v>
       </c>
       <c r="L548">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.47345</v>
       </c>
     </row>
@@ -11540,7 +11540,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="L549">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.652720000000002</v>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
         <v>73.23</v>
       </c>
       <c r="L550">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.605834000000002</v>
       </c>
     </row>
@@ -11576,7 +11576,7 @@
         <v>73.63</v>
       </c>
       <c r="L551">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.716153999999996</v>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
         <v>73.41</v>
       </c>
       <c r="L552">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.655478000000002</v>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
         <v>73.430000000000007</v>
       </c>
       <c r="L553">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.660994000000002</v>
       </c>
     </row>
@@ -11630,7 +11630,7 @@
         <v>73.5</v>
       </c>
       <c r="L554">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.680300000000003</v>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
         <v>73.22</v>
       </c>
       <c r="L555">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.603076000000001</v>
       </c>
     </row>
@@ -11666,7 +11666,7 @@
         <v>73.13</v>
       </c>
       <c r="L556">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.578254000000001</v>
       </c>
     </row>
@@ -11684,7 +11684,7 @@
         <v>73.11</v>
       </c>
       <c r="L557">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.572738000000001</v>
       </c>
     </row>
@@ -11702,7 +11702,7 @@
         <v>73.08</v>
       </c>
       <c r="L558">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.564464000000001</v>
       </c>
     </row>
@@ -11720,7 +11720,7 @@
         <v>72.84</v>
       </c>
       <c r="L559">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.498272</v>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
         <v>73.48</v>
       </c>
       <c r="L560">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.674784000000002</v>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
         <v>73.08</v>
       </c>
       <c r="L561">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.564464000000001</v>
       </c>
     </row>
@@ -11774,7 +11774,7 @@
         <v>42.53</v>
       </c>
       <c r="L562">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.138773999999998</v>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
         <v>41.63</v>
       </c>
       <c r="L563">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.890554000000002</v>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
         <v>41.57</v>
       </c>
       <c r="L564">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.874006000000001</v>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
         <v>42.09</v>
       </c>
       <c r="L565">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.017422000000003</v>
       </c>
     </row>
@@ -11846,7 +11846,7 @@
         <v>41.97</v>
       </c>
       <c r="L566">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.984325999999999</v>
       </c>
     </row>
@@ -11864,7 +11864,7 @@
         <v>41.84</v>
       </c>
       <c r="L567">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.948472000000002</v>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
         <v>41.53</v>
       </c>
       <c r="L568">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.862974000000001</v>
       </c>
     </row>
@@ -11900,7 +11900,7 @@
         <v>41.96</v>
       </c>
       <c r="L569">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.981568000000003</v>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
         <v>41.89</v>
       </c>
       <c r="L570">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.962262000000003</v>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
         <v>42.21</v>
       </c>
       <c r="L571">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.050518</v>
       </c>
     </row>
@@ -11954,7 +11954,7 @@
         <v>42.13</v>
       </c>
       <c r="L572">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.028454000000004</v>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
         <v>42.02</v>
       </c>
       <c r="L573">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.998116000000003</v>
       </c>
     </row>
@@ -11990,7 +11990,7 @@
         <v>42.05</v>
       </c>
       <c r="L574">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.00639</v>
       </c>
     </row>
@@ -12008,7 +12008,7 @@
         <v>41.81</v>
       </c>
       <c r="L575">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.940198000000002</v>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
         <v>41.74</v>
       </c>
       <c r="L576">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.920892000000002</v>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
         <v>41.8</v>
       </c>
       <c r="L577">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.937439999999999</v>
       </c>
     </row>
@@ -12062,7 +12062,7 @@
         <v>41.64</v>
       </c>
       <c r="L578">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.893312000000002</v>
       </c>
     </row>
@@ -12080,7 +12080,7 @@
         <v>41.38</v>
       </c>
       <c r="L579">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.821604000000001</v>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
         <v>42.16</v>
       </c>
       <c r="L580">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.036728</v>
       </c>
     </row>
@@ -12116,7 +12116,7 @@
         <v>41.7</v>
       </c>
       <c r="L581">
-        <f t="shared" ref="L581:L644" si="10">(0.2758*K581)+11.409</f>
+        <f t="shared" ref="L581:L644" si="11">(0.2758*K581)+11.409</f>
         <v>22.909860000000002</v>
       </c>
     </row>
@@ -12134,7 +12134,7 @@
         <v>70.73</v>
       </c>
       <c r="L602">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.916333999999999</v>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="L603">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.786708000000004</v>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
         <v>70.13</v>
       </c>
       <c r="L604">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.750853999999997</v>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
         <v>70.56</v>
       </c>
       <c r="L605">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.869447999999998</v>
       </c>
     </row>
@@ -12206,7 +12206,7 @@
         <v>70.44</v>
       </c>
       <c r="L606">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.836351999999998</v>
       </c>
     </row>
@@ -12224,7 +12224,7 @@
         <v>70.3</v>
       </c>
       <c r="L607">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.797739999999997</v>
       </c>
     </row>
@@ -12242,7 +12242,7 @@
         <v>69.819999999999993</v>
       </c>
       <c r="L608">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.665355999999996</v>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
         <v>70.53</v>
       </c>
       <c r="L609">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.861173999999998</v>
       </c>
     </row>
@@ -12278,7 +12278,7 @@
         <v>70.39</v>
       </c>
       <c r="L610">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.822561999999998</v>
       </c>
     </row>
@@ -12296,7 +12296,7 @@
         <v>70.760000000000005</v>
       </c>
       <c r="L611">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.924607999999999</v>
       </c>
     </row>
@@ -12314,7 +12314,7 @@
         <v>70.55</v>
       </c>
       <c r="L612">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.866689999999998</v>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
         <v>70.5</v>
       </c>
       <c r="L613">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.852899999999998</v>
       </c>
     </row>
@@ -12350,7 +12350,7 @@
         <v>70.5</v>
       </c>
       <c r="L614">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.852899999999998</v>
       </c>
     </row>
@@ -12368,7 +12368,7 @@
         <v>70.38</v>
       </c>
       <c r="L615">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.819803999999998</v>
       </c>
     </row>
@@ -12386,7 +12386,7 @@
         <v>70.14</v>
       </c>
       <c r="L616">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.753611999999997</v>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="L617">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.786708000000004</v>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         <v>70.14</v>
       </c>
       <c r="L618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.753611999999997</v>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
         <v>69.84</v>
       </c>
       <c r="L619">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.670872000000003</v>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
         <v>70.41</v>
       </c>
       <c r="L620">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.828077999999998</v>
       </c>
     </row>
@@ -12476,7 +12476,7 @@
         <v>70.03</v>
       </c>
       <c r="L621">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.723274000000004</v>
       </c>
     </row>
@@ -12494,7 +12494,7 @@
         <v>61.94</v>
       </c>
       <c r="L622">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.492052000000001</v>
       </c>
     </row>
@@ -12512,7 +12512,7 @@
         <v>61.26</v>
       </c>
       <c r="L623">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.304507999999998</v>
       </c>
     </row>
@@ -12530,7 +12530,7 @@
         <v>61.2</v>
       </c>
       <c r="L624">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.287959999999998</v>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
         <v>61.6</v>
       </c>
       <c r="L625">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.39828</v>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
         <v>61.62</v>
       </c>
       <c r="L626">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.403796</v>
       </c>
     </row>
@@ -12584,7 +12584,7 @@
         <v>61.33</v>
       </c>
       <c r="L627">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.323813999999999</v>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
         <v>61.02</v>
       </c>
       <c r="L628">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.238315999999998</v>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
         <v>61.56</v>
       </c>
       <c r="L629">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.387248</v>
       </c>
     </row>
@@ -12638,7 +12638,7 @@
         <v>61.45</v>
       </c>
       <c r="L630">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.356909999999999</v>
       </c>
     </row>
@@ -12656,7 +12656,7 @@
         <v>61.85</v>
       </c>
       <c r="L631">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.467230000000001</v>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
         <v>61.65</v>
       </c>
       <c r="L632">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.41207</v>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
         <v>61.62</v>
       </c>
       <c r="L633">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.403796</v>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
         <v>61.73</v>
       </c>
       <c r="L634">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.434134</v>
       </c>
     </row>
@@ -12728,7 +12728,7 @@
         <v>61.44</v>
       </c>
       <c r="L635">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.354151999999999</v>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
         <v>61.27</v>
       </c>
       <c r="L636">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.307265999999998</v>
       </c>
     </row>
@@ -12764,7 +12764,7 @@
         <v>61.4</v>
       </c>
       <c r="L637">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.343119999999999</v>
       </c>
     </row>
@@ -12782,7 +12782,7 @@
         <v>61.18</v>
       </c>
       <c r="L638">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.282443999999998</v>
       </c>
     </row>
@@ -12800,7 +12800,7 @@
         <v>61.01</v>
       </c>
       <c r="L639">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.235557999999997</v>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
         <v>61.64</v>
       </c>
       <c r="L640">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.409312</v>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
         <v>61.17</v>
       </c>
       <c r="L641">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.279685999999998</v>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
         <v>85.08</v>
       </c>
       <c r="L642">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.874063999999997</v>
       </c>
     </row>
@@ -12872,7 +12872,7 @@
         <v>84.63</v>
       </c>
       <c r="L643">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.749953999999995</v>
       </c>
     </row>
@@ -12890,7 +12890,7 @@
         <v>84.47</v>
       </c>
       <c r="L644">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.705826000000002</v>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
         <v>84.93</v>
       </c>
       <c r="L645">
-        <f t="shared" ref="L645:L708" si="11">(0.2758*K645)+11.409</f>
+        <f t="shared" ref="L645:L708" si="12">(0.2758*K645)+11.409</f>
         <v>34.832694000000004</v>
       </c>
     </row>
@@ -12926,7 +12926,7 @@
         <v>84.85</v>
       </c>
       <c r="L646">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.810629999999996</v>
       </c>
     </row>
@@ -12944,7 +12944,7 @@
         <v>84.63</v>
       </c>
       <c r="L647">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.749953999999995</v>
       </c>
     </row>
@@ -12962,7 +12962,7 @@
         <v>84.25</v>
       </c>
       <c r="L648">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.645150000000001</v>
       </c>
     </row>
@@ -12980,7 +12980,7 @@
         <v>84.94</v>
       </c>
       <c r="L649">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.835451999999997</v>
       </c>
     </row>
@@ -12998,7 +12998,7 @@
         <v>84.73</v>
       </c>
       <c r="L650">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.777534000000003</v>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
         <v>85.1</v>
       </c>
       <c r="L651">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.879579999999997</v>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
         <v>84.95</v>
       </c>
       <c r="L652">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.838210000000004</v>
       </c>
     </row>
@@ -13052,7 +13052,7 @@
         <v>85.01</v>
       </c>
       <c r="L653">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.854758000000004</v>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
         <v>84.98</v>
       </c>
       <c r="L654">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.846484000000004</v>
       </c>
     </row>
@@ -13088,7 +13088,7 @@
         <v>84.77</v>
       </c>
       <c r="L655">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.788565999999996</v>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
         <v>84.59</v>
       </c>
       <c r="L656">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.738922000000002</v>
       </c>
     </row>
@@ -13124,7 +13124,7 @@
         <v>84.74</v>
       </c>
       <c r="L657">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.780291999999996</v>
       </c>
     </row>
@@ -13142,7 +13142,7 @@
         <v>84.61</v>
       </c>
       <c r="L658">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.744438000000002</v>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
         <v>84.42</v>
       </c>
       <c r="L659">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.692036000000002</v>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
         <v>84.74</v>
       </c>
       <c r="L660">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.780291999999996</v>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
         <v>84.48</v>
       </c>
       <c r="L661">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.708584000000002</v>
       </c>
     </row>
@@ -13214,7 +13214,7 @@
         <v>70</v>
       </c>
       <c r="L662">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.715000000000003</v>
       </c>
     </row>
@@ -13232,7 +13232,7 @@
         <v>69.45</v>
       </c>
       <c r="L663">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.563310000000001</v>
       </c>
     </row>
@@ -13250,7 +13250,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="L664">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.549520000000001</v>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
         <v>69.819999999999993</v>
       </c>
       <c r="L665">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.665355999999996</v>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
         <v>69.7</v>
       </c>
       <c r="L666">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.632260000000002</v>
       </c>
     </row>
@@ -13304,7 +13304,7 @@
         <v>69.489999999999995</v>
       </c>
       <c r="L667">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.574342000000001</v>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
         <v>69.02</v>
       </c>
       <c r="L668">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.444716</v>
       </c>
     </row>
@@ -13340,7 +13340,7 @@
         <v>69.72</v>
       </c>
       <c r="L669">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.637776000000002</v>
       </c>
     </row>
@@ -13358,7 +13358,7 @@
         <v>69.650000000000006</v>
       </c>
       <c r="L670">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.618470000000002</v>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
         <v>70.02</v>
       </c>
       <c r="L671">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.720515999999996</v>
       </c>
     </row>
@@ -13394,7 +13394,7 @@
         <v>69.819999999999993</v>
       </c>
       <c r="L672">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.665355999999996</v>
       </c>
     </row>
@@ -13412,7 +13412,7 @@
         <v>69.77</v>
       </c>
       <c r="L673">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.651565999999995</v>
       </c>
     </row>
@@ -13430,7 +13430,7 @@
         <v>69.77</v>
       </c>
       <c r="L674">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.651565999999995</v>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
         <v>69.569999999999993</v>
       </c>
       <c r="L675">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.596405999999995</v>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="L676">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.549520000000001</v>
       </c>
     </row>
@@ -13484,7 +13484,7 @@
         <v>69.53</v>
       </c>
       <c r="L677">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.585374000000002</v>
       </c>
     </row>
@@ -13502,7 +13502,7 @@
         <v>69.41</v>
       </c>
       <c r="L678">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.552278000000001</v>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
         <v>69.19</v>
       </c>
       <c r="L679">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.491602</v>
       </c>
     </row>
@@ -13538,7 +13538,7 @@
         <v>69.61</v>
       </c>
       <c r="L680">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.607438000000002</v>
       </c>
     </row>
@@ -13556,7 +13556,7 @@
         <v>69.3</v>
       </c>
       <c r="L681">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.521940000000001</v>
       </c>
     </row>
@@ -13574,7 +13574,7 @@
         <v>70.44</v>
       </c>
       <c r="L682">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.836351999999998</v>
       </c>
     </row>
@@ -13592,7 +13592,7 @@
         <v>69.959999999999994</v>
       </c>
       <c r="L683">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.703967999999996</v>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
         <v>69.91</v>
       </c>
       <c r="L684">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.690177999999996</v>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="L685">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.786708000000004</v>
       </c>
     </row>
@@ -13646,7 +13646,7 @@
         <v>70.14</v>
       </c>
       <c r="L686">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.753611999999997</v>
       </c>
     </row>
@@ -13664,7 +13664,7 @@
         <v>69.94</v>
       </c>
       <c r="L687">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.698451999999996</v>
       </c>
     </row>
@@ -13682,7 +13682,7 @@
         <v>69.540000000000006</v>
       </c>
       <c r="L688">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.588132000000002</v>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
         <v>70.239999999999995</v>
       </c>
       <c r="L689">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.781191999999997</v>
       </c>
     </row>
@@ -13718,7 +13718,7 @@
         <v>70.17</v>
       </c>
       <c r="L690">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.761885999999997</v>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
         <v>70.47</v>
       </c>
       <c r="L691">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.844625999999998</v>
       </c>
     </row>
@@ -13754,7 +13754,7 @@
         <v>70.33</v>
       </c>
       <c r="L692">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.806013999999998</v>
       </c>
     </row>
@@ -13772,7 +13772,7 @@
         <v>70.28</v>
       </c>
       <c r="L693">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.792223999999997</v>
       </c>
     </row>
@@ -13790,7 +13790,7 @@
         <v>70.290000000000006</v>
       </c>
       <c r="L694">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.794982000000005</v>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
         <v>70.09</v>
       </c>
       <c r="L695">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.739822000000004</v>
       </c>
     </row>
@@ -13826,7 +13826,7 @@
         <v>69.92</v>
       </c>
       <c r="L696">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.692936000000003</v>
       </c>
     </row>
@@ -13844,7 +13844,7 @@
         <v>70.040000000000006</v>
       </c>
       <c r="L697">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.726032000000004</v>
       </c>
     </row>
@@ -13862,7 +13862,7 @@
         <v>69.930000000000007</v>
       </c>
       <c r="L698">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.695694000000003</v>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
         <v>69.7</v>
       </c>
       <c r="L699">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.632260000000002</v>
       </c>
     </row>
@@ -13898,7 +13898,7 @@
         <v>70.14</v>
       </c>
       <c r="L700">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.753611999999997</v>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
         <v>69.83</v>
       </c>
       <c r="L701">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30.668114000000003</v>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
         <v>43.72</v>
       </c>
       <c r="L702">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.466976000000003</v>
       </c>
     </row>
@@ -13952,7 +13952,7 @@
         <v>42.89</v>
       </c>
       <c r="L703">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.238061999999999</v>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
         <v>42.69</v>
       </c>
       <c r="L704">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.182901999999999</v>
       </c>
     </row>
@@ -13988,7 +13988,7 @@
         <v>43.27</v>
       </c>
       <c r="L705">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.342866000000001</v>
       </c>
     </row>
@@ -14006,7 +14006,7 @@
         <v>43.23</v>
       </c>
       <c r="L706">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.331834000000001</v>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
         <v>43.09</v>
       </c>
       <c r="L707">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.293222</v>
       </c>
     </row>
@@ -14042,7 +14042,7 @@
         <v>42.71</v>
       </c>
       <c r="L708">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.188417999999999</v>
       </c>
     </row>
@@ -14060,7 +14060,7 @@
         <v>43.22</v>
       </c>
       <c r="L709">
-        <f t="shared" ref="L709:L772" si="12">(0.2758*K709)+11.409</f>
+        <f t="shared" ref="L709:L772" si="13">(0.2758*K709)+11.409</f>
         <v>23.329076000000001</v>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
         <v>42.93</v>
       </c>
       <c r="L710">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.249093999999999</v>
       </c>
     </row>
@@ -14096,7 +14096,7 @@
         <v>43.47</v>
       </c>
       <c r="L711">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.398026000000002</v>
       </c>
     </row>
@@ -14114,7 +14114,7 @@
         <v>43.24</v>
       </c>
       <c r="L712">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.334592000000001</v>
       </c>
     </row>
@@ -14132,7 +14132,7 @@
         <v>43.2</v>
       </c>
       <c r="L713">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.323560000000001</v>
       </c>
     </row>
@@ -14150,7 +14150,7 @@
         <v>43.24</v>
       </c>
       <c r="L714">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.334592000000001</v>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
         <v>42.92</v>
       </c>
       <c r="L715">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.246335999999999</v>
       </c>
     </row>
@@ -14186,7 +14186,7 @@
         <v>42.77</v>
       </c>
       <c r="L716">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.204965999999999</v>
       </c>
     </row>
@@ -14204,7 +14204,7 @@
         <v>42.99</v>
       </c>
       <c r="L717">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.265642</v>
       </c>
     </row>
@@ -14222,7 +14222,7 @@
         <v>42.75</v>
       </c>
       <c r="L718">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.199449999999999</v>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
         <v>42.4</v>
       </c>
       <c r="L719">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.102919999999997</v>
       </c>
     </row>
@@ -14258,7 +14258,7 @@
         <v>43.33</v>
       </c>
       <c r="L720">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.359414000000001</v>
       </c>
     </row>
@@ -14276,7 +14276,7 @@
         <v>42.85</v>
       </c>
       <c r="L721">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.227029999999999</v>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
         <v>77.55</v>
       </c>
       <c r="L722">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.797289999999997</v>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
         <v>77.040000000000006</v>
       </c>
       <c r="L723">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.656632000000002</v>
       </c>
     </row>
@@ -14330,7 +14330,7 @@
         <v>76.87</v>
       </c>
       <c r="L724">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.609746000000001</v>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
         <v>77.459999999999994</v>
       </c>
       <c r="L725">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.772467999999996</v>
       </c>
     </row>
@@ -14366,7 +14366,7 @@
         <v>77.290000000000006</v>
       </c>
       <c r="L726">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.725582000000003</v>
       </c>
     </row>
@@ -14384,7 +14384,7 @@
         <v>77.11</v>
       </c>
       <c r="L727">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.675938000000002</v>
       </c>
     </row>
@@ -14402,7 +14402,7 @@
         <v>76.64</v>
       </c>
       <c r="L728">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.546312</v>
       </c>
     </row>
@@ -14420,7 +14420,7 @@
         <v>77.38</v>
       </c>
       <c r="L729">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.750403999999996</v>
       </c>
     </row>
@@ -14438,7 +14438,7 @@
         <v>77.13</v>
       </c>
       <c r="L730">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.681453999999995</v>
       </c>
     </row>
@@ -14456,7 +14456,7 @@
         <v>77.55</v>
       </c>
       <c r="L731">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.797289999999997</v>
       </c>
     </row>
@@ -14474,7 +14474,7 @@
         <v>77.37</v>
       </c>
       <c r="L732">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.747646000000003</v>
       </c>
     </row>
@@ -14492,7 +14492,7 @@
         <v>77.39</v>
       </c>
       <c r="L733">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.753162000000003</v>
       </c>
     </row>
@@ -14510,7 +14510,7 @@
         <v>77.38</v>
       </c>
       <c r="L734">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.750403999999996</v>
       </c>
     </row>
@@ -14528,7 +14528,7 @@
         <v>77.03</v>
       </c>
       <c r="L735">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.653874000000002</v>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
         <v>76.930000000000007</v>
       </c>
       <c r="L736">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.626294000000001</v>
       </c>
     </row>
@@ -14564,7 +14564,7 @@
         <v>77.14</v>
       </c>
       <c r="L737">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.684212000000002</v>
       </c>
     </row>
@@ -14582,7 +14582,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="L738">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.618020000000001</v>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
         <v>76.709999999999994</v>
       </c>
       <c r="L739">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.565618000000001</v>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
         <v>77.09</v>
       </c>
       <c r="L740">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.670422000000002</v>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
         <v>76.8</v>
       </c>
       <c r="L741">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32.590440000000001</v>
       </c>
     </row>
@@ -14654,7 +14654,7 @@
         <v>58.88</v>
       </c>
       <c r="L742">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.648104000000004</v>
       </c>
     </row>
@@ -14672,7 +14672,7 @@
         <v>58.2</v>
       </c>
       <c r="L743">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.460560000000001</v>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
         <v>58.06</v>
       </c>
       <c r="L744">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.421948</v>
       </c>
     </row>
@@ -14708,7 +14708,7 @@
         <v>58.61</v>
       </c>
       <c r="L745">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.573638000000003</v>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
         <v>58.54</v>
       </c>
       <c r="L746">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.554332000000002</v>
       </c>
     </row>
@@ -14744,7 +14744,7 @@
         <v>58.25</v>
       </c>
       <c r="L747">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.474350000000001</v>
       </c>
     </row>
@@ -14762,7 +14762,7 @@
         <v>57.96</v>
       </c>
       <c r="L748">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.394368</v>
       </c>
     </row>
@@ -14780,7 +14780,7 @@
         <v>58.5</v>
       </c>
       <c r="L749">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.543300000000002</v>
       </c>
     </row>
@@ -14798,7 +14798,7 @@
         <v>58.32</v>
       </c>
       <c r="L750">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.493656000000001</v>
       </c>
     </row>
@@ -14816,7 +14816,7 @@
         <v>58.78</v>
       </c>
       <c r="L751">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.620524000000003</v>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
         <v>58.57</v>
       </c>
       <c r="L752">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.562606000000002</v>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
         <v>58.55</v>
       </c>
       <c r="L753">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.557090000000002</v>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
         <v>58.67</v>
       </c>
       <c r="L754">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.590186000000003</v>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
         <v>58.3</v>
       </c>
       <c r="L755">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.488140000000001</v>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
         <v>58.14</v>
       </c>
       <c r="L756">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.444012000000001</v>
       </c>
     </row>
@@ -14924,7 +14924,7 @@
         <v>58.32</v>
       </c>
       <c r="L757">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.493656000000001</v>
       </c>
     </row>
@@ -14942,7 +14942,7 @@
         <v>58.04</v>
       </c>
       <c r="L758">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.416432</v>
       </c>
     </row>
@@ -14960,7 +14960,7 @@
         <v>57.82</v>
       </c>
       <c r="L759">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.355756</v>
       </c>
     </row>
@@ -14978,7 +14978,7 @@
         <v>58.53</v>
       </c>
       <c r="L760">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.551574000000002</v>
       </c>
     </row>
@@ -14996,7 +14996,7 @@
         <v>58.08</v>
       </c>
       <c r="L761">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.427464000000001</v>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
         <v>35.42</v>
       </c>
       <c r="L762">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.177835999999999</v>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
         <v>34.479999999999997</v>
       </c>
       <c r="L763">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.918583999999999</v>
       </c>
     </row>
@@ -15050,7 +15050,7 @@
         <v>34.35</v>
       </c>
       <c r="L764">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.882730000000002</v>
       </c>
     </row>
@@ -15068,7 +15068,7 @@
         <v>34.82</v>
       </c>
       <c r="L765">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.012356</v>
       </c>
     </row>
@@ -15086,7 +15086,7 @@
         <v>34.75</v>
       </c>
       <c r="L766">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.99305</v>
       </c>
     </row>
@@ -15104,7 +15104,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="L767">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.979260000000004</v>
       </c>
     </row>
@@ -15122,7 +15122,7 @@
         <v>34.270000000000003</v>
       </c>
       <c r="L768">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.860666000000002</v>
       </c>
     </row>
@@ -15140,7 +15140,7 @@
         <v>34.770000000000003</v>
       </c>
       <c r="L769">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.998566000000004</v>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
         <v>34.630000000000003</v>
       </c>
       <c r="L770">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.959954000000003</v>
       </c>
     </row>
@@ -15176,7 +15176,7 @@
         <v>35.08</v>
       </c>
       <c r="L771">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.084063999999998</v>
       </c>
     </row>
@@ -15194,7 +15194,7 @@
         <v>34.909999999999997</v>
       </c>
       <c r="L772">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.037177999999997</v>
       </c>
     </row>
@@ -15212,7 +15212,7 @@
         <v>34.9</v>
       </c>
       <c r="L773">
-        <f t="shared" ref="L773:L836" si="13">(0.2758*K773)+11.409</f>
+        <f t="shared" ref="L773:L836" si="14">(0.2758*K773)+11.409</f>
         <v>21.034420000000001</v>
       </c>
     </row>
@@ -15230,7 +15230,7 @@
         <v>34.9</v>
       </c>
       <c r="L774">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.034420000000001</v>
       </c>
     </row>
@@ -15248,7 +15248,7 @@
         <v>34.630000000000003</v>
       </c>
       <c r="L775">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.959954000000003</v>
       </c>
     </row>
@@ -15266,7 +15266,7 @@
         <v>34.58</v>
       </c>
       <c r="L776">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.946164</v>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
         <v>34.65</v>
       </c>
       <c r="L777">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.96547</v>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
         <v>34.590000000000003</v>
       </c>
       <c r="L778">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.948922000000003</v>
       </c>
     </row>
@@ -15320,7 +15320,7 @@
         <v>34.28</v>
       </c>
       <c r="L779">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.863424000000002</v>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
         <v>35.18</v>
       </c>
       <c r="L780">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.111643999999998</v>
       </c>
     </row>
@@ -15356,7 +15356,7 @@
         <v>34.53</v>
       </c>
       <c r="L781">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.932374000000003</v>
       </c>
     </row>
@@ -15374,7 +15374,7 @@
         <v>46.53</v>
       </c>
       <c r="L782">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.241973999999999</v>
       </c>
     </row>
@@ -15392,7 +15392,7 @@
         <v>45.72</v>
       </c>
       <c r="L783">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.018575999999999</v>
       </c>
     </row>
@@ -15410,7 +15410,7 @@
         <v>45.68</v>
       </c>
       <c r="L784">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.007543999999999</v>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
         <v>46.17</v>
       </c>
       <c r="L785">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.142686000000001</v>
       </c>
     </row>
@@ -15446,7 +15446,7 @@
         <v>46.14</v>
       </c>
       <c r="L786">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.134412000000001</v>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
         <v>45.86</v>
       </c>
       <c r="L787">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.057188</v>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
         <v>45.53</v>
       </c>
       <c r="L788">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.966174000000002</v>
       </c>
     </row>
@@ -15500,7 +15500,7 @@
         <v>46.06</v>
       </c>
       <c r="L789">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.112348000000001</v>
       </c>
     </row>
@@ -15518,7 +15518,7 @@
         <v>45.97</v>
       </c>
       <c r="L790">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.087526</v>
       </c>
     </row>
@@ -15536,7 +15536,7 @@
         <v>46.37</v>
       </c>
       <c r="L791">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.197845999999998</v>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
         <v>46.23</v>
       </c>
       <c r="L792">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.159233999999998</v>
       </c>
     </row>
@@ -15572,7 +15572,7 @@
         <v>46.25</v>
       </c>
       <c r="L793">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.164749999999998</v>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
         <v>46.23</v>
       </c>
       <c r="L794">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.159233999999998</v>
       </c>
     </row>
@@ -15608,7 +15608,7 @@
         <v>45.96</v>
       </c>
       <c r="L795">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.084768</v>
       </c>
     </row>
@@ -15626,7 +15626,7 @@
         <v>45.88</v>
       </c>
       <c r="L796">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.062704</v>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
         <v>45.97</v>
       </c>
       <c r="L797">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.087526</v>
       </c>
     </row>
@@ -15662,7 +15662,7 @@
         <v>45.8</v>
       </c>
       <c r="L798">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.04064</v>
       </c>
     </row>
@@ -15680,7 +15680,7 @@
         <v>45.5</v>
       </c>
       <c r="L799">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.957900000000002</v>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
         <v>46.39</v>
       </c>
       <c r="L800">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.203361999999998</v>
       </c>
     </row>
@@ -15716,7 +15716,7 @@
         <v>45.92</v>
       </c>
       <c r="L801">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.073736</v>
       </c>
     </row>
@@ -15734,7 +15734,7 @@
         <v>39.93</v>
       </c>
       <c r="L802">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.421694000000002</v>
       </c>
     </row>
@@ -15752,7 +15752,7 @@
         <v>39.01</v>
       </c>
       <c r="L803">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.167957999999999</v>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
         <v>38.869999999999997</v>
       </c>
       <c r="L804">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.129345999999998</v>
       </c>
     </row>
@@ -15788,7 +15788,7 @@
         <v>39.409999999999997</v>
       </c>
       <c r="L805">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.278278</v>
       </c>
     </row>
@@ -15806,7 +15806,7 @@
         <v>39.28</v>
       </c>
       <c r="L806">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.242424</v>
       </c>
     </row>
@@ -15824,7 +15824,7 @@
         <v>39.22</v>
       </c>
       <c r="L807">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.225876</v>
       </c>
     </row>
@@ -15842,7 +15842,7 @@
         <v>38.840000000000003</v>
       </c>
       <c r="L808">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.121072000000002</v>
       </c>
     </row>
@@ -15860,7 +15860,7 @@
         <v>39.29</v>
       </c>
       <c r="L809">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.245182</v>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
         <v>39.22</v>
       </c>
       <c r="L810">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.225876</v>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
         <v>39.520000000000003</v>
       </c>
       <c r="L811">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.308616000000001</v>
       </c>
     </row>
@@ -15914,7 +15914,7 @@
         <v>39.369999999999997</v>
       </c>
       <c r="L812">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.267246</v>
       </c>
     </row>
@@ -15932,7 +15932,7 @@
         <v>39.42</v>
       </c>
       <c r="L813">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.281036</v>
       </c>
     </row>
@@ -15950,7 +15950,7 @@
         <v>39.36</v>
       </c>
       <c r="L814">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.264488</v>
       </c>
     </row>
@@ -15968,7 +15968,7 @@
         <v>39.049999999999997</v>
       </c>
       <c r="L815">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.178989999999999</v>
       </c>
     </row>
@@ -15986,7 +15986,7 @@
         <v>38.99</v>
       </c>
       <c r="L816">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.162441999999999</v>
       </c>
     </row>
@@ -16004,7 +16004,7 @@
         <v>39.1</v>
       </c>
       <c r="L817">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.192779999999999</v>
       </c>
     </row>
@@ -16022,7 +16022,7 @@
         <v>38.950000000000003</v>
       </c>
       <c r="L818">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.151409999999998</v>
       </c>
     </row>
@@ -16040,7 +16040,7 @@
         <v>38.69</v>
       </c>
       <c r="L819">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.079701999999997</v>
       </c>
     </row>
@@ -16058,7 +16058,7 @@
         <v>39.47</v>
       </c>
       <c r="L820">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.294826</v>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
         <v>38.94</v>
       </c>
       <c r="L821">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.148651999999998</v>
       </c>
     </row>
@@ -16094,7 +16094,7 @@
         <v>59.16</v>
       </c>
       <c r="L822">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.725327999999998</v>
       </c>
     </row>
@@ -16112,7 +16112,7 @@
         <v>58.48</v>
       </c>
       <c r="L823">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.537784000000002</v>
       </c>
     </row>
@@ -16130,7 +16130,7 @@
         <v>58.27</v>
       </c>
       <c r="L824">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.479866000000001</v>
       </c>
     </row>
@@ -16148,7 +16148,7 @@
         <v>58.9</v>
       </c>
       <c r="L825">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.653619999999997</v>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
         <v>58.83</v>
       </c>
       <c r="L826">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.634313999999996</v>
       </c>
     </row>
@@ -16184,7 +16184,7 @@
         <v>58.54</v>
       </c>
       <c r="L827">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.554332000000002</v>
       </c>
     </row>
@@ -16202,7 +16202,7 @@
         <v>58.18</v>
       </c>
       <c r="L828">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.455044000000001</v>
       </c>
     </row>
@@ -16220,7 +16220,7 @@
         <v>58.79</v>
       </c>
       <c r="L829">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.623282000000003</v>
       </c>
     </row>
@@ -16238,7 +16238,7 @@
         <v>58.53</v>
       </c>
       <c r="L830">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.551574000000002</v>
       </c>
     </row>
@@ -16256,7 +16256,7 @@
         <v>59.06</v>
       </c>
       <c r="L831">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.697748000000004</v>
       </c>
     </row>
@@ -16274,7 +16274,7 @@
         <v>58.86</v>
       </c>
       <c r="L832">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.642587999999996</v>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
         <v>58.77</v>
       </c>
       <c r="L833">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.617766000000003</v>
       </c>
     </row>
@@ -16310,7 +16310,7 @@
         <v>58.88</v>
       </c>
       <c r="L834">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.648104000000004</v>
       </c>
     </row>
@@ -16328,7 +16328,7 @@
         <v>58.51</v>
       </c>
       <c r="L835">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.546058000000002</v>
       </c>
     </row>
@@ -16346,7 +16346,7 @@
         <v>58.35</v>
       </c>
       <c r="L836">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.501930000000002</v>
       </c>
     </row>
@@ -16364,7 +16364,7 @@
         <v>58.54</v>
       </c>
       <c r="L837">
-        <f t="shared" ref="L837:L900" si="14">(0.2758*K837)+11.409</f>
+        <f t="shared" ref="L837:L900" si="15">(0.2758*K837)+11.409</f>
         <v>27.554332000000002</v>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
         <v>58.25</v>
       </c>
       <c r="L838">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.474350000000001</v>
       </c>
     </row>
@@ -16400,7 +16400,7 @@
         <v>57.96</v>
       </c>
       <c r="L839">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.394368</v>
       </c>
     </row>
@@ -16418,7 +16418,7 @@
         <v>58.65</v>
       </c>
       <c r="L840">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.584670000000003</v>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
         <v>58.26</v>
       </c>
       <c r="L841">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.477108000000001</v>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
         <v>50.1</v>
       </c>
       <c r="L842">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.226579999999998</v>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
         <v>49.36</v>
       </c>
       <c r="L843">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.022487999999999</v>
       </c>
     </row>
@@ -16490,7 +16490,7 @@
         <v>49.25</v>
       </c>
       <c r="L844">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.992150000000002</v>
       </c>
     </row>
@@ -16508,7 +16508,7 @@
         <v>49.81</v>
       </c>
       <c r="L845">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.146598000000001</v>
       </c>
     </row>
@@ -16526,7 +16526,7 @@
         <v>49.72</v>
       </c>
       <c r="L846">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.121776000000001</v>
       </c>
     </row>
@@ -16544,7 +16544,7 @@
         <v>49.42</v>
       </c>
       <c r="L847">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.039036000000003</v>
       </c>
     </row>
@@ -16562,7 +16562,7 @@
         <v>49.24</v>
       </c>
       <c r="L848">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.989392000000002</v>
       </c>
     </row>
@@ -16580,7 +16580,7 @@
         <v>49.62</v>
       </c>
       <c r="L849">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.094196</v>
       </c>
     </row>
@@ -16598,7 +16598,7 @@
         <v>49.53</v>
       </c>
       <c r="L850">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.069374</v>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
         <v>50.03</v>
       </c>
       <c r="L851">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.207273999999998</v>
       </c>
     </row>
@@ -16634,7 +16634,7 @@
         <v>49.89</v>
       </c>
       <c r="L852">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.168662000000001</v>
       </c>
     </row>
@@ -16652,7 +16652,7 @@
         <v>49.9</v>
       </c>
       <c r="L853">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.171419999999998</v>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
         <v>49.88</v>
       </c>
       <c r="L854">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.165904000000001</v>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
         <v>49.51</v>
       </c>
       <c r="L855">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.063858</v>
       </c>
     </row>
@@ -16706,7 +16706,7 @@
         <v>49.43</v>
       </c>
       <c r="L856">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.041793999999999</v>
       </c>
     </row>
@@ -16724,7 +16724,7 @@
         <v>49.55</v>
       </c>
       <c r="L857">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.07489</v>
       </c>
     </row>
@@ -16742,7 +16742,7 @@
         <v>49.36</v>
       </c>
       <c r="L858">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.022487999999999</v>
       </c>
     </row>
@@ -16760,7 +16760,7 @@
         <v>49.09</v>
       </c>
       <c r="L859">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.948022000000002</v>
       </c>
     </row>
@@ -16778,7 +16778,7 @@
         <v>49.97</v>
       </c>
       <c r="L860">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.190725999999998</v>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
         <v>49.49</v>
       </c>
       <c r="L861">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.058342000000003</v>
       </c>
     </row>
@@ -16814,7 +16814,7 @@
         <v>75.19</v>
       </c>
       <c r="L862">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.146402000000002</v>
       </c>
     </row>
@@ -16832,7 +16832,7 @@
         <v>74.760000000000005</v>
       </c>
       <c r="L863">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.027808</v>
       </c>
     </row>
@@ -16850,7 +16850,7 @@
         <v>74.650000000000006</v>
       </c>
       <c r="L864">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.99747</v>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
         <v>75.16</v>
       </c>
       <c r="L865">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.138128000000002</v>
       </c>
     </row>
@@ -16886,7 +16886,7 @@
         <v>74.989999999999995</v>
       </c>
       <c r="L866">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.091242000000001</v>
       </c>
     </row>
@@ -16904,7 +16904,7 @@
         <v>74.83</v>
       </c>
       <c r="L867">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.047114000000001</v>
       </c>
     </row>
@@ -16922,7 +16922,7 @@
         <v>74.349999999999994</v>
       </c>
       <c r="L868">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.914729999999999</v>
       </c>
     </row>
@@ -16940,7 +16940,7 @@
         <v>75.069999999999993</v>
       </c>
       <c r="L869">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.113306000000001</v>
       </c>
     </row>
@@ -16958,7 +16958,7 @@
         <v>74.83</v>
       </c>
       <c r="L870">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.047114000000001</v>
       </c>
     </row>
@@ -16976,7 +16976,7 @@
         <v>75.239999999999995</v>
       </c>
       <c r="L871">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.160191999999995</v>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
         <v>75</v>
       </c>
       <c r="L872">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.094000000000001</v>
       </c>
     </row>
@@ -17012,7 +17012,7 @@
         <v>75.02</v>
       </c>
       <c r="L873">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.099516000000001</v>
       </c>
     </row>
@@ -17030,7 +17030,7 @@
         <v>75.02</v>
       </c>
       <c r="L874">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.099516000000001</v>
       </c>
     </row>
@@ -17048,7 +17048,7 @@
         <v>74.75</v>
       </c>
       <c r="L875">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.02505</v>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
         <v>74.58</v>
       </c>
       <c r="L876">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.978164</v>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
         <v>74.709999999999994</v>
       </c>
       <c r="L877">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.014018</v>
       </c>
     </row>
@@ -17102,7 +17102,7 @@
         <v>74.61</v>
       </c>
       <c r="L878">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.986438</v>
       </c>
     </row>
@@ -17120,7 +17120,7 @@
         <v>74.36</v>
       </c>
       <c r="L879">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.917487999999999</v>
       </c>
     </row>
@@ -17138,7 +17138,7 @@
         <v>74.84</v>
       </c>
       <c r="L880">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.049872000000001</v>
       </c>
     </row>
@@ -17156,7 +17156,7 @@
         <v>74.56</v>
       </c>
       <c r="L881">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.972648</v>
       </c>
     </row>
@@ -17174,7 +17174,7 @@
         <v>64.81</v>
       </c>
       <c r="L882">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.283597999999998</v>
       </c>
     </row>
@@ -17192,7 +17192,7 @@
         <v>64.27</v>
       </c>
       <c r="L883">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.134665999999996</v>
       </c>
     </row>
@@ -17210,7 +17210,7 @@
         <v>64.13</v>
       </c>
       <c r="L884">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.096054000000002</v>
       </c>
     </row>
@@ -17228,7 +17228,7 @@
         <v>64.55</v>
       </c>
       <c r="L885">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.211889999999997</v>
       </c>
     </row>
@@ -17246,7 +17246,7 @@
         <v>64.5</v>
       </c>
       <c r="L886">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.198099999999997</v>
       </c>
     </row>
@@ -17264,7 +17264,7 @@
         <v>64.349999999999994</v>
       </c>
       <c r="L887">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.156729999999996</v>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
         <v>63.9</v>
       </c>
       <c r="L888">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.032620000000001</v>
       </c>
     </row>
@@ -17300,7 +17300,7 @@
         <v>64.510000000000005</v>
       </c>
       <c r="L889">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.200858000000004</v>
       </c>
     </row>
@@ -17318,7 +17318,7 @@
         <v>64.39</v>
       </c>
       <c r="L890">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.167762000000003</v>
       </c>
     </row>
@@ -17336,7 +17336,7 @@
         <v>64.739999999999995</v>
       </c>
       <c r="L891">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.264291999999998</v>
       </c>
     </row>
@@ -17354,7 +17354,7 @@
         <v>64.52</v>
       </c>
       <c r="L892">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.203615999999997</v>
       </c>
     </row>
@@ -17372,7 +17372,7 @@
         <v>64.489999999999995</v>
       </c>
       <c r="L893">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.195341999999997</v>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="L894">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.225679999999997</v>
       </c>
     </row>
@@ -17408,7 +17408,7 @@
         <v>64.31</v>
       </c>
       <c r="L895">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.145698000000003</v>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
         <v>64.14</v>
       </c>
       <c r="L896">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.098812000000002</v>
       </c>
     </row>
@@ -17444,7 +17444,7 @@
         <v>64.27</v>
       </c>
       <c r="L897">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.134665999999996</v>
       </c>
     </row>
@@ -17462,7 +17462,7 @@
         <v>64.05</v>
       </c>
       <c r="L898">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.073990000000002</v>
       </c>
     </row>
@@ -17480,7 +17480,7 @@
         <v>63.86</v>
       </c>
       <c r="L899">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.021588000000001</v>
       </c>
     </row>
@@ -17498,7 +17498,7 @@
         <v>64.37</v>
       </c>
       <c r="L900">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.162246000000003</v>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
         <v>64.03</v>
       </c>
       <c r="L901">
-        <f t="shared" ref="L901" si="15">(0.2758*K901)+11.409</f>
+        <f t="shared" ref="L901" si="16">(0.2758*K901)+11.409</f>
         <v>29.068474000000002</v>
       </c>
     </row>
